--- a/catalog.xlsx
+++ b/catalog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Sally/Documents/GitHub/user-manual/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B568D4A8-0F24-3F40-A611-BC1682782661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83443291-32B8-C647-ADA9-61860064E9C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="40960" windowHeight="21140" xr2:uid="{7924ACC4-95BC-C241-97CB-5EF2DB9BB792}"/>
+    <workbookView xWindow="0" yWindow="540" windowWidth="40960" windowHeight="21140" activeTab="12" xr2:uid="{7924ACC4-95BC-C241-97CB-5EF2DB9BB792}"/>
   </bookViews>
   <sheets>
     <sheet name="catalog" sheetId="1" r:id="rId1"/>
@@ -174,7 +174,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1440" uniqueCount="717">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1454" uniqueCount="722">
   <si>
     <t>Connection</t>
   </si>
@@ -5574,6 +5574,21 @@
   </si>
   <si>
     <t>Determine Sequence</t>
+  </si>
+  <si>
+    <t>pushtopics__DeleteExecutionLogsAfterCompletion__c</t>
+  </si>
+  <si>
+    <t>Delete Execution Logs After Completion?</t>
+  </si>
+  <si>
+    <t>Defines what succeeded logs need to be deleted after the execution is completed.</t>
+  </si>
+  <si>
+    <t>Information &amp; Settings</t>
+  </si>
+  <si>
+    <t>Summary</t>
   </si>
 </sst>
 </file>
@@ -6500,8 +6515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6BA7D7E-4D02-4A43-9311-D8AC4BC76D1C}">
   <dimension ref="A2:N77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6986,10 +7001,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31B0341F-EDD4-4841-8C7C-725F476A3F21}">
-  <dimension ref="A3:E18"/>
+  <dimension ref="A3:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7038,177 +7053,193 @@
         <v>477</v>
       </c>
       <c r="E6" t="str">
-        <f t="shared" ref="E6:E11" si="0">"&lt;tr&gt;&lt;td&gt;" &amp;A6 &amp; "&lt;/td&gt;&lt;td class='slds-truncate'&gt;" &amp;B6 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; C6 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
+        <f t="shared" ref="E6:E12" si="0">"&lt;tr&gt;&lt;td&gt;" &amp;A6 &amp; "&lt;/td&gt;&lt;td class='slds-truncate'&gt;" &amp;B6 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; C6 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
         <v>&lt;tr&gt;&lt;td&gt;Completed?&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__Completed__c&lt;/td&gt;&lt;td&gt;Indicates whether the Job Execution is completed or still running in progress.&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="50" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" s="50" t="s">
-        <v>407</v>
+      <c r="A7" s="59" t="s">
+        <v>718</v>
+      </c>
+      <c r="B7" s="60" t="s">
+        <v>717</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>481</v>
-      </c>
+        <v>700</v>
+      </c>
+      <c r="D7" s="34"/>
       <c r="E7" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;tr&gt;&lt;td&gt;End Time&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__EndTime__c&lt;/td&gt;&lt;td&gt;The time a Job Execution ended.&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td&gt;Delete Execution Logs After Completion?&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__DeleteExecutionLogsAfterCompletion__c&lt;/td&gt;&lt;td&gt;Copied from the Job at the time it was executed.&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="50" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="B8" s="50" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>701</v>
+        <v>481</v>
       </c>
       <c r="E8" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;tr&gt;&lt;td&gt;Exceptions&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__Exceptions__c&lt;/td&gt;&lt;td&gt;Exceptions while executing.&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+        <v>&lt;tr&gt;&lt;td&gt;End Time&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__EndTime__c&lt;/td&gt;&lt;td&gt;The time a Job Execution ended.&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="50" t="s">
-        <v>472</v>
+        <v>65</v>
       </c>
       <c r="B9" s="50" t="s">
-        <v>474</v>
+        <v>417</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>483</v>
+        <v>701</v>
       </c>
       <c r="E9" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;tr&gt;&lt;td&gt;Failed Executions&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__FailedExecutions__c&lt;/td&gt;&lt;td&gt;The failed Mapping's Executions count associated with the Job Execution.&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>&lt;tr&gt;&lt;td&gt;Exceptions&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__Exceptions__c&lt;/td&gt;&lt;td&gt;Exceptions while executing.&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="33" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="50" t="s">
-        <v>6</v>
+        <v>472</v>
       </c>
       <c r="B10" s="50" t="s">
-        <v>349</v>
-      </c>
-      <c r="C10" s="46" t="s">
-        <v>479</v>
+        <v>474</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>483</v>
       </c>
       <c r="E10" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;tr&gt;&lt;td&gt;Job&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__Job__c&lt;/td&gt;&lt;td&gt;Master-detail relationship with the Job object.&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="49" thickBot="1" x14ac:dyDescent="0.25">
+        <v>&lt;tr&gt;&lt;td&gt;Failed Executions&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__FailedExecutions__c&lt;/td&gt;&lt;td&gt;The failed Mapping's Executions count associated with the Job Execution.&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="50" t="s">
-        <v>470</v>
+        <v>6</v>
       </c>
       <c r="B11" s="50" t="s">
-        <v>21</v>
+        <v>349</v>
       </c>
       <c r="C11" s="46" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="E11" t="str">
         <f t="shared" si="0"/>
+        <v>&lt;tr&gt;&lt;td&gt;Job&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__Job__c&lt;/td&gt;&lt;td&gt;Master-detail relationship with the Job object.&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="49" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="50" t="s">
+        <v>470</v>
+      </c>
+      <c r="B12" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="46" t="s">
+        <v>473</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="0"/>
         <v>&lt;tr&gt;&lt;td&gt;Job Execution Name&lt;/td&gt;&lt;td class='slds-truncate'&gt;Name&lt;/td&gt;&lt;td&gt;Name of the Job Execution. It is auto-generated, where value is the concatenation of Job's Name and the time when the Job Execution is created.&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="64" t="s">
-        <v>545</v>
-      </c>
-      <c r="B12" s="65" t="s">
-        <v>549</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>700</v>
-      </c>
-      <c r="E12" t="str">
-        <f t="shared" ref="E12:E16" si="1">"&lt;tr&gt;&lt;td&gt;" &amp;A12 &amp; "&lt;/td&gt;&lt;td class='slds-truncate'&gt;" &amp;B12 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; C12 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;Notify Email Addresses&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__NotifyEmailAddresses__c&lt;/td&gt;&lt;td&gt;Copied from the Job at the time it was executed.&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="64" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B13" s="65" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>700</v>
       </c>
       <c r="E13" t="str">
+        <f t="shared" ref="E13:E17" si="1">"&lt;tr&gt;&lt;td&gt;" &amp;A13 &amp; "&lt;/td&gt;&lt;td class='slds-truncate'&gt;" &amp;B13 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; C13 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;&lt;td&gt;Notify Email Addresses&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__NotifyEmailAddresses__c&lt;/td&gt;&lt;td&gt;Copied from the Job at the time it was executed.&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="64" t="s">
+        <v>546</v>
+      </c>
+      <c r="B14" s="65" t="s">
+        <v>550</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="E14" t="str">
         <f t="shared" si="1"/>
         <v>&lt;tr&gt;&lt;td&gt;Notify When Execution Completes?&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__NotifyWhenExecutionCompletes__c&lt;/td&gt;&lt;td&gt;Copied from the Job at the time it was executed.&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="50" t="s">
+    <row r="15" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="50" t="s">
+      <c r="B15" s="50" t="s">
         <v>408</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>480</v>
-      </c>
-      <c r="E14" t="str">
-        <f>"&lt;tr&gt;&lt;td&gt;" &amp;A14 &amp; "&lt;/td&gt;&lt;td class='slds-truncate'&gt;" &amp;B14 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; C14 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;Start Time&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__StartTime__c&lt;/td&gt;&lt;td&gt;The time a Job Execution started.&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="33" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15" s="50" t="s">
-        <v>410</v>
-      </c>
-      <c r="C15" s="60" t="s">
-        <v>478</v>
       </c>
       <c r="E15" t="str">
         <f>"&lt;tr&gt;&lt;td&gt;" &amp;A15 &amp; "&lt;/td&gt;&lt;td class='slds-truncate'&gt;" &amp;B15 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; C15 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;Stopped?&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__Stopped__c&lt;/td&gt;&lt;td&gt;Indicates whether the Job Execution was stopped or not.&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td&gt;Start Time&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__StartTime__c&lt;/td&gt;&lt;td&gt;The time a Job Execution started.&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="33" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="50" t="s">
+        <v>410</v>
+      </c>
+      <c r="C16" s="60" t="s">
+        <v>478</v>
+      </c>
+      <c r="E16" t="str">
+        <f>"&lt;tr&gt;&lt;td&gt;" &amp;A16 &amp; "&lt;/td&gt;&lt;td class='slds-truncate'&gt;" &amp;B16 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; C16 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;&lt;td&gt;Stopped?&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__Stopped__c&lt;/td&gt;&lt;td&gt;Indicates whether the Job Execution was stopped or not.&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="50" t="s">
         <v>471</v>
       </c>
-      <c r="B16" s="50" t="s">
+      <c r="B17" s="50" t="s">
         <v>475</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C17" s="4" t="s">
         <v>482</v>
       </c>
-      <c r="E16" t="str">
+      <c r="E17" t="str">
         <f t="shared" si="1"/>
         <v>&lt;tr&gt;&lt;td&gt;Succeeded Executions&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__SucceededExecutions__c&lt;/td&gt;&lt;td&gt;The succeeceeded Mapping's Executions count associated with the Job Execution.&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="33" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="50" t="s">
+    <row r="18" spans="1:5" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="B17" s="50" t="s">
+      <c r="B18" s="50" t="s">
         <v>411</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C18" s="4" t="s">
         <v>476</v>
       </c>
-      <c r="E17" t="str">
-        <f>"&lt;tr&gt;&lt;td&gt;" &amp;A17 &amp; "&lt;/td&gt;&lt;td class='slds-truncate'&gt;" &amp;B17 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; C17 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
+      <c r="E18" t="str">
+        <f>"&lt;tr&gt;&lt;td&gt;" &amp;A18 &amp; "&lt;/td&gt;&lt;td class='slds-truncate'&gt;" &amp;B18 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; C18 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
         <v>&lt;tr&gt;&lt;td&gt;Succeeded?&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__Succeeded__c&lt;/td&gt;&lt;td&gt;Indicates whether the Job Execution was succeeded or not.&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E18" t="str">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E19" t="str">
         <f>"&lt;/tbody&gt;&lt;/table&gt;&lt;/div&gt;"</f>
         <v>&lt;/tbody&gt;&lt;/table&gt;&lt;/div&gt;</v>
       </c>
@@ -7376,10 +7407,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7501C2D-0338-0A4B-B092-D781290572AF}">
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" zoomScale="125" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView topLeftCell="A7" zoomScale="125" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7484,11 +7515,11 @@
         <v>538</v>
       </c>
       <c r="F11" t="str">
-        <f t="shared" ref="F11:F43" si="0">"&lt;tr&gt;&lt;td&gt;" &amp; A11 &amp; "&lt;/td&gt;&lt;td class='slds-truncate'&gt;" &amp; B11 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; C11 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; D11 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
+        <f t="shared" ref="F11:F44" si="0">"&lt;tr&gt;&lt;td&gt;" &amp; A11 &amp; "&lt;/td&gt;&lt;td class='slds-truncate'&gt;" &amp; B11 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; C11 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; D11 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
         <v>&lt;tr&gt;&lt;td&gt;Action&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__Action__c&lt;/td&gt;&lt;td&gt;Y&lt;/td&gt;&lt;td&gt;The Action DSP executes against the Target. There are 3 options:&lt;ul&gt;&lt;li&gt;&lt;b&gt;Insert&lt;/b&gt;: only performs the 'Insert' action against the Target. If the source data already exists in the Target, the existing data will be ignored for this Action. &lt;/li&gt;&lt;li&gt;&lt;b&gt;Update&lt;/b&gt;: only performs 'Update' action against the Target. Data that does not exist in the Target will be ignored and only 'Update' is performed. &lt;/li&gt;&lt;li&gt;&lt;b&gt;Upsert&lt;/b&gt;: default option. DSP performs the 'Insert' action against the Target for non-existant data, and the 'Update' action on existing data.&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="G11" t="str">
-        <f t="shared" ref="G11:G31" si="1">IF(LEFT(F11,1)="""",MID(F11, 1, LEN(F11) - 2),F11)</f>
+        <f t="shared" ref="G11:G32" si="1">IF(LEFT(F11,1)="""",MID(F11, 1, LEN(F11) - 2),F11)</f>
         <v>&lt;tr&gt;&lt;td&gt;Action&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__Action__c&lt;/td&gt;&lt;td&gt;Y&lt;/td&gt;&lt;td&gt;The Action DSP executes against the Target. There are 3 options:&lt;ul&gt;&lt;li&gt;&lt;b&gt;Insert&lt;/b&gt;: only performs the 'Insert' action against the Target. If the source data already exists in the Target, the existing data will be ignored for this Action. &lt;/li&gt;&lt;li&gt;&lt;b&gt;Update&lt;/b&gt;: only performs 'Update' action against the Target. Data that does not exist in the Target will be ignored and only 'Update' is performed. &lt;/li&gt;&lt;li&gt;&lt;b&gt;Upsert&lt;/b&gt;: default option. DSP performs the 'Insert' action against the Target for non-existant data, and the 'Update' action on existing data.&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -7580,638 +7611,657 @@
         <v>&lt;tr&gt;&lt;td&gt;Bypass Duplicate Rule Alerts?&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__BypassDuplicateRuleAlerts__c&lt;/td&gt;&lt;td&gt;N&lt;/td&gt;&lt;td&gt;Default is "false".  If checked, and if the data actioned to the Target triggers the Duplicate Rule Alert, the alert will be bypassed. &lt;div class="slds-box note-box_outer"&gt;&lt;div class="note-box"&gt;&lt;p class="title"&gt; Note: &lt;/p&gt;&lt;p&gt;A System Administrator will bypass the alert regardlessly whether it is checked or not.&lt;/p&gt;&lt;/div&gt;&lt;/div&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="53" t="s">
+    <row r="16" spans="1:7" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="59" t="s">
+        <v>718</v>
+      </c>
+      <c r="B16" s="60" t="s">
+        <v>717</v>
+      </c>
+      <c r="C16" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="60" t="s">
+        <v>719</v>
+      </c>
+      <c r="E16" s="34"/>
+      <c r="F16" t="str">
+        <f>"&lt;tr&gt;&lt;td&gt;" &amp; A16 &amp; "&lt;/td&gt;&lt;td class='slds-truncate'&gt;" &amp; B16 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; C16 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; D16 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;&lt;td&gt;Delete Execution Logs After Completion?&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__DeleteExecutionLogsAfterCompletion__c&lt;/td&gt;&lt;td&gt;N&lt;/td&gt;&lt;td&gt;Defines what succeeded logs need to be deleted after the execution is completed.&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="53" t="s">
+      <c r="B17" s="53" t="s">
         <v>328</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C17" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D17" s="4" t="s">
         <v>623</v>
       </c>
-      <c r="F16" t="str">
+      <c r="F17" t="str">
         <f t="shared" si="0"/>
         <v>&lt;tr&gt;&lt;td&gt;Description&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__Description__c&lt;/td&gt;&lt;td&gt;N&lt;/td&gt;&lt;td&gt;Description of the Executable.&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
-      <c r="G16" t="str">
+      <c r="G17" t="str">
         <f t="shared" si="1"/>
         <v>&lt;tr&gt;&lt;td&gt;Description&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__Description__c&lt;/td&gt;&lt;td&gt;N&lt;/td&gt;&lt;td&gt;Description of the Executable.&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="33" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="53" t="s">
+    <row r="18" spans="1:7" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="53" t="s">
+      <c r="B18" s="53" t="s">
         <v>343</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C18" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D18" s="4" t="s">
         <v>626</v>
       </c>
-      <c r="F17" t="str">
+      <c r="F18" t="str">
         <f t="shared" si="0"/>
         <v>&lt;tr&gt;&lt;td&gt;Direction&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__Direction__c&lt;/td&gt;&lt;td&gt;N&lt;/td&gt;&lt;td&gt;The Direction of the Executable. If not defined, the Direction of the Job is used. At least one of the &lt;b&gt;Direction&lt;/b&gt; and &lt;b&gt;Job&lt;/b&gt; fields is required.&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
-      <c r="G17" t="str">
+      <c r="G18" t="str">
         <f t="shared" si="1"/>
         <v>&lt;tr&gt;&lt;td&gt;Direction&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__Direction__c&lt;/td&gt;&lt;td&gt;N&lt;/td&gt;&lt;td&gt;The Direction of the Executable. If not defined, the Direction of the Job is used. At least one of the &lt;b&gt;Direction&lt;/b&gt; and &lt;b&gt;Job&lt;/b&gt; fields is required.&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="33" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+    <row r="19" spans="1:7" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B19" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C19" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D19" s="4" t="s">
         <v>535</v>
       </c>
-      <c r="F18" t="str">
+      <c r="F19" t="str">
         <f t="shared" si="0"/>
         <v>&lt;tr&gt;&lt;td&gt;Disable Feed Tracking?&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__DisableFeedTracking__c&lt;/td&gt;&lt;td&gt;N&lt;/td&gt;&lt;td&gt;To disable Feed Tracking in the Target. It can only be checked when the Target is an integration type of Connection. Default is "false". &lt;/td&gt;&lt;/tr&gt;</v>
       </c>
-      <c r="G18" t="str">
+      <c r="G19" t="str">
         <f t="shared" si="1"/>
         <v>&lt;tr&gt;&lt;td&gt;Disable Feed Tracking?&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__DisableFeedTracking__c&lt;/td&gt;&lt;td&gt;N&lt;/td&gt;&lt;td&gt;To disable Feed Tracking in the Target. It can only be checked when the Target is an integration type of Connection. Default is "false". &lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+    <row r="20" spans="1:7" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B20" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C20" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D20" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="F19" t="str">
+      <c r="F20" t="str">
         <f t="shared" si="0"/>
         <v>&lt;tr&gt;&lt;td&gt;Failure Message&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__FailureMessage__c&lt;/td&gt;&lt;td&gt;N&lt;/td&gt;&lt;td&gt;If defined, the message will be shown in the notification when the Execution fails. If undefined, a system default message will be displayed.&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
-      <c r="G19" t="str">
+      <c r="G20" t="str">
         <f t="shared" si="1"/>
         <v>&lt;tr&gt;&lt;td&gt;Failure Message&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__FailureMessage__c&lt;/td&gt;&lt;td&gt;N&lt;/td&gt;&lt;td&gt;If defined, the message will be shown in the notification when the Execution fails. If undefined, a system default message will be displayed.&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="49" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+    <row r="21" spans="1:7" ht="49" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B21" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C21" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D21" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="F20" t="str">
+      <c r="F21" t="str">
         <f t="shared" si="0"/>
         <v>&lt;tr&gt;&lt;td&gt;Include Failed Data in Results?&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__IncludeFailedDataInResults__c&lt;/td&gt;&lt;td&gt;N&lt;/td&gt;&lt;td&gt;Default is "false". If unchecked, only the Ids of the data and the result from the Target will be logged in the Execution or Batch Execution records. If checked, the failed records against the Target will be added to the log in JSON format to help debug the issues. &lt;/td&gt;&lt;/tr&gt;</v>
       </c>
-      <c r="G20" t="str">
+      <c r="G21" t="str">
         <f t="shared" si="1"/>
         <v>&lt;tr&gt;&lt;td&gt;Include Failed Data in Results?&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__IncludeFailedDataInResults__c&lt;/td&gt;&lt;td&gt;N&lt;/td&gt;&lt;td&gt;Default is "false". If unchecked, only the Ids of the data and the result from the Target will be logged in the Execution or Batch Execution records. If checked, the failed records against the Target will be added to the log in JSON format to help debug the issues. &lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="33" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+    <row r="22" spans="1:7" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B22" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C22" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D22" s="4" t="s">
         <v>627</v>
       </c>
-      <c r="F21" t="str">
+      <c r="F22" t="str">
         <f t="shared" si="0"/>
         <v>&lt;tr&gt;&lt;td&gt;Job&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__Job__c&lt;/td&gt;&lt;td&gt;N&lt;/td&gt;&lt;td&gt;The Job that the Executable is associated with. When multiple Executables are associated with a same Job, they can be executed in sequence based on the Seq No..&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
-      <c r="G21" t="str">
+      <c r="G22" t="str">
         <f t="shared" si="1"/>
         <v>&lt;tr&gt;&lt;td&gt;Job&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__Job__c&lt;/td&gt;&lt;td&gt;N&lt;/td&gt;&lt;td&gt;The Job that the Executable is associated with. When multiple Executables are associated with a same Job, they can be executed in sequence based on the Seq No..&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="49" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="50" t="s">
+    <row r="23" spans="1:7" ht="49" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="50" t="s">
         <v>551</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B23" s="4" t="s">
         <v>548</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C23" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D23" s="4" t="s">
         <v>554</v>
       </c>
-      <c r="F22" t="str">
+      <c r="F23" t="str">
         <f t="shared" si="0"/>
         <v>&lt;tr&gt;&lt;td&gt;Last Execution Time&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__LastExecutionTime__c&lt;/td&gt;&lt;td&gt;N&lt;/td&gt;&lt;td&gt;Auto-populated to the last execution's start time. It can be used in conjunction with the Retrieve Modified Since Last Execution field to sync data incrementally, which if checked, DSP will retrieve source data only updated later than the Last Execution Time in addition to the criteria defined in the Retrieve Parameters during execution.&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
-      <c r="G22" t="str">
+      <c r="G23" t="str">
         <f t="shared" si="1"/>
         <v>&lt;tr&gt;&lt;td&gt;Last Execution Time&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__LastExecutionTime__c&lt;/td&gt;&lt;td&gt;N&lt;/td&gt;&lt;td&gt;Auto-populated to the last execution's start time. It can be used in conjunction with the Retrieve Modified Since Last Execution field to sync data incrementally, which if checked, DSP will retrieve source data only updated later than the Last Execution Time in addition to the criteria defined in the Retrieve Parameters during execution.&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+    <row r="24" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
         <v>629</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B24" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C24" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D24" s="4" t="s">
         <v>628</v>
       </c>
-      <c r="F23" t="str">
+      <c r="F24" t="str">
         <f t="shared" si="0"/>
         <v>&lt;tr&gt;&lt;td&gt;Executable API Name&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__ApiName__c&lt;/td&gt;&lt;td&gt;Y&lt;/td&gt;&lt;td&gt;The name that uniquely identifies the Executable.&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
-      <c r="G23" t="str">
+      <c r="G24" t="str">
         <f t="shared" si="1"/>
         <v>&lt;tr&gt;&lt;td&gt;Executable API Name&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__ApiName__c&lt;/td&gt;&lt;td&gt;Y&lt;/td&gt;&lt;td&gt;The name that uniquely identifies the Executable.&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="53" t="s">
+    <row r="25" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="53" t="s">
         <v>630</v>
       </c>
-      <c r="B24" s="23" t="s">
+      <c r="B25" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C25" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D25" s="4" t="s">
         <v>631</v>
       </c>
-      <c r="F24" t="str">
+      <c r="F25" t="str">
         <f t="shared" si="0"/>
         <v>&lt;tr&gt;&lt;td&gt;Executable Name&lt;/td&gt;&lt;td class='slds-truncate'&gt;Name&lt;/td&gt;&lt;td&gt;Y&lt;/td&gt;&lt;td&gt;The name of the Executable.&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
-      <c r="G24" t="str">
+      <c r="G25" t="str">
         <f t="shared" si="1"/>
         <v>&lt;tr&gt;&lt;td&gt;Executable Name&lt;/td&gt;&lt;td class='slds-truncate'&gt;Name&lt;/td&gt;&lt;td&gt;Y&lt;/td&gt;&lt;td&gt;The name of the Executable.&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="33" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="64" t="s">
+    <row r="26" spans="1:7" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="64" t="s">
         <v>545</v>
       </c>
-      <c r="B25" s="65" t="s">
+      <c r="B26" s="65" t="s">
         <v>549</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C26" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D26" s="4" t="s">
         <v>547</v>
       </c>
-      <c r="F25" t="str">
+      <c r="F26" t="str">
         <f t="shared" si="0"/>
         <v>&lt;tr&gt;&lt;td&gt;Notify Email Addresses&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__NotifyEmailAddresses__c&lt;/td&gt;&lt;td&gt;N&lt;/td&gt;&lt;td&gt;Comma separated email addresses to be notified when the execution is completed if the Notify When Execution Completes? is checked.&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
-      <c r="G25" t="str">
+      <c r="G26" t="str">
         <f t="shared" si="1"/>
         <v>&lt;tr&gt;&lt;td&gt;Notify Email Addresses&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__NotifyEmailAddresses__c&lt;/td&gt;&lt;td&gt;N&lt;/td&gt;&lt;td&gt;Comma separated email addresses to be notified when the execution is completed if the Notify When Execution Completes? is checked.&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="49" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="64" t="s">
+    <row r="27" spans="1:7" ht="49" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="64" t="s">
         <v>546</v>
       </c>
-      <c r="B26" s="65" t="s">
+      <c r="B27" s="65" t="s">
         <v>550</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C27" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D27" s="4" t="s">
         <v>705</v>
       </c>
-      <c r="F26" t="str">
+      <c r="F27" t="str">
         <f t="shared" si="0"/>
         <v>&lt;tr&gt;&lt;td&gt;Notify When Execution Completes?&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__NotifyWhenExecutionCompletes__c&lt;/td&gt;&lt;td&gt;N&lt;/td&gt;&lt;td&gt;If "Always" is selected, system will send a notification email to the email addressed defined in the &lt;b&gt;Notify Email Addresses&lt;/b&gt; field once the execution is completed; If "Only If Failed" is selected, the email will be sent only if the execution failed.&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
-      <c r="G26" t="str">
+      <c r="G27" t="str">
         <f t="shared" si="1"/>
         <v>&lt;tr&gt;&lt;td&gt;Notify When Execution Completes?&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__NotifyWhenExecutionCompletes__c&lt;/td&gt;&lt;td&gt;N&lt;/td&gt;&lt;td&gt;If "Always" is selected, system will send a notification email to the email addressed defined in the &lt;b&gt;Notify Email Addresses&lt;/b&gt; field once the execution is completed; If "Only If Failed" is selected, the email will be sent only if the execution failed.&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+    <row r="28" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B28" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C28" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D28" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="F27" t="str">
+      <c r="F28" t="str">
         <f t="shared" si="0"/>
         <v>&lt;tr&gt;&lt;td&gt;Retrieve Limit&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__RetrieveLimit__c&lt;/td&gt;&lt;td&gt;N&lt;/td&gt;&lt;td&gt;If defined, it will be the maximum number of records that can be retrieved from the Source.&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
-      <c r="G27" t="str">
+      <c r="G28" t="str">
         <f t="shared" si="1"/>
         <v>&lt;tr&gt;&lt;td&gt;Retrieve Limit&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__RetrieveLimit__c&lt;/td&gt;&lt;td&gt;N&lt;/td&gt;&lt;td&gt;If defined, it will be the maximum number of records that can be retrieved from the Source.&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="33" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="50" t="s">
+    <row r="29" spans="1:7" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="50" t="s">
         <v>552</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B29" s="4" t="s">
         <v>553</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C29" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D29" s="4" t="s">
         <v>555</v>
       </c>
-      <c r="F28" t="str">
+      <c r="F29" t="str">
         <f t="shared" si="0"/>
         <v>&lt;tr&gt;&lt;td&gt;Retrieve Modified Since Last Execution&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__RetrieveModifiedSinceLastExecution__c&lt;/td&gt;&lt;td&gt;N&lt;/td&gt;&lt;td&gt;If checked,  DSP will retrieve source data only updated later than the Last Execution Time in addition to the criteria defined in the Retrieve Parameters during execution.&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
-      <c r="G28" t="str">
+      <c r="G29" t="str">
         <f t="shared" si="1"/>
         <v>&lt;tr&gt;&lt;td&gt;Retrieve Modified Since Last Execution&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__RetrieveModifiedSinceLastExecution__c&lt;/td&gt;&lt;td&gt;N&lt;/td&gt;&lt;td&gt;If checked,  DSP will retrieve source data only updated later than the Last Execution Time in addition to the criteria defined in the Retrieve Parameters during execution.&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="50" t="s">
+    <row r="30" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="50" t="s">
         <v>353</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B30" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C30" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D30" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="F29" t="str">
+      <c r="F30" t="str">
         <f t="shared" si="0"/>
         <v>&lt;tr&gt;&lt;td&gt;Retrieve Order By&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__RetrieveOrderBy__c&lt;/td&gt;&lt;td&gt;N&lt;/td&gt;&lt;td&gt;The order in which the source data is retrieved.&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
-      <c r="G29" t="str">
+      <c r="G30" t="str">
         <f t="shared" si="1"/>
         <v>&lt;tr&gt;&lt;td&gt;Retrieve Order By&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__RetrieveOrderBy__c&lt;/td&gt;&lt;td&gt;N&lt;/td&gt;&lt;td&gt;The order in which the source data is retrieved.&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="33" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+    <row r="31" spans="1:7" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B31" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C31" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D31" s="4" t="s">
         <v>632</v>
       </c>
-      <c r="F30" t="str">
+      <c r="F31" t="str">
         <f t="shared" si="0"/>
         <v>&lt;tr&gt;&lt;td&gt;Retrieve Parameters&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__RetrieveParameters__c&lt;/td&gt;&lt;td&gt;N&lt;/td&gt;&lt;td&gt;The parameters used to retrieve the source data. There are 4 different types of parameters, which could be either a blank string, SOQL WHERE condition, a single Salesforce Id or a JSON array of Salesforce IDs of the Source Object.&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
-      <c r="G30" t="str">
+      <c r="G31" t="str">
         <f t="shared" si="1"/>
         <v>&lt;tr&gt;&lt;td&gt;Retrieve Parameters&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__RetrieveParameters__c&lt;/td&gt;&lt;td&gt;N&lt;/td&gt;&lt;td&gt;The parameters used to retrieve the source data. There are 4 different types of parameters, which could be either a blank string, SOQL WHERE condition, a single Salesforce Id or a JSON array of Salesforce IDs of the Source Object.&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="80" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="8" t="s">
+    <row r="32" spans="1:7" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="8" t="s">
         <v>358</v>
       </c>
-      <c r="B31" s="49" t="s">
+      <c r="B32" s="49" t="s">
         <v>357</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C32" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="D32" s="9" t="s">
         <v>359</v>
       </c>
-      <c r="F31" t="str">
+      <c r="F32" t="str">
         <f t="shared" si="0"/>
         <v>&lt;tr&gt;&lt;td&gt;Retrieve Size&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__RetrieveSize__c&lt;/td&gt;&lt;td&gt;N&lt;/td&gt;&lt;td&gt;This setting only applies when the Source is an integration type of Connection. If defined, DSP sets the limit based on this value in the HTTP Header before calling the Salesforce standard REST API.&lt;div class="slds-box note-box_outer"&gt;&lt;div class="note-box"&gt;&lt;p class="title"&gt; Note: &lt;/p&gt;&lt;p&gt;According to Salesforce: "There is no guarantee that the requested batch size is the actual batch size. Changes are made as necessary to maximize performance."&lt;/p&gt;&lt;/div&gt;&lt;/div&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
-      <c r="G31" t="str">
+      <c r="G32" t="str">
         <f t="shared" si="1"/>
         <v>&lt;tr&gt;&lt;td&gt;Retrieve Size&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__RetrieveSize__c&lt;/td&gt;&lt;td&gt;N&lt;/td&gt;&lt;td&gt;This setting only applies when the Source is an integration type of Connection. If defined, DSP sets the limit based on this value in the HTTP Header before calling the Salesforce standard REST API.&lt;div class="slds-box note-box_outer"&gt;&lt;div class="note-box"&gt;&lt;p class="title"&gt; Note: &lt;/p&gt;&lt;p&gt;According to Salesforce: "There is no guarantee that the requested batch size is the actual batch size. Changes are made as necessary to maximize performance."&lt;/p&gt;&lt;/div&gt;&lt;/div&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="33" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
+    <row r="33" spans="1:7" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B33" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C33" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D33" s="4" t="s">
         <v>624</v>
       </c>
-      <c r="F32" t="str">
+      <c r="F33" t="str">
         <f t="shared" si="0"/>
         <v>&lt;tr&gt;&lt;td&gt;Seq No.&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__SeqNo__c&lt;/td&gt;&lt;td&gt;N&lt;/td&gt;&lt;td&gt;The sequence number for the current Executable that is part of the associated Job. When a Job is executed, the Executables will be executed in the ascending order defined in the Seq No. field.&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
-      <c r="G32" t="str">
-        <f t="shared" ref="G32:G43" si="2">IF(LEFT(F32,1)="""",MID(F32, 1, LEN(F32) - 2),F32)</f>
+      <c r="G33" t="str">
+        <f t="shared" ref="G33:G44" si="2">IF(LEFT(F33,1)="""",MID(F33, 1, LEN(F33) - 2),F33)</f>
         <v>&lt;tr&gt;&lt;td&gt;Seq No.&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__SeqNo__c&lt;/td&gt;&lt;td&gt;N&lt;/td&gt;&lt;td&gt;The sequence number for the current Executable that is part of the associated Job. When a Job is executed, the Executables will be executed in the ascending order defined in the Seq No. field.&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="50" t="s">
+    <row r="34" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="50" t="s">
         <v>643</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B34" s="4" t="s">
         <v>642</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C34" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D34" s="4" t="s">
         <v>644</v>
       </c>
-      <c r="F33" t="str">
+      <c r="F34" t="str">
         <f t="shared" si="0"/>
         <v>&lt;tr&gt;&lt;td&gt;Seq No. Must Be Unique Across Job&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__SeqNoMustBeUniqueAcrossJob__c&lt;/td&gt;&lt;td&gt;N&lt;/td&gt;&lt;td&gt;A helper field used to make sure all Executables associated with a same Job must have uniuqe Seq No.&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
-      <c r="G33" t="str">
+      <c r="G34" t="str">
         <f t="shared" si="2"/>
         <v>&lt;tr&gt;&lt;td&gt;Seq No. Must Be Unique Across Job&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__SeqNoMustBeUniqueAcrossJob__c&lt;/td&gt;&lt;td&gt;N&lt;/td&gt;&lt;td&gt;A helper field used to make sure all Executables associated with a same Job must have uniuqe Seq No.&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
+    <row r="35" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
         <v>634</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B35" s="4" t="s">
         <v>635</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C35" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D35" s="4" t="s">
         <v>536</v>
       </c>
-      <c r="F34" t="str">
+      <c r="F35" t="str">
         <f t="shared" si="0"/>
         <v>&lt;tr&gt;&lt;td&gt;Skip Null Values?&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__SkipNullValues__c&lt;/td&gt;&lt;td&gt;N&lt;/td&gt;&lt;td&gt;Default is "false". If checked and the calculated value is null, the target field will not be updated.&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
-      <c r="G34" t="str">
-        <f>IF(LEFT(F34,1)="""",MID(F34, 1, LEN(F34) - 2),F34)</f>
+      <c r="G35" t="str">
+        <f>IF(LEFT(F35,1)="""",MID(F35, 1, LEN(F35) - 2),F35)</f>
         <v>&lt;tr&gt;&lt;td&gt;Skip Null Values?&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__SkipNullValues__c&lt;/td&gt;&lt;td&gt;N&lt;/td&gt;&lt;td&gt;Default is "false". If checked and the calculated value is null, the target field will not be updated.&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="33" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="50" t="s">
+    <row r="36" spans="1:7" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="50" t="s">
         <v>637</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B36" s="4" t="s">
         <v>636</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C36" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D36" s="4" t="s">
         <v>638</v>
       </c>
-      <c r="F35" t="str">
+      <c r="F36" t="str">
         <f t="shared" si="0"/>
         <v>&lt;tr&gt;&lt;td&gt;Skip Record Update If No Changes?&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__SkipRecordUpdateIfNoChanges__c&lt;/td&gt;&lt;td&gt;N&lt;/td&gt;&lt;td&gt;If checked, during updating existing data, if a record has no change in the Target, it will be excluded in the update operation, so that the DMLs and the associated automation will not fire.&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
-      <c r="G35" t="str">
-        <f>IF(LEFT(F35,1)="""",MID(F35, 1, LEN(F35) - 2),F35)</f>
+      <c r="G36" t="str">
+        <f>IF(LEFT(F36,1)="""",MID(F36, 1, LEN(F36) - 2),F36)</f>
         <v>&lt;tr&gt;&lt;td&gt;Skip Record Update If No Changes?&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__SkipRecordUpdateIfNoChanges__c&lt;/td&gt;&lt;td&gt;N&lt;/td&gt;&lt;td&gt;If checked, during updating existing data, if a record has no change in the Target, it will be excluded in the update operation, so that the DMLs and the associated automation will not fire.&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
+    <row r="37" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B37" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C37" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D37" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="F36" t="str">
+      <c r="F37" t="str">
         <f t="shared" si="0"/>
         <v>&lt;tr&gt;&lt;td&gt;Source Connection Name&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__SourceConnectionName__c&lt;/td&gt;&lt;td&gt;N&lt;/td&gt;&lt;td&gt;Formula field that shows the name of the source connection&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
-      <c r="G36" t="str">
-        <f>IF(LEFT(F36,1)="""",MID(F36, 1, LEN(F36) - 2),F36)</f>
+      <c r="G37" t="str">
+        <f>IF(LEFT(F37,1)="""",MID(F37, 1, LEN(F37) - 2),F37)</f>
         <v>&lt;tr&gt;&lt;td&gt;Source Connection Name&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__SourceConnectionName__c&lt;/td&gt;&lt;td&gt;N&lt;/td&gt;&lt;td&gt;Formula field that shows the name of the source connection&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
+    <row r="38" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B38" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C38" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D38" s="4" t="s">
         <v>365</v>
       </c>
-      <c r="F37" t="str">
+      <c r="F38" t="str">
         <f t="shared" si="0"/>
         <v>&lt;tr&gt;&lt;td&gt;Source Object Name&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__SourceObjectName__c&lt;/td&gt;&lt;td&gt;N&lt;/td&gt;&lt;td&gt;The Source Object's API name, where the source data will be retrieved from.&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
-      <c r="G37" t="str">
+      <c r="G38" t="str">
         <f t="shared" si="2"/>
         <v>&lt;tr&gt;&lt;td&gt;Source Object Name&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__SourceObjectName__c&lt;/td&gt;&lt;td&gt;N&lt;/td&gt;&lt;td&gt;The Source Object's API name, where the source data will be retrieved from.&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="50" t="s">
+    <row r="39" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="50" t="s">
         <v>640</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B39" s="4" t="s">
         <v>639</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C39" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D39" s="4" t="s">
         <v>641</v>
       </c>
-      <c r="F38" t="str">
+      <c r="F39" t="str">
         <f t="shared" si="0"/>
         <v>&lt;tr&gt;&lt;td&gt;Stop Execution When A Batch Fails?&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__StopExecutionWhenABatchFails__c&lt;/td&gt;&lt;td&gt;N&lt;/td&gt;&lt;td&gt;Default false. If checked, execution will be stopped if there is a batch failed.&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
-      <c r="G38" t="str">
+      <c r="G39" t="str">
         <f t="shared" si="2"/>
         <v>&lt;tr&gt;&lt;td&gt;Stop Execution When A Batch Fails?&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__StopExecutionWhenABatchFails__c&lt;/td&gt;&lt;td&gt;N&lt;/td&gt;&lt;td&gt;Default false. If checked, execution will be stopped if there is a batch failed.&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
+    <row r="40" spans="1:7" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B40" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C40" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="D40" s="5" t="s">
         <v>432</v>
       </c>
-      <c r="F39" t="str">
+      <c r="F40" t="str">
         <f t="shared" si="0"/>
         <v>&lt;tr&gt;&lt;td&gt;Success Message&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__SuccessMessage__c&lt;/td&gt;&lt;td&gt;N&lt;/td&gt;&lt;td&gt;If defined, the message will be shown in the notification when the Execution succeeds. If undefined, a system default message will be displayed.&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
-      <c r="G39" t="str">
-        <f>IF(LEFT(F39,1)="""",MID(F39, 1, LEN(F39) - 2),F39)</f>
+      <c r="G40" t="str">
+        <f>IF(LEFT(F40,1)="""",MID(F40, 1, LEN(F40) - 2),F40)</f>
         <v>&lt;tr&gt;&lt;td&gt;Success Message&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__SuccessMessage__c&lt;/td&gt;&lt;td&gt;N&lt;/td&gt;&lt;td&gt;If defined, the message will be shown in the notification when the Execution succeeds. If undefined, a system default message will be displayed.&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="7" t="s">
+    <row r="41" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B40" s="52" t="s">
+      <c r="B41" s="52" t="s">
         <v>367</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C41" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="D41" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F40" t="str">
+      <c r="F41" t="str">
         <f t="shared" si="0"/>
         <v>&lt;tr&gt;&lt;td&gt;Target Connection Name&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__TargetConnectionName__c&lt;/td&gt;&lt;td&gt;N&lt;/td&gt;&lt;td&gt;A formula field that shows the name of the target connection&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
-      <c r="G40" t="str">
-        <f>IF(LEFT(F40,1)="""",MID(F40, 1, LEN(F40) - 2),F40)</f>
+      <c r="G41" t="str">
+        <f>IF(LEFT(F41,1)="""",MID(F41, 1, LEN(F41) - 2),F41)</f>
         <v>&lt;tr&gt;&lt;td&gt;Target Connection Name&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__TargetConnectionName__c&lt;/td&gt;&lt;td&gt;N&lt;/td&gt;&lt;td&gt;A formula field that shows the name of the target connection&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="65" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
+    <row r="42" spans="1:7" ht="65" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B42" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C42" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D42" s="4" t="s">
         <v>537</v>
       </c>
-      <c r="F41" t="str">
+      <c r="F42" t="str">
         <f t="shared" si="0"/>
         <v>&lt;tr&gt;&lt;td&gt;Target Key Field&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__TargetKeyField__c&lt;/td&gt;&lt;td&gt;Y&lt;/td&gt;&lt;td&gt;The Target Key Field is the "Key" field's API name on the Target Object that is used to check the existence of the source data in the target, which will then inform which data requires an update, vs which requires an insert. It can be any type of Text type of field, but we recommend it is a unique field which is either an External Id field, or the Standard "Salesforce Id" field when the Source and Target share the same Salesforce Record Id. &lt;/td&gt;&lt;/tr&gt;</v>
       </c>
-      <c r="G41" t="str">
-        <f>IF(LEFT(F41,1)="""",MID(F41, 1, LEN(F41) - 2),F41)</f>
+      <c r="G42" t="str">
+        <f>IF(LEFT(F42,1)="""",MID(F42, 1, LEN(F42) - 2),F42)</f>
         <v>&lt;tr&gt;&lt;td&gt;Target Key Field&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__TargetKeyField__c&lt;/td&gt;&lt;td&gt;Y&lt;/td&gt;&lt;td&gt;The Target Key Field is the "Key" field's API name on the Target Object that is used to check the existence of the source data in the target, which will then inform which data requires an update, vs which requires an insert. It can be any type of Text type of field, but we recommend it is a unique field which is either an External Id field, or the Standard "Salesforce Id" field when the Source and Target share the same Salesforce Record Id. &lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
+    <row r="43" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B43" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C43" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="D43" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="F42" t="str">
+      <c r="F43" t="str">
         <f t="shared" si="0"/>
         <v>&lt;tr&gt;&lt;td&gt;Target Object Name&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__TargetObjectName__c&lt;/td&gt;&lt;td&gt;Y&lt;/td&gt;&lt;td&gt;The Object's API name in the Target where the data will be synced to.&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
-      <c r="G42" t="str">
+      <c r="G43" t="str">
         <f t="shared" si="2"/>
         <v>&lt;tr&gt;&lt;td&gt;Target Object Name&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__TargetObjectName__c&lt;/td&gt;&lt;td&gt;Y&lt;/td&gt;&lt;td&gt;The Object's API name in the Target where the data will be synced to.&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
+    <row r="44" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B44" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C44" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="D44" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F43" t="str">
+      <c r="F44" t="str">
         <f t="shared" si="0"/>
         <v>&lt;tr&gt;&lt;td&gt;Use Default Assignment Rule?&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__UseDefaultAssignmentRule__c&lt;/td&gt;&lt;td&gt;N&lt;/td&gt;&lt;td&gt;Default "false". If checked, the default assignment rule in the Target will be used.&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
-      <c r="G43" t="str">
+      <c r="G44" t="str">
         <f t="shared" si="2"/>
         <v>&lt;tr&gt;&lt;td&gt;Use Default Assignment Rule?&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__UseDefaultAssignmentRule__c&lt;/td&gt;&lt;td&gt;N&lt;/td&gt;&lt;td&gt;Default "false". If checked, the default assignment rule in the Target will be used.&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F45" t="str">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F46" t="str">
         <f>"&lt;/tbody&gt;&lt;/table&gt;&lt;/div&gt;&lt;div class='v-space'&gt;&lt;/div&gt;"</f>
         <v>&lt;/tbody&gt;&lt;/table&gt;&lt;/div&gt;&lt;div class='v-space'&gt;&lt;/div&gt;</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="153" x14ac:dyDescent="0.2">
-      <c r="A48" s="10" t="s">
+    <row r="49" spans="1:2" ht="153" x14ac:dyDescent="0.2">
+      <c r="A49" s="10" t="s">
         <v>633</v>
       </c>
-      <c r="B48" s="10"/>
+      <c r="B49" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8220,10 +8270,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66EF6E47-9443-3840-BF51-A6BFB8494520}">
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29:E42"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8233,13 +8283,13 @@
     <col min="5" max="5" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E1" t="str">
         <f>"&lt;div class='back-to-top-box'&gt;&lt;a href='#title'&gt;&amp;#8679; Back to Top&lt;/a&gt;&lt;/div&gt;"</f>
         <v>&lt;div class='back-to-top-box'&gt;&lt;a href='#title'&gt;&amp;#8679; Back to Top&lt;/a&gt;&lt;/div&gt;</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>399</v>
       </c>
@@ -8248,7 +8298,7 @@
         <v>&lt;h1 id='title'&gt;Execution&lt;/h1&gt;</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>692</v>
       </c>
@@ -8259,7 +8309,7 @@
         <v>&lt;p&gt;An Execution(pushtopics__Execution__c) carries over the settings from the Executable at the time when it was executed and tracks the status of the execution.&lt;/p&gt;</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="102" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>424</v>
       </c>
@@ -8270,23 +8320,23 @@
         <v>&lt;div class='slds-box note-box_outer'&gt;&lt;div class='note-box'&gt;&lt;p class='title'&gt;Note:&lt;/p&gt;&lt;p&gt;Most of the fields on the page layout are read-only, however, a super user with “Modify All Data” access will be able to edit the fields anyway. Do NOT manually update the Exectuion record except for the "Stopped" field when there is a need to stop an uncompleted execution.&lt;/p&gt;&lt;/div&gt;&lt;/div&gt;</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="10"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
     </row>
-    <row r="7" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="68" t="s">
-        <v>67</v>
-      </c>
-      <c r="B7" s="69"/>
-      <c r="C7" s="70"/>
+    <row r="7" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="67" t="s">
+        <v>721</v>
+      </c>
+      <c r="B7" s="67"/>
+      <c r="C7" s="67"/>
       <c r="E7" t="str">
         <f>"&lt;div class='v-space'&gt;&lt;/div&gt;&lt;div&gt;&lt;h2&gt;" &amp; A7 &amp; "&lt;/h2&gt;"</f>
-        <v>&lt;div class='v-space'&gt;&lt;/div&gt;&lt;div&gt;&lt;h2&gt;Details&lt;/h2&gt;</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>&lt;div class='v-space'&gt;&lt;/div&gt;&lt;div&gt;&lt;h2&gt;Summary&lt;/h2&gt;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="45" t="s">
         <v>21</v>
       </c>
@@ -8301,661 +8351,678 @@
         <v>&lt;table&gt;&lt;thead&gt;&lt;th class='table-column-name'&gt;Name&lt;/th&gt;&lt;th class='table-column-wide'&gt;Developer Name&lt;/th&gt;&lt;th&gt;Description&lt;/th&gt;&lt;/thead&gt;&lt;tbody&gt;</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="33" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" ref="E9:E19" si="0">"&lt;tr&gt;&lt;td&gt;" &amp;A9 &amp; "&lt;/td&gt;&lt;td class='slds-truncate'&gt;" &amp;B9 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; C9 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;&lt;td&gt;Start Time&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__StartTime__c&lt;/td&gt;&lt;td&gt;The time when the Execution starts&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>697</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr&gt;&lt;td&gt;End Time&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__EndTime__c&lt;/td&gt;&lt;td&gt;The time when the Execution ends&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr&gt;&lt;td&gt;Completed?&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__Completed__c&lt;/td&gt;&lt;td&gt;Indicates whether the Execution was completed or not.&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr&gt;&lt;td&gt;Stopped?&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__Stopped__c&lt;/td&gt;&lt;td&gt;Indicates whether the Execution was stopped or not.&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr&gt;&lt;td&gt;Succeeded?&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__Succeeded__c&lt;/td&gt;&lt;td&gt;Indicates whether the Execution was successful or not.&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr&gt;&lt;td&gt;Total Retrieved&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__TotalRetrieved__c&lt;/td&gt;&lt;td&gt;The total records count retrieved from the source that are passed to the execution. &lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="49" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr&gt;&lt;td&gt;Total Retrived Data in Action&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__TotalRetrievedDataInAction__c&lt;/td&gt;&lt;td&gt;The total count of retrieved records participated in the action. For example, if there were 2000 records retrieved, 500 of them were new, and the Action was "Insert" only, this value would be 500.&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="49" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr&gt;&lt;td&gt;Total Actioned&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__TotalActioned__c&lt;/td&gt;&lt;td&gt;The total count of records actioned against the target. For example, if there were 1000 inert and 500 update records retrieved from the source, and each update record had 2 matches in the target, this value would be 1000 + 500*2 = 2000, instead of 1500.&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr&gt;&lt;td&gt;Total Succeeded&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__Succeeded__c&lt;/td&gt;&lt;td&gt;The total count of records that were succeeded in the action against the target.&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr&gt;&lt;td&gt;Total Failed&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__TotalFailed__c&lt;/td&gt;&lt;td&gt;The total count of records that were failed in the action against the target.&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="49" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr&gt;&lt;td&gt;Exceptions&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__Exceptions__c&lt;/td&gt;&lt;td&gt;The execeptions occurred at the Execution level. Note: In the batch mode, if there are unexpected exceptions which failed the batches without being able to create Batch Execution records, the exceptional message will be logged in this field.&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E20" t="str">
+        <f>"&lt;/tbody&gt;&lt;/table&gt;&lt;/div&gt;"</f>
+        <v>&lt;/tbody&gt;&lt;/table&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="68" t="s">
+        <v>720</v>
+      </c>
+      <c r="B22" s="69"/>
+      <c r="C22" s="70"/>
+      <c r="E22" t="str">
+        <f>"&lt;div class='v-space'&gt;&lt;/div&gt;&lt;div&gt;&lt;h2&gt;" &amp; A22 &amp; "&lt;/h2&gt;"</f>
+        <v>&lt;div class='v-space'&gt;&lt;/div&gt;&lt;div&gt;&lt;h2&gt;Information &amp; Settings&lt;/h2&gt;</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="56" t="s">
+        <v>326</v>
+      </c>
+      <c r="C23" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" t="str">
+        <f>"&lt;table&gt;&lt;thead&gt;&lt;th class='table-column-name'&gt;"&amp;A23&amp;"&lt;/th&gt;&lt;th class='table-column-wide'&gt;"&amp;B23&amp;"&lt;/th&gt;&lt;th&gt;" &amp; C23 &amp; "&lt;/th&gt;&lt;/thead&gt;&lt;tbody&gt;"</f>
+        <v>&lt;table&gt;&lt;thead&gt;&lt;th class='table-column-name'&gt;Name&lt;/th&gt;&lt;th class='table-column-wide'&gt;Developer Name&lt;/th&gt;&lt;th&gt;Description&lt;/th&gt;&lt;/thead&gt;&lt;tbody&gt;</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B24" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C24" s="4" t="s">
         <v>698</v>
       </c>
-      <c r="E9" t="str">
-        <f>"&lt;tr&gt;&lt;td style='width:25%'&gt;" &amp;A9 &amp; "&lt;/td&gt;&lt;td style='width:25%' class='slds-truncate'&gt;" &amp;B9 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; C9 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
+      <c r="E24" t="str">
+        <f>"&lt;tr&gt;&lt;td style='width:25%'&gt;" &amp;A24 &amp; "&lt;/td&gt;&lt;td style='width:25%' class='slds-truncate'&gt;" &amp;B24 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; C24 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
         <v>&lt;tr&gt;&lt;td style='width:25%'&gt;Execution Name&lt;/td&gt;&lt;td style='width:25%' class='slds-truncate'&gt;Name&lt;/td&gt;&lt;td&gt;Auto-generated, using a concatenation of the Name of the Executable and the timestamp when the Execution was created (in the current user’s time zone).&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
-      <c r="F9" t="str">
-        <f t="shared" ref="F9:F27" si="0">E9</f>
+      <c r="F24" t="str">
+        <f t="shared" ref="F24:F43" si="1">E24</f>
         <v>&lt;tr&gt;&lt;td style='width:25%'&gt;Execution Name&lt;/td&gt;&lt;td style='width:25%' class='slds-truncate'&gt;Name&lt;/td&gt;&lt;td&gt;Auto-generated, using a concatenation of the Name of the Executable and the timestamp when the Execution was created (in the current user’s time zone).&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+    <row r="25" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="B10" s="54" t="s">
+      <c r="B25" s="54" t="s">
         <v>648</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C25" s="4" t="s">
         <v>691</v>
       </c>
-      <c r="E10" t="str">
-        <f>"&lt;tr&gt;&lt;td&gt;" &amp;A10 &amp; "&lt;/td&gt;&lt;td class='slds-truncate'&gt;" &amp;B10 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; C10 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
+      <c r="E25" t="str">
+        <f>"&lt;tr&gt;&lt;td&gt;" &amp;A25 &amp; "&lt;/td&gt;&lt;td class='slds-truncate'&gt;" &amp;B25 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; C25 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
         <v>&lt;tr&gt;&lt;td&gt;Executable&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__Executable__c&lt;/td&gt;&lt;td&gt;Master-detail relationship field with the Executable object.&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
-      <c r="F10" t="str">
-        <f t="shared" si="0"/>
+      <c r="F25" t="str">
+        <f t="shared" si="1"/>
         <v>&lt;tr&gt;&lt;td&gt;Executable&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__Executable__c&lt;/td&gt;&lt;td&gt;Master-detail relationship field with the Executable object.&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+    <row r="26" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B26" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C26" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E11" t="str">
-        <f t="shared" ref="E11:E26" si="1">"&lt;tr&gt;&lt;td&gt;" &amp;A11 &amp; "&lt;/td&gt;&lt;td class='slds-truncate'&gt;" &amp;B11 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; C11 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
+      <c r="E26" t="str">
+        <f t="shared" ref="E26:E42" si="2">"&lt;tr&gt;&lt;td&gt;" &amp;A26 &amp; "&lt;/td&gt;&lt;td class='slds-truncate'&gt;" &amp;B26 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; C26 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
         <v>&lt;tr&gt;&lt;td&gt;Action&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__Action__c&lt;/td&gt;&lt;td&gt;The Action taken in the execution.&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
-      <c r="F11" t="str">
-        <f t="shared" si="0"/>
+      <c r="F26" t="str">
+        <f t="shared" si="1"/>
         <v>&lt;tr&gt;&lt;td&gt;Action&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__Action__c&lt;/td&gt;&lt;td&gt;The Action taken in the execution.&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+    <row r="27" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B27" s="4" t="s">
         <v>403</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C27" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E12" t="str">
+      <c r="E27" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;tr&gt;&lt;td&gt;Job Execution&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__JobExecution__c&lt;/td&gt;&lt;td&gt;A lookup field references to the Job Execution if it was kicked off from a Job.&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="F27" t="str">
         <f t="shared" si="1"/>
         <v>&lt;tr&gt;&lt;td&gt;Job Execution&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__JobExecution__c&lt;/td&gt;&lt;td&gt;A lookup field references to the Job Execution if it was kicked off from a Job.&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
-      <c r="F12" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr&gt;&lt;td&gt;Job Execution&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__JobExecution__c&lt;/td&gt;&lt;td&gt;A lookup field references to the Job Execution if it was kicked off from a Job.&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+    </row>
+    <row r="28" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B28" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C28" s="4" t="s">
         <v>693</v>
       </c>
-      <c r="E13" t="str">
+      <c r="E28" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;tr&gt;&lt;td&gt;Retrieve Parameters&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__RetrieveParameters__c&lt;/td&gt;&lt;td&gt;Copied from the Executable  at the time it was executed.&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="F28" t="str">
         <f t="shared" si="1"/>
         <v>&lt;tr&gt;&lt;td&gt;Retrieve Parameters&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__RetrieveParameters__c&lt;/td&gt;&lt;td&gt;Copied from the Executable  at the time it was executed.&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
-      <c r="F13" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr&gt;&lt;td&gt;Retrieve Parameters&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__RetrieveParameters__c&lt;/td&gt;&lt;td&gt;Copied from the Executable  at the time it was executed.&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="33" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+    </row>
+    <row r="29" spans="1:6" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B29" s="4" t="s">
         <v>405</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C29" s="4" t="s">
         <v>695</v>
       </c>
-      <c r="E14" t="str">
+      <c r="E29" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;tr&gt;&lt;td&gt;Original Execution&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__OriginalExecution__c&lt;/td&gt;&lt;td&gt;A lookup field references to the original Execution if it was re-executed either from the original Execution itself or a Batch Execution associated with the original Execution.&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="F29" t="str">
         <f t="shared" si="1"/>
         <v>&lt;tr&gt;&lt;td&gt;Original Execution&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__OriginalExecution__c&lt;/td&gt;&lt;td&gt;A lookup field references to the original Execution if it was re-executed either from the original Execution itself or a Batch Execution associated with the original Execution.&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
-      <c r="F14" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr&gt;&lt;td&gt;Original Execution&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__OriginalExecution__c&lt;/td&gt;&lt;td&gt;A lookup field references to the original Execution if it was re-executed either from the original Execution itself or a Batch Execution associated with the original Execution.&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+    </row>
+    <row r="30" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B30" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C30" s="4" t="s">
         <v>694</v>
       </c>
-      <c r="E15" t="str">
+      <c r="E30" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;tr&gt;&lt;td&gt;Retrieve Limit&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__RetrieveLimit__c&lt;/td&gt;&lt;td&gt;Copied from the Executable at the time it was executed.&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="F30" t="str">
         <f t="shared" si="1"/>
         <v>&lt;tr&gt;&lt;td&gt;Retrieve Limit&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__RetrieveLimit__c&lt;/td&gt;&lt;td&gt;Copied from the Executable at the time it was executed.&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
-      <c r="F15" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr&gt;&lt;td&gt;Retrieve Limit&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__RetrieveLimit__c&lt;/td&gt;&lt;td&gt;Copied from the Executable at the time it was executed.&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+    </row>
+    <row r="31" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B31" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C31" s="4" t="s">
         <v>694</v>
       </c>
-      <c r="E16" t="str">
+      <c r="E31" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;tr&gt;&lt;td&gt;Batchable?&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__Batchable__c&lt;/td&gt;&lt;td&gt;Copied from the Executable at the time it was executed.&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="F31" t="str">
         <f t="shared" si="1"/>
         <v>&lt;tr&gt;&lt;td&gt;Batchable?&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__Batchable__c&lt;/td&gt;&lt;td&gt;Copied from the Executable at the time it was executed.&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
-      <c r="F16" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr&gt;&lt;td&gt;Batchable?&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__Batchable__c&lt;/td&gt;&lt;td&gt;Copied from the Executable at the time it was executed.&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+    </row>
+    <row r="32" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B32" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C32" s="4" t="s">
         <v>694</v>
       </c>
-      <c r="E17" t="str">
+      <c r="E32" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;tr&gt;&lt;td&gt;Retrieve Size (Integration Only)&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__RetrieveSize__c&lt;/td&gt;&lt;td&gt;Copied from the Executable at the time it was executed.&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="F32" t="str">
         <f t="shared" si="1"/>
         <v>&lt;tr&gt;&lt;td&gt;Retrieve Size (Integration Only)&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__RetrieveSize__c&lt;/td&gt;&lt;td&gt;Copied from the Executable at the time it was executed.&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
-      <c r="F17" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr&gt;&lt;td&gt;Retrieve Size (Integration Only)&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__RetrieveSize__c&lt;/td&gt;&lt;td&gt;Copied from the Executable at the time it was executed.&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+    </row>
+    <row r="33" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B33" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C33" s="4" t="s">
         <v>694</v>
       </c>
-      <c r="E18" t="str">
+      <c r="E33" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;tr&gt;&lt;td&gt;Batch Size&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__BatchSize__c&lt;/td&gt;&lt;td&gt;Copied from the Executable at the time it was executed.&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="F33" t="str">
         <f t="shared" si="1"/>
         <v>&lt;tr&gt;&lt;td&gt;Batch Size&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__BatchSize__c&lt;/td&gt;&lt;td&gt;Copied from the Executable at the time it was executed.&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
-      <c r="F18" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr&gt;&lt;td&gt;Batch Size&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__BatchSize__c&lt;/td&gt;&lt;td&gt;Copied from the Executable at the time it was executed.&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+    </row>
+    <row r="34" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B34" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C34" s="4" t="s">
         <v>694</v>
       </c>
-      <c r="E19" t="str">
+      <c r="E34" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;tr&gt;&lt;td&gt;All or Nothing?&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__AllOrNothing__c&lt;/td&gt;&lt;td&gt;Copied from the Executable at the time it was executed.&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="F34" t="str">
         <f t="shared" si="1"/>
         <v>&lt;tr&gt;&lt;td&gt;All or Nothing?&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__AllOrNothing__c&lt;/td&gt;&lt;td&gt;Copied from the Executable at the time it was executed.&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
-      <c r="F19" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr&gt;&lt;td&gt;All or Nothing?&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__AllOrNothing__c&lt;/td&gt;&lt;td&gt;Copied from the Executable at the time it was executed.&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+    </row>
+    <row r="35" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B35" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C35" s="4" t="s">
         <v>694</v>
       </c>
-      <c r="E20" t="str">
+      <c r="E35" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;tr&gt;&lt;td&gt;Include Failed Data in Results?&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__IncludeFailedDataInResults__c&lt;/td&gt;&lt;td&gt;Copied from the Executable at the time it was executed.&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="F35" t="str">
         <f t="shared" si="1"/>
         <v>&lt;tr&gt;&lt;td&gt;Include Failed Data in Results?&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__IncludeFailedDataInResults__c&lt;/td&gt;&lt;td&gt;Copied from the Executable at the time it was executed.&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
-      <c r="F20" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr&gt;&lt;td&gt;Include Failed Data in Results?&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__IncludeFailedDataInResults__c&lt;/td&gt;&lt;td&gt;Copied from the Executable at the time it was executed.&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+    </row>
+    <row r="36" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
         <v>634</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B36" s="4" t="s">
         <v>635</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C36" s="4" t="s">
         <v>694</v>
       </c>
-      <c r="E21" t="str">
+      <c r="E36" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;tr&gt;&lt;td&gt;Skip Null Values?&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__SkipNullValues__c&lt;/td&gt;&lt;td&gt;Copied from the Executable at the time it was executed.&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="F36" t="str">
         <f t="shared" si="1"/>
         <v>&lt;tr&gt;&lt;td&gt;Skip Null Values?&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__SkipNullValues__c&lt;/td&gt;&lt;td&gt;Copied from the Executable at the time it was executed.&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
-      <c r="F21" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr&gt;&lt;td&gt;Skip Null Values?&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__SkipNullValues__c&lt;/td&gt;&lt;td&gt;Copied from the Executable at the time it was executed.&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="50" t="s">
+    </row>
+    <row r="37" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="50" t="s">
         <v>637</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B37" s="4" t="s">
         <v>636</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C37" s="4" t="s">
         <v>694</v>
       </c>
-      <c r="D22" s="4"/>
-      <c r="E22" t="str">
-        <f t="shared" si="1"/>
+      <c r="D37" s="4"/>
+      <c r="E37" t="str">
+        <f t="shared" si="2"/>
         <v>&lt;tr&gt;&lt;td&gt;Skip Record Update If No Changes?&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__SkipRecordUpdateIfNoChanges__c&lt;/td&gt;&lt;td&gt;Copied from the Executable at the time it was executed.&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="50" t="s">
+    <row r="38" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="50" t="s">
         <v>640</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B38" s="4" t="s">
         <v>639</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C38" s="4" t="s">
         <v>694</v>
       </c>
-      <c r="D23" s="64"/>
-      <c r="E23" t="str">
-        <f t="shared" si="1"/>
+      <c r="D38" s="64"/>
+      <c r="E38" t="str">
+        <f t="shared" si="2"/>
         <v>&lt;tr&gt;&lt;td&gt;Stop Execution When A Batch Fails?&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__StopExecutionWhenABatchFails__c&lt;/td&gt;&lt;td&gt;Copied from the Executable at the time it was executed.&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+    <row r="39" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B39" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C39" s="4" t="s">
         <v>694</v>
       </c>
-      <c r="E24" t="str">
+      <c r="E39" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;tr&gt;&lt;td&gt;Use Default Assignment Rule?&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__UseDefaultAssignmentRule__c&lt;/td&gt;&lt;td&gt;Copied from the Executable at the time it was executed.&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="F39" t="str">
         <f t="shared" si="1"/>
         <v>&lt;tr&gt;&lt;td&gt;Use Default Assignment Rule?&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__UseDefaultAssignmentRule__c&lt;/td&gt;&lt;td&gt;Copied from the Executable at the time it was executed.&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
-      <c r="F24" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr&gt;&lt;td&gt;Use Default Assignment Rule?&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__UseDefaultAssignmentRule__c&lt;/td&gt;&lt;td&gt;Copied from the Executable at the time it was executed.&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+    </row>
+    <row r="40" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B40" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C40" s="4" t="s">
         <v>694</v>
       </c>
-      <c r="E25" t="str">
+      <c r="E40" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;tr&gt;&lt;td&gt;Bypass Duplicate Rule Alerts?&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__BypassDuplicateRuleAlerts__c&lt;/td&gt;&lt;td&gt;Copied from the Executable at the time it was executed.&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="F40" t="str">
         <f t="shared" si="1"/>
         <v>&lt;tr&gt;&lt;td&gt;Bypass Duplicate Rule Alerts?&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__BypassDuplicateRuleAlerts__c&lt;/td&gt;&lt;td&gt;Copied from the Executable at the time it was executed.&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
-      <c r="F25" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr&gt;&lt;td&gt;Bypass Duplicate Rule Alerts?&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__BypassDuplicateRuleAlerts__c&lt;/td&gt;&lt;td&gt;Copied from the Executable at the time it was executed.&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+    </row>
+    <row r="41" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="59" t="s">
+        <v>718</v>
+      </c>
+      <c r="B41" s="60" t="s">
+        <v>717</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>694</v>
+      </c>
+      <c r="D41" s="34"/>
+      <c r="E41" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;tr&gt;&lt;td&gt;Delete Execution Logs After Completion?&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__DeleteExecutionLogsAfterCompletion__c&lt;/td&gt;&lt;td&gt;Copied from the Executable at the time it was executed.&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B26" s="50" t="s">
+      <c r="B42" s="50" t="s">
         <v>344</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C42" s="4" t="s">
         <v>694</v>
       </c>
-      <c r="E26" t="str">
+      <c r="E42" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;tr&gt;&lt;td&gt;Disable Feed Tracking (Integration Only)?&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__DisableFeedTracking__c&lt;/td&gt;&lt;td&gt;Copied from the Executable at the time it was executed.&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="F42" t="str">
         <f t="shared" si="1"/>
         <v>&lt;tr&gt;&lt;td&gt;Disable Feed Tracking (Integration Only)?&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__DisableFeedTracking__c&lt;/td&gt;&lt;td&gt;Copied from the Executable at the time it was executed.&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
-      <c r="F26" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr&gt;&lt;td&gt;Disable Feed Tracking (Integration Only)?&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__DisableFeedTracking__c&lt;/td&gt;&lt;td&gt;Copied from the Executable at the time it was executed.&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E27" t="str">
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E43" t="str">
         <f>"&lt;/tbody&gt;&lt;/table&gt;&lt;/div&gt;"</f>
         <v>&lt;/tbody&gt;&lt;/table&gt;&lt;/div&gt;</v>
       </c>
-      <c r="F27" t="str">
-        <f t="shared" si="0"/>
+      <c r="F43" t="str">
+        <f t="shared" si="1"/>
         <v>&lt;/tbody&gt;&lt;/table&gt;&lt;/div&gt;</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="67" t="s">
-        <v>66</v>
-      </c>
-      <c r="B29" s="67"/>
-      <c r="C29" s="67"/>
-      <c r="E29" t="str">
-        <f>"&lt;div class='v-space'&gt;&lt;/div&gt;&lt;div&gt;&lt;h2&gt;" &amp; A29 &amp; "&lt;/h2&gt;"</f>
-        <v>&lt;div class='v-space'&gt;&lt;/div&gt;&lt;div&gt;&lt;h2&gt;Results&lt;/h2&gt;</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="45" t="s">
+    <row r="45" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="67" t="s">
+        <v>68</v>
+      </c>
+      <c r="B45" s="67"/>
+      <c r="C45" s="67"/>
+      <c r="E45" t="str">
+        <f>"&lt;div class='v-space'&gt;&lt;/div&gt;&lt;div&gt;&lt;h2&gt;" &amp; A45 &amp; "&lt;/h2&gt;"</f>
+        <v>&lt;div class='v-space'&gt;&lt;/div&gt;&lt;div&gt;&lt;h2&gt;Execution Log&lt;/h2&gt;</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="B30" s="56" t="s">
+      <c r="B46" s="56" t="s">
         <v>326</v>
       </c>
-      <c r="C30" s="46" t="s">
+      <c r="C46" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="E30" t="str">
-        <f>"&lt;table&gt;&lt;thead&gt;&lt;th class='table-column-name'&gt;"&amp;A30&amp;"&lt;/th&gt;&lt;th class='table-column-wide'&gt;"&amp;B30&amp;"&lt;/th&gt;&lt;th&gt;" &amp; C30 &amp; "&lt;/th&gt;&lt;/thead&gt;&lt;tbody&gt;"</f>
+      <c r="E46" t="str">
+        <f>"&lt;table&gt;&lt;thead&gt;&lt;th class='table-column-name'&gt;"&amp;A46&amp;"&lt;/th&gt;&lt;th class='table-column-wide'&gt;"&amp;B46&amp;"&lt;/th&gt;&lt;th&gt;" &amp; C46 &amp; "&lt;/th&gt;&lt;/thead&gt;&lt;tbody&gt;"</f>
         <v>&lt;table&gt;&lt;thead&gt;&lt;th class='table-column-name'&gt;Name&lt;/th&gt;&lt;th class='table-column-wide'&gt;Developer Name&lt;/th&gt;&lt;th&gt;Description&lt;/th&gt;&lt;/thead&gt;&lt;tbody&gt;</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>696</v>
-      </c>
-      <c r="E31" t="str">
-        <f t="shared" ref="E31:E41" si="2">"&lt;tr&gt;&lt;td&gt;" &amp;A31 &amp; "&lt;/td&gt;&lt;td class='slds-truncate'&gt;" &amp;B31 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; C31 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;Start Time&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__StartTime__c&lt;/td&gt;&lt;td&gt;The time when the Execution starts&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>407</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>697</v>
-      </c>
-      <c r="E32" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;tr&gt;&lt;td&gt;End Time&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__EndTime__c&lt;/td&gt;&lt;td&gt;The time when the Execution ends&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>409</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E33" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;tr&gt;&lt;td&gt;Completed?&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__Completed__c&lt;/td&gt;&lt;td&gt;Indicates whether the Execution was completed or not.&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E34" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;tr&gt;&lt;td&gt;Stopped?&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__Stopped__c&lt;/td&gt;&lt;td&gt;Indicates whether the Execution was stopped or not.&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E35" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;tr&gt;&lt;td&gt;Succeeded?&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__Succeeded__c&lt;/td&gt;&lt;td&gt;Indicates whether the Execution was successful or not.&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>412</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E36" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;tr&gt;&lt;td&gt;Total Retrieved&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__TotalRetrieved__c&lt;/td&gt;&lt;td&gt;The total records count retrieved from the source that are passed to the execution. &lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="49" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>414</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>465</v>
-      </c>
-      <c r="E37" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;tr&gt;&lt;td&gt;Total Retrived Data in Action&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__TotalRetrievedDataInAction__c&lt;/td&gt;&lt;td&gt;The total count of retrieved records participated in the action. For example, if there were 2000 records retrieved, 500 of them were new, and the Action was "Insert" only, this value would be 500.&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="49" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="E38" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;tr&gt;&lt;td&gt;Total Actioned&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__TotalActioned__c&lt;/td&gt;&lt;td&gt;The total count of records actioned against the target. For example, if there were 1000 inert and 500 update records retrieved from the source, and each update record had 2 matches in the target, this value would be 1000 + 500*2 = 2000, instead of 1500.&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>466</v>
-      </c>
-      <c r="E39" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;tr&gt;&lt;td&gt;Total Succeeded&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__Succeeded__c&lt;/td&gt;&lt;td&gt;The total count of records that were succeeded in the action against the target.&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>416</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>464</v>
-      </c>
-      <c r="E40" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;tr&gt;&lt;td&gt;Total Failed&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__TotalFailed__c&lt;/td&gt;&lt;td&gt;The total count of records that were failed in the action against the target.&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="49" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="E41" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;tr&gt;&lt;td&gt;Exceptions&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__Exceptions__c&lt;/td&gt;&lt;td&gt;The execeptions occurred at the Execution level. Note: In the batch mode, if there are unexpected exceptions which failed the batches without being able to create Batch Execution records, the exceptional message will be logged in this field.&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E42" t="str">
-        <f>"&lt;/tbody&gt;&lt;/table&gt;&lt;/div&gt;"</f>
-        <v>&lt;/tbody&gt;&lt;/table&gt;&lt;/div&gt;</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="67" t="s">
-        <v>68</v>
-      </c>
-      <c r="B44" s="67"/>
-      <c r="C44" s="67"/>
-      <c r="E44" t="str">
-        <f>"&lt;div class='v-space'&gt;&lt;/div&gt;&lt;div&gt;&lt;h2&gt;" &amp; A44 &amp; "&lt;/h2&gt;"</f>
-        <v>&lt;div class='v-space'&gt;&lt;/div&gt;&lt;div&gt;&lt;h2&gt;Execution Log&lt;/h2&gt;</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="B45" s="56" t="s">
-        <v>326</v>
-      </c>
-      <c r="C45" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="E45" t="str">
-        <f>"&lt;table&gt;&lt;thead&gt;&lt;th class='table-column-name'&gt;"&amp;A45&amp;"&lt;/th&gt;&lt;th class='table-column-wide'&gt;"&amp;B45&amp;"&lt;/th&gt;&lt;th&gt;" &amp; C45 &amp; "&lt;/th&gt;&lt;/thead&gt;&lt;tbody&gt;"</f>
-        <v>&lt;table&gt;&lt;thead&gt;&lt;th class='table-column-name'&gt;Name&lt;/th&gt;&lt;th class='table-column-wide'&gt;Developer Name&lt;/th&gt;&lt;th&gt;Description&lt;/th&gt;&lt;/thead&gt;&lt;tbody&gt;</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+    <row r="47" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B47" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C47" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E46" t="str">
-        <f t="shared" ref="E46:E50" si="3">"&lt;tr&gt;&lt;td&gt;" &amp;A46 &amp; "&lt;/td&gt;&lt;td class='slds-truncate'&gt;" &amp;B46 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; C46 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
+      <c r="E47" t="str">
+        <f t="shared" ref="E47:E51" si="3">"&lt;tr&gt;&lt;td&gt;" &amp;A47 &amp; "&lt;/td&gt;&lt;td class='slds-truncate'&gt;" &amp;B47 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; C47 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
         <v>&lt;tr&gt;&lt;td&gt;Retrieve Query String&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__RetrieveParameters__c&lt;/td&gt;&lt;td&gt;The query string issued against the source. &lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
+    <row r="48" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B48" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C48" s="4" t="s">
         <v>423</v>
       </c>
-      <c r="E47" t="str">
+      <c r="E48" t="str">
         <f t="shared" si="3"/>
         <v>&lt;tr&gt;&lt;td&gt;Retrieved Data/Ids&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__RetrievedDataOrIds__c&lt;/td&gt;&lt;td&gt;The retrieved source data or IDs in JSON format.&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="33" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
+    <row r="49" spans="1:5" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B49" s="4" t="s">
         <v>420</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C49" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E48" t="str">
+      <c r="E49" t="str">
         <f t="shared" si="3"/>
         <v>&lt;tr&gt;&lt;td&gt;Action Details&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__ActionDetails__c&lt;/td&gt;&lt;td&gt;The details of the action, including the source Id to target Ids map for the Upsert part of action, and source Ids for the Insert part of action.&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="49" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
+    <row r="50" spans="1:5" ht="49" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B50" s="4" t="s">
         <v>421</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C50" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E49" t="str">
+      <c r="E50" t="str">
         <f t="shared" si="3"/>
         <v>&lt;tr&gt;&lt;td&gt;Action Raw Responses&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__ActionRawResponses__c&lt;/td&gt;&lt;td&gt;The raw response from the target as a result of an either Insert, Update or both Actions. If the target is connected via integration, the raw result includes the status code and status additionally than when the target is the local org.&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="48" x14ac:dyDescent="0.2">
-      <c r="A50" s="8" t="s">
+    <row r="51" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="A51" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B51" s="6" t="s">
         <v>422</v>
       </c>
-      <c r="C50" s="6" t="s">
+      <c r="C51" s="6" t="s">
         <v>699</v>
       </c>
-      <c r="E50" t="str">
+      <c r="E51" t="str">
         <f t="shared" si="3"/>
         <v>&lt;tr&gt;&lt;td&gt;Results&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__Results__c&lt;/td&gt;&lt;td&gt;Stores a comprehensive view of the results in JSON. If "Include Failed Data in Results?" is checked, the failed target data in action will be included. The maximum number of characters can be included is 131072, the characters beyond that number will be truncacted.&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E51" t="str">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E52" t="str">
         <f>"&lt;/tbody&gt;&lt;/table&gt;&lt;/div&gt;&lt;div class='v-space'&gt;&lt;/div&gt;"</f>
         <v>&lt;/tbody&gt;&lt;/table&gt;&lt;/div&gt;&lt;div class='v-space'&gt;&lt;/div&gt;</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
+    <mergeCell ref="A22:C22"/>
     <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A45:C45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16161,10 +16228,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8928BC3-4C12-0749-9703-A58827314F05}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16224,195 +16291,214 @@
         <v>&lt;table&gt;&lt;thead&gt;&lt;th class='table-column-name'&gt;Name&lt;/th&gt;&lt;th class='table-column-wide'&gt;Developer Name&lt;/th&gt;&lt;th class='table-column-narrow'&gt;Required&lt;/th&gt;&lt;th&gt;Description&lt;/th&gt;&lt;/thead&gt;&lt;tbody&gt;</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="49" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="59" t="s">
-        <v>23</v>
+        <v>718</v>
       </c>
       <c r="B5" s="60" t="s">
-        <v>328</v>
+        <v>717</v>
       </c>
       <c r="C5" s="60" t="s">
         <v>42</v>
       </c>
       <c r="D5" s="60" t="s">
-        <v>429</v>
+        <v>719</v>
       </c>
       <c r="E5" s="34"/>
       <c r="F5" t="str">
         <f>"&lt;tr&gt;&lt;td&gt;" &amp; A5 &amp; "&lt;/td&gt;&lt;td class='slds-truncate'&gt;" &amp; B5 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; C5 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; D5 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;Description&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__Description__c&lt;/td&gt;&lt;td&gt;N&lt;/td&gt;&lt;td&gt;Description of the Job.&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="61" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="62" t="s">
-        <v>343</v>
-      </c>
-      <c r="C6" s="62" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="62" t="s">
-        <v>439</v>
+        <v>&lt;tr&gt;&lt;td&gt;Delete Execution Logs After Completion?&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__DeleteExecutionLogsAfterCompletion__c&lt;/td&gt;&lt;td&gt;N&lt;/td&gt;&lt;td&gt;Defines what succeeded logs need to be deleted after the execution is completed.&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="59" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="60" t="s">
+        <v>328</v>
+      </c>
+      <c r="C6" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="60" t="s">
+        <v>429</v>
       </c>
       <c r="E6" s="34"/>
       <c r="F6" t="str">
-        <f t="shared" ref="F6:F13" si="0">"&lt;tr&gt;&lt;td&gt;" &amp; A6 &amp; "&lt;/td&gt;&lt;td class='slds-truncate'&gt;" &amp; B6 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; C6 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; D6 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
+        <f>"&lt;tr&gt;&lt;td&gt;" &amp; A6 &amp; "&lt;/td&gt;&lt;td class='slds-truncate'&gt;" &amp; B6 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; C6 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; D6 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;&lt;td&gt;Description&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__Description__c&lt;/td&gt;&lt;td&gt;N&lt;/td&gt;&lt;td&gt;Description of the Job.&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="62" t="s">
+        <v>343</v>
+      </c>
+      <c r="C7" s="62" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="62" t="s">
+        <v>439</v>
+      </c>
+      <c r="E7" s="34"/>
+      <c r="F7" t="str">
+        <f t="shared" ref="F7:F14" si="0">"&lt;tr&gt;&lt;td&gt;" &amp; A7 &amp; "&lt;/td&gt;&lt;td class='slds-truncate'&gt;" &amp; B7 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; C7 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; D7 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
         <v>&lt;tr&gt;&lt;td&gt;Direction&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__Direction__c&lt;/td&gt;&lt;td&gt;Y&lt;/td&gt;&lt;td&gt;Direction of the job.&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="86" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="50" t="s">
+    <row r="8" spans="1:7" ht="86" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B8" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C8" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D8" s="5" t="s">
         <v>430</v>
       </c>
-      <c r="F7" t="str">
+      <c r="F8" t="str">
         <f t="shared" si="0"/>
         <v>&lt;tr&gt;&lt;td&gt;Failure Message&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__FailureMessage__c&lt;/td&gt;&lt;td&gt;N&lt;/td&gt;&lt;td&gt;If defined, the message will be shown in the notification when the Job Execution fails. If undefined, a system default message will be displayed.&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
-      <c r="G7" t="str">
-        <f>IF(LEFT(F7,1)="""",MID(F7, 1, LEN(F7) - 2),F7)</f>
+      <c r="G8" t="str">
+        <f>IF(LEFT(F8,1)="""",MID(F8, 1, LEN(F8) - 2),F8)</f>
         <v>&lt;tr&gt;&lt;td&gt;Failure Message&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__FailureMessage__c&lt;/td&gt;&lt;td&gt;N&lt;/td&gt;&lt;td&gt;If defined, the message will be shown in the notification when the Job Execution fails. If undefined, a system default message will be displayed.&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="81" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="59" t="s">
+    <row r="9" spans="1:7" ht="81" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="59" t="s">
         <v>436</v>
       </c>
-      <c r="B8" s="60" t="s">
+      <c r="B9" s="60" t="s">
         <v>308</v>
-      </c>
-      <c r="C8" s="60" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="60" t="s">
-        <v>437</v>
-      </c>
-      <c r="E8" s="34"/>
-      <c r="F8" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr&gt;&lt;td&gt;Job API Name&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__ApiName__c&lt;/td&gt;&lt;td&gt;Y&lt;/td&gt;&lt;td&gt;The API Name of a Job. It is a unique and external Id field, by default hidden from the page layout  and always defaulted to the Name field value.&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="59" t="s">
-        <v>438</v>
-      </c>
-      <c r="B9" s="60" t="s">
-        <v>21</v>
       </c>
       <c r="C9" s="60" t="s">
         <v>24</v>
       </c>
       <c r="D9" s="60" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="E9" s="34"/>
       <c r="F9" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;tr&gt;&lt;td&gt;Job Name&lt;/td&gt;&lt;td class='slds-truncate'&gt;Name&lt;/td&gt;&lt;td&gt;Y&lt;/td&gt;&lt;td&gt;Name of the Job.&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="65" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="64" t="s">
-        <v>545</v>
-      </c>
-      <c r="B10" s="65" t="s">
-        <v>549</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>547</v>
-      </c>
+        <v>&lt;tr&gt;&lt;td&gt;Job API Name&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__ApiName__c&lt;/td&gt;&lt;td&gt;Y&lt;/td&gt;&lt;td&gt;The API Name of a Job. It is a unique and external Id field, by default hidden from the page layout  and always defaulted to the Name field value.&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="59" t="s">
+        <v>438</v>
+      </c>
+      <c r="B10" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="60" t="s">
+        <v>440</v>
+      </c>
+      <c r="E10" s="34"/>
       <c r="F10" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;tr&gt;&lt;td&gt;Notify Email Addresses&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__NotifyEmailAddresses__c&lt;/td&gt;&lt;td&gt;N&lt;/td&gt;&lt;td&gt;Comma separated email addresses to be notified when the execution is completed if the Notify When Execution Completes? is checked.&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-      <c r="G10" t="str">
-        <f t="shared" ref="G10:G11" si="1">IF(LEFT(F10,1)="""",MID(F10, 1, LEN(F10) - 2),F10)</f>
-        <v>&lt;tr&gt;&lt;td&gt;Notify Email Addresses&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__NotifyEmailAddresses__c&lt;/td&gt;&lt;td&gt;N&lt;/td&gt;&lt;td&gt;Comma separated email addresses to be notified when the execution is completed if the Notify When Execution Completes? is checked.&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="113" thickBot="1" x14ac:dyDescent="0.25">
+        <v>&lt;tr&gt;&lt;td&gt;Job Name&lt;/td&gt;&lt;td class='slds-truncate'&gt;Name&lt;/td&gt;&lt;td&gt;Y&lt;/td&gt;&lt;td&gt;Name of the Job.&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="65" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="64" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B11" s="65" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>42</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>705</v>
+        <v>547</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="0"/>
+        <v>&lt;tr&gt;&lt;td&gt;Notify Email Addresses&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__NotifyEmailAddresses__c&lt;/td&gt;&lt;td&gt;N&lt;/td&gt;&lt;td&gt;Comma separated email addresses to be notified when the execution is completed if the Notify When Execution Completes? is checked.&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" ref="G11:G12" si="1">IF(LEFT(F11,1)="""",MID(F11, 1, LEN(F11) - 2),F11)</f>
+        <v>&lt;tr&gt;&lt;td&gt;Notify Email Addresses&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__NotifyEmailAddresses__c&lt;/td&gt;&lt;td&gt;N&lt;/td&gt;&lt;td&gt;Comma separated email addresses to be notified when the execution is completed if the Notify When Execution Completes? is checked.&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="113" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="64" t="s">
+        <v>546</v>
+      </c>
+      <c r="B12" s="65" t="s">
+        <v>550</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>705</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="0"/>
         <v>&lt;tr&gt;&lt;td&gt;Notify When Execution Completes?&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__NotifyWhenExecutionCompletes__c&lt;/td&gt;&lt;td&gt;N&lt;/td&gt;&lt;td&gt;If "Always" is selected, system will send a notification email to the email addressed defined in the &lt;b&gt;Notify Email Addresses&lt;/b&gt; field once the execution is completed; If "Only If Failed" is selected, the email will be sent only if the execution failed.&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
-      <c r="G11" t="str">
+      <c r="G12" t="str">
         <f t="shared" si="1"/>
         <v>&lt;tr&gt;&lt;td&gt;Notify When Execution Completes?&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__NotifyWhenExecutionCompletes__c&lt;/td&gt;&lt;td&gt;N&lt;/td&gt;&lt;td&gt;If "Always" is selected, system will send a notification email to the email addressed defined in the &lt;b&gt;Notify Email Addresses&lt;/b&gt; field once the execution is completed; If "Only If Failed" is selected, the email will be sent only if the execution failed.&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="81" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="59" t="s">
+    <row r="13" spans="1:7" ht="81" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="59" t="s">
         <v>657</v>
       </c>
-      <c r="B12" s="60" t="s">
+      <c r="B13" s="60" t="s">
         <v>656</v>
       </c>
-      <c r="C12" s="60" t="s">
+      <c r="C13" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="62" t="s">
+      <c r="D13" s="62" t="s">
         <v>658</v>
       </c>
-      <c r="F12" t="str">
+      <c r="F13" t="str">
         <f t="shared" si="0"/>
         <v>&lt;tr&gt;&lt;td&gt;Stop Remaining When An Executable Fails?&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__StopRemainingWhenAnExecutableFails__c&lt;/td&gt;&lt;td&gt;N&lt;/td&gt;&lt;td&gt;If checked, when one of the Job's Executables completes and fails the execution, the Job Execution stops without executing the remaining Executables.&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="86" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="50" t="s">
+    <row r="14" spans="1:7" ht="86" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B14" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C14" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D14" s="5" t="s">
         <v>431</v>
       </c>
-      <c r="F13" t="str">
+      <c r="F14" t="str">
         <f t="shared" si="0"/>
         <v>&lt;tr&gt;&lt;td&gt;Success Message&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__SuccessMessage__c&lt;/td&gt;&lt;td&gt;N&lt;/td&gt;&lt;td&gt;If defined, the message will be shown in the notification when the Job Execution succeeds. If undefined, a system default message will be displayed.&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
-      <c r="G13" t="str">
-        <f>IF(LEFT(F13,1)="""",MID(F13, 1, LEN(F13) - 2),F13)</f>
+      <c r="G14" t="str">
+        <f>IF(LEFT(F14,1)="""",MID(F14, 1, LEN(F14) - 2),F14)</f>
         <v>&lt;tr&gt;&lt;td&gt;Success Message&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__SuccessMessage__c&lt;/td&gt;&lt;td&gt;N&lt;/td&gt;&lt;td&gt;If defined, the message will be shown in the notification when the Job Execution succeeds. If undefined, a system default message will be displayed.&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="34"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="34"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34" t="s">
         <v>428</v>
       </c>
     </row>

--- a/catalog.xlsx
+++ b/catalog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Sally/Documents/GitHub/user-manual/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83443291-32B8-C647-ADA9-61860064E9C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CF51F48-E358-C443-BD62-F5D56433D394}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="540" windowWidth="40960" windowHeight="21140" activeTab="12" xr2:uid="{7924ACC4-95BC-C241-97CB-5EF2DB9BB792}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="21140" activeTab="12" xr2:uid="{7924ACC4-95BC-C241-97CB-5EF2DB9BB792}"/>
   </bookViews>
   <sheets>
     <sheet name="catalog" sheetId="1" r:id="rId1"/>
@@ -174,7 +174,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1454" uniqueCount="722">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1454" uniqueCount="723">
   <si>
     <t>Connection</t>
   </si>
@@ -5589,6 +5589,9 @@
   </si>
   <si>
     <t>Summary</t>
+  </si>
+  <si>
+    <t>Execution Log (When Batchable = FALSE)</t>
   </si>
 </sst>
 </file>
@@ -7938,7 +7941,7 @@
         <v>&lt;tr&gt;&lt;td&gt;Retrieve Order By&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__RetrieveOrderBy__c&lt;/td&gt;&lt;td&gt;N&lt;/td&gt;&lt;td&gt;The order in which the source data is retrieved.&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="49" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>356</v>
       </c>
@@ -8273,7 +8276,7 @@
   <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8913,13 +8916,13 @@
     </row>
     <row r="45" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="67" t="s">
-        <v>68</v>
+        <v>722</v>
       </c>
       <c r="B45" s="67"/>
       <c r="C45" s="67"/>
       <c r="E45" t="str">
         <f>"&lt;div class='v-space'&gt;&lt;/div&gt;&lt;div&gt;&lt;h2&gt;" &amp; A45 &amp; "&lt;/h2&gt;"</f>
-        <v>&lt;div class='v-space'&gt;&lt;/div&gt;&lt;div&gt;&lt;h2&gt;Execution Log&lt;/h2&gt;</v>
+        <v>&lt;div class='v-space'&gt;&lt;/div&gt;&lt;div&gt;&lt;h2&gt;Execution Log (When Batchable = FALSE)&lt;/h2&gt;</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">

--- a/catalog.xlsx
+++ b/catalog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/o/Workspace/website/manual/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12F2D640-AB3B-744B-AC40-F17FB448EEDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DE727E3-5256-1841-8CAA-3DE0CF3B33CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17640" activeTab="11" xr2:uid="{7924ACC4-95BC-C241-97CB-5EF2DB9BB792}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17640" activeTab="5" xr2:uid="{7924ACC4-95BC-C241-97CB-5EF2DB9BB792}"/>
   </bookViews>
   <sheets>
     <sheet name="catalog" sheetId="1" r:id="rId1"/>
@@ -174,7 +174,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1806" uniqueCount="940">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1822" uniqueCount="948">
   <si>
     <t>Connection</t>
   </si>
@@ -5373,6 +5373,30 @@
   </si>
   <si>
     <t>An Executable (pushtopics__Executable__c) record defines the details that DSP uses for the execution, such as how source data is retrieved, how target data is actioned, the scope filter checking if a source record is in scope, the ordering in job executions, the batch size, the logging and notifications,  whether running in serial mode, or available in before triggers, as well as the settings needed for rendering the lwc component(&lt;span class="formula"&gt;executableQ&lt;/span&gt;) which is then also available in the Lightning App Builder, etc. The following table lists the description of its fields.</t>
+  </si>
+  <si>
+    <t>Active?</t>
+  </si>
+  <si>
+    <t>pushtopics__Active__c</t>
+  </si>
+  <si>
+    <t>Checking this field will activate all the related schedule jobs; unchecking it will deactivate the related schedule jobs.</t>
+  </si>
+  <si>
+    <t>Unique name of the schedule.</t>
+  </si>
+  <si>
+    <t>Cron Expression</t>
+  </si>
+  <si>
+    <t>pushtopics__CronExpression__c</t>
+  </si>
+  <si>
+    <t>Read only. The cron expression will be generated automatically upon save.</t>
+  </si>
+  <si>
+    <t>Indicates whether the current Schedule is deployable, and can be used in filters while migrating DSP Schedules and their related Apex Schedules, Executable Schedules, and Job Schedules from one environment to another.</t>
   </si>
 </sst>
 </file>
@@ -7336,7 +7360,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7501C2D-0338-0A4B-B092-D781290572AF}">
   <dimension ref="A1:G92"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+    <sheetView topLeftCell="A11" zoomScale="125" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -17220,10 +17244,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F4A7905-5E64-A04B-9F1B-65FB73BBAE28}">
-  <dimension ref="A3:J24"/>
+  <dimension ref="A3:J28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="49.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17301,287 +17325,283 @@
     </row>
     <row r="7" spans="1:10" ht="33" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="54" t="s">
-        <v>502</v>
+        <v>940</v>
       </c>
       <c r="B7" s="55" t="s">
-        <v>501</v>
+        <v>941</v>
       </c>
       <c r="C7" s="55" t="s">
         <v>41</v>
       </c>
       <c r="D7" s="55" t="s">
-        <v>530</v>
+        <v>942</v>
       </c>
       <c r="E7" s="34"/>
       <c r="F7" t="str">
-        <f>"&lt;tr&gt;&lt;td&gt;" &amp; A7 &amp; "&lt;/td&gt;&lt;td class='slds-truncate'&gt;" &amp; B7 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; C7 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; D7 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;Day of Month&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__DayOfMonth__c&lt;/td&gt;&lt;td&gt;N&lt;/td&gt;&lt;td&gt;The Nth day of the month. Used when the Frequency is "Monthly".&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" ref="F7:F8" si="0">"&lt;tr&gt;&lt;td&gt;" &amp; A7 &amp; "&lt;/td&gt;&lt;td class='slds-truncate'&gt;" &amp; B7 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; C7 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; D7 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;&lt;td&gt;Active?&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__Active__c&lt;/td&gt;&lt;td&gt;N&lt;/td&gt;&lt;td&gt;Checking this field will activate all the related schedule jobs; unchecking it will deactivate the related schedule jobs.&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="G7" s="34"/>
       <c r="H7" s="34"/>
       <c r="I7" s="34"/>
       <c r="J7" s="34"/>
     </row>
-    <row r="8" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="54" t="s">
-        <v>503</v>
-      </c>
-      <c r="B8" s="50" t="s">
-        <v>504</v>
+        <v>257</v>
+      </c>
+      <c r="B8" s="55" t="s">
+        <v>263</v>
       </c>
       <c r="C8" s="55" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>531</v>
+        <v>24</v>
+      </c>
+      <c r="D8" s="55" t="s">
+        <v>943</v>
       </c>
       <c r="E8" s="34"/>
       <c r="F8" t="str">
-        <f t="shared" ref="F8:F21" si="0">"&lt;tr&gt;&lt;td&gt;" &amp; A8 &amp; "&lt;/td&gt;&lt;td class='slds-truncate'&gt;" &amp; B8 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; C8 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; D8 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;End Year&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__EndYear__c&lt;/td&gt;&lt;td&gt;N&lt;/td&gt;&lt;td&gt;Defines which year the schdule job ends.&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-      <c r="G8" s="34" t="s">
-        <v>497</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>&lt;tr&gt;&lt;td&gt;API Name&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__ApiName__c&lt;/td&gt;&lt;td&gt;Y&lt;/td&gt;&lt;td&gt;Unique name of the schedule.&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="G8" s="34"/>
       <c r="H8" s="34"/>
       <c r="I8" s="34"/>
       <c r="J8" s="34"/>
     </row>
-    <row r="9" spans="1:10" ht="65" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="33" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="54" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="B9" s="55" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="C9" s="55" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D9" s="55" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="E9" s="34"/>
       <c r="F9" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr&gt;&lt;td&gt;Frequency&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__Frequency__c&lt;/td&gt;&lt;td&gt;Y&lt;/td&gt;&lt;td&gt;There are 4 options - One Day: only runs in a specific day defined in the Scheduled Date field; Daily: runs every day; Weekly: runs on specific week days on a weekly basis; Monthly: runs in a particular day on a monthly basis.&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;tr&gt;&lt;td&gt;" &amp; A9 &amp; "&lt;/td&gt;&lt;td class='slds-truncate'&gt;" &amp; B9 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; C9 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; D9 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;&lt;td&gt;Day of Month&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__DayOfMonth__c&lt;/td&gt;&lt;td&gt;N&lt;/td&gt;&lt;td&gt;The Nth day of the month. Used when the Frequency is "Monthly".&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="G9" s="34"/>
       <c r="H9" s="34"/>
       <c r="I9" s="34"/>
       <c r="J9" s="34"/>
     </row>
-    <row r="10" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="33" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="54" t="s">
-        <v>507</v>
-      </c>
-      <c r="B10" s="55" t="s">
-        <v>508</v>
+        <v>944</v>
+      </c>
+      <c r="B10" s="66" t="s">
+        <v>945</v>
       </c>
       <c r="C10" s="55" t="s">
         <v>41</v>
       </c>
       <c r="D10" s="55" t="s">
-        <v>533</v>
+        <v>946</v>
       </c>
       <c r="E10" s="34"/>
       <c r="F10" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr&gt;&lt;td&gt;Friday&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__Friday__c&lt;/td&gt;&lt;td&gt;N&lt;/td&gt;&lt;td&gt;Runs on Fridays if the Frequency is "Weekly".&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;tr&gt;&lt;td&gt;" &amp; A10 &amp; "&lt;/td&gt;&lt;td class='slds-truncate'&gt;" &amp; B10 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; C10 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; D10 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;&lt;td&gt;Cron Expression&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__CronExpression__c&lt;/td&gt;&lt;td&gt;N&lt;/td&gt;&lt;td&gt;Read only. The cron expression will be generated automatically upon save.&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="G10" s="34"/>
       <c r="H10" s="34"/>
       <c r="I10" s="34"/>
       <c r="J10" s="34"/>
     </row>
-    <row r="11" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="60" t="s">
-        <v>509</v>
-      </c>
-      <c r="B11" s="50" t="s">
-        <v>510</v>
+    <row r="11" spans="1:10" ht="65" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="54" t="s">
+        <v>805</v>
+      </c>
+      <c r="B11" s="66" t="s">
+        <v>806</v>
       </c>
       <c r="C11" s="55" t="s">
         <v>41</v>
       </c>
       <c r="D11" s="55" t="s">
-        <v>534</v>
+        <v>947</v>
       </c>
       <c r="E11" s="34"/>
       <c r="F11" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr&gt;&lt;td&gt;Monday&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__Monday__c&lt;/td&gt;&lt;td&gt;N&lt;/td&gt;&lt;td&gt;Runs on Mondy if the Frequency is "Weekly".&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-      <c r="G11" s="34" t="s">
-        <v>498</v>
-      </c>
+        <f>"&lt;tr&gt;&lt;td&gt;" &amp; A11 &amp; "&lt;/td&gt;&lt;td class='slds-truncate'&gt;" &amp; B11 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; C11 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; D11 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;&lt;td&gt;Deployable?&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__Deployable__c&lt;/td&gt;&lt;td&gt;N&lt;/td&gt;&lt;td&gt;Indicates whether the current Schedule is deployable, and can be used in filters while migrating DSP Schedules and their related Apex Schedules, Executable Schedules, and Job Schedules from one environment to another.&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="G11" s="34"/>
       <c r="H11" s="34"/>
       <c r="I11" s="34"/>
       <c r="J11" s="34"/>
     </row>
-    <row r="12" spans="1:10" ht="49" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="60" t="s">
-        <v>511</v>
+    <row r="12" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="54" t="s">
+        <v>503</v>
       </c>
       <c r="B12" s="50" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="C12" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="55" t="s">
-        <v>540</v>
+      <c r="D12" s="5" t="s">
+        <v>531</v>
       </c>
       <c r="E12" s="34"/>
       <c r="F12" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr&gt;&lt;td&gt;Only Run In Months&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__OnlyRunInMonths__c&lt;/td&gt;&lt;td&gt;N&lt;/td&gt;&lt;td&gt;Defines the particular months when the schedule runs. If not selected, the schedule runs every month, except when the Frequency is set as "One Day".&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" ref="F12:F25" si="1">"&lt;tr&gt;&lt;td&gt;" &amp; A12 &amp; "&lt;/td&gt;&lt;td class='slds-truncate'&gt;" &amp; B12 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; C12 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; D12 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;&lt;td&gt;End Year&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__EndYear__c&lt;/td&gt;&lt;td&gt;N&lt;/td&gt;&lt;td&gt;Defines which year the schdule job ends.&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="G12" s="34" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="H12" s="34"/>
       <c r="I12" s="34"/>
       <c r="J12" s="34"/>
     </row>
-    <row r="13" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="65" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="54" t="s">
-        <v>513</v>
-      </c>
-      <c r="B13" s="50" t="s">
-        <v>514</v>
+        <v>505</v>
+      </c>
+      <c r="B13" s="55" t="s">
+        <v>506</v>
       </c>
       <c r="C13" s="55" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="57" t="s">
-        <v>541</v>
+        <v>24</v>
+      </c>
+      <c r="D13" s="55" t="s">
+        <v>532</v>
       </c>
       <c r="E13" s="34"/>
       <c r="F13" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr&gt;&lt;td&gt;Preferred Start Time&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__PreferredStartTime__c&lt;/td&gt;&lt;td&gt;N&lt;/td&gt;&lt;td&gt;The preferred time when the schedule starts to run.&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;td&gt;Frequency&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__Frequency__c&lt;/td&gt;&lt;td&gt;Y&lt;/td&gt;&lt;td&gt;There are 4 options - One Day: only runs in a specific day defined in the Scheduled Date field; Daily: runs every day; Weekly: runs on specific week days on a weekly basis; Monthly: runs in a particular day on a monthly basis.&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="G13" s="34"/>
       <c r="H13" s="34"/>
       <c r="I13" s="34"/>
       <c r="J13" s="34"/>
     </row>
-    <row r="14" spans="1:10" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="54" t="s">
-        <v>515</v>
-      </c>
-      <c r="B14" s="50" t="s">
-        <v>516</v>
+        <v>507</v>
+      </c>
+      <c r="B14" s="55" t="s">
+        <v>508</v>
       </c>
       <c r="C14" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>544</v>
+      <c r="D14" s="55" t="s">
+        <v>533</v>
       </c>
       <c r="E14" s="34"/>
       <c r="F14" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr&gt;&lt;td&gt;Run Every N Hours A Day&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__RunEveryNHoursADay__c&lt;/td&gt;&lt;td&gt;N&lt;/td&gt;&lt;td&gt;Defines the gap of hours for the schedule to run from the the Preferred Start Time until midnight of the day.&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-      <c r="G14" s="34" t="s">
-        <v>500</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;td&gt;Friday&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__Friday__c&lt;/td&gt;&lt;td&gt;N&lt;/td&gt;&lt;td&gt;Runs on Fridays if the Frequency is "Weekly".&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="G14" s="34"/>
       <c r="H14" s="34"/>
       <c r="I14" s="34"/>
       <c r="J14" s="34"/>
     </row>
     <row r="15" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="54" t="s">
-        <v>529</v>
+      <c r="A15" s="60" t="s">
+        <v>509</v>
       </c>
       <c r="B15" s="50" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="C15" s="55" t="s">
         <v>41</v>
       </c>
       <c r="D15" s="55" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E15" s="34"/>
       <c r="F15" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr&gt;&lt;td&gt;Saturday&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__Saturday__c&lt;/td&gt;&lt;td&gt;N&lt;/td&gt;&lt;td&gt;Runs on Saturday if the Frequency is "Weekly".&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-      <c r="G15" s="34"/>
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;td&gt;Monday&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__Monday__c&lt;/td&gt;&lt;td&gt;N&lt;/td&gt;&lt;td&gt;Runs on Mondy if the Frequency is "Weekly".&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="G15" s="34" t="s">
+        <v>498</v>
+      </c>
       <c r="H15" s="34"/>
       <c r="I15" s="34"/>
       <c r="J15" s="34"/>
     </row>
-    <row r="16" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="54" t="s">
-        <v>528</v>
+    <row r="16" spans="1:10" ht="49" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="60" t="s">
+        <v>511</v>
       </c>
       <c r="B16" s="50" t="s">
-        <v>21</v>
+        <v>512</v>
       </c>
       <c r="C16" s="55" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D16" s="55" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="E16" s="34"/>
       <c r="F16" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr&gt;&lt;td&gt;Schedule Name&lt;/td&gt;&lt;td class='slds-truncate'&gt;Name&lt;/td&gt;&lt;td&gt;Y&lt;/td&gt;&lt;td&gt;The name of the schedule.&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-      <c r="G16" s="34"/>
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;td&gt;Only Run In Months&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__OnlyRunInMonths__c&lt;/td&gt;&lt;td&gt;N&lt;/td&gt;&lt;td&gt;Defines the particular months when the schedule runs. If not selected, the schedule runs every month, except when the Frequency is set as "One Day".&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="G16" s="34" t="s">
+        <v>499</v>
+      </c>
       <c r="H16" s="34"/>
       <c r="I16" s="34"/>
       <c r="J16" s="34"/>
     </row>
     <row r="17" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="60" t="s">
-        <v>527</v>
+      <c r="A17" s="54" t="s">
+        <v>513</v>
       </c>
       <c r="B17" s="50" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="C17" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="55" t="s">
-        <v>543</v>
+      <c r="D17" s="57" t="s">
+        <v>541</v>
       </c>
       <c r="E17" s="34"/>
       <c r="F17" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr&gt;&lt;td&gt;Scheduled Date&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__ScheduledDate__c&lt;/td&gt;&lt;td&gt;N&lt;/td&gt;&lt;td&gt;The date scheduled to run whenthe Frequency is "One Day".&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-      <c r="G17" s="34" t="s">
-        <v>498</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;td&gt;Preferred Start Time&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__PreferredStartTime__c&lt;/td&gt;&lt;td&gt;N&lt;/td&gt;&lt;td&gt;The preferred time when the schedule starts to run.&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="G17" s="34"/>
       <c r="H17" s="34"/>
       <c r="I17" s="34"/>
       <c r="J17" s="34"/>
     </row>
-    <row r="18" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="60" t="s">
-        <v>526</v>
+    <row r="18" spans="1:10" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="54" t="s">
+        <v>515</v>
       </c>
       <c r="B18" s="50" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="C18" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="55" t="s">
-        <v>536</v>
+      <c r="D18" s="5" t="s">
+        <v>544</v>
       </c>
       <c r="E18" s="34"/>
       <c r="F18" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr&gt;&lt;td&gt;Sunday&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__Sunday__c&lt;/td&gt;&lt;td&gt;N&lt;/td&gt;&lt;td&gt;Runs on Sunday if the Frequency is "Weekly".&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;td&gt;Run Every N Hours A Day&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__RunEveryNHoursADay__c&lt;/td&gt;&lt;td&gt;N&lt;/td&gt;&lt;td&gt;Defines the gap of hours for the schedule to run from the the Preferred Start Time until midnight of the day.&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="G18" s="34" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H18" s="34"/>
       <c r="I18" s="34"/>
@@ -17589,21 +17609,21 @@
     </row>
     <row r="19" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="54" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="B19" s="50" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="C19" s="55" t="s">
         <v>41</v>
       </c>
       <c r="D19" s="55" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="E19" s="34"/>
       <c r="F19" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr&gt;&lt;td&gt;Thursday&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__Thursday__c&lt;/td&gt;&lt;td&gt;N&lt;/td&gt;&lt;td&gt;Runs on Thursday if the Frequency is "Weekly".&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;td&gt;Saturday&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__Saturday__c&lt;/td&gt;&lt;td&gt;N&lt;/td&gt;&lt;td&gt;Runs on Saturday if the Frequency is "Weekly".&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="G19" s="34"/>
       <c r="H19" s="34"/>
@@ -17612,91 +17632,187 @@
     </row>
     <row r="20" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="54" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="B20" s="50" t="s">
-        <v>521</v>
+        <v>21</v>
       </c>
       <c r="C20" s="55" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="D20" s="55" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="E20" s="34"/>
       <c r="F20" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr&gt;&lt;td&gt;Tuesday&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__Tuesday__c&lt;/td&gt;&lt;td&gt;N&lt;/td&gt;&lt;td&gt;Runs on Tuesday if the Frequency is "Weekly".&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-      <c r="G20" s="34" t="s">
-        <v>500</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;td&gt;Schedule Name&lt;/td&gt;&lt;td class='slds-truncate'&gt;Name&lt;/td&gt;&lt;td&gt;Y&lt;/td&gt;&lt;td&gt;The name of the schedule.&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="G20" s="34"/>
       <c r="H20" s="34"/>
       <c r="I20" s="34"/>
       <c r="J20" s="34"/>
     </row>
     <row r="21" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="54" t="s">
-        <v>523</v>
+      <c r="A21" s="60" t="s">
+        <v>527</v>
       </c>
       <c r="B21" s="50" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="C21" s="55" t="s">
         <v>41</v>
       </c>
       <c r="D21" s="55" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="E21" s="34"/>
       <c r="F21" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr&gt;&lt;td&gt;Wednesday&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__Wednesday__c&lt;/td&gt;&lt;td&gt;N&lt;/td&gt;&lt;td&gt;Runs on Wednesday if the Frequency is "Weekly".&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;td&gt;Scheduled Date&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__ScheduledDate__c&lt;/td&gt;&lt;td&gt;N&lt;/td&gt;&lt;td&gt;The date scheduled to run whenthe Frequency is "One Day".&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="G21" s="34" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="H21" s="34"/>
       <c r="I21" s="34"/>
       <c r="J21" s="34"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="34"/>
-      <c r="B22" s="34"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
+    <row r="22" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="60" t="s">
+        <v>526</v>
+      </c>
+      <c r="B22" s="50" t="s">
+        <v>519</v>
+      </c>
+      <c r="C22" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="55" t="s">
+        <v>536</v>
+      </c>
       <c r="E22" s="34"/>
-      <c r="F22" s="34" t="s">
-        <v>379</v>
-      </c>
-      <c r="G22" s="34"/>
+      <c r="F22" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;td&gt;Sunday&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__Sunday__c&lt;/td&gt;&lt;td&gt;N&lt;/td&gt;&lt;td&gt;Runs on Sunday if the Frequency is "Weekly".&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="G22" s="34" t="s">
+        <v>499</v>
+      </c>
       <c r="H22" s="34"/>
       <c r="I22" s="34"/>
       <c r="J22" s="34"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="34"/>
-      <c r="B23" s="34"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
+    <row r="23" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="54" t="s">
+        <v>525</v>
+      </c>
+      <c r="B23" s="50" t="s">
+        <v>520</v>
+      </c>
+      <c r="C23" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="55" t="s">
+        <v>537</v>
+      </c>
       <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
+      <c r="F23" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;td&gt;Thursday&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__Thursday__c&lt;/td&gt;&lt;td&gt;N&lt;/td&gt;&lt;td&gt;Runs on Thursday if the Frequency is "Weekly".&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
       <c r="G23" s="34"/>
       <c r="H23" s="34"/>
       <c r="I23" s="34"/>
       <c r="J23" s="34"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="34"/>
-      <c r="B24" s="34"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
+    <row r="24" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="54" t="s">
+        <v>524</v>
+      </c>
+      <c r="B24" s="50" t="s">
+        <v>521</v>
+      </c>
+      <c r="C24" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="55" t="s">
+        <v>538</v>
+      </c>
       <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
+      <c r="F24" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;td&gt;Tuesday&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__Tuesday__c&lt;/td&gt;&lt;td&gt;N&lt;/td&gt;&lt;td&gt;Runs on Tuesday if the Frequency is "Weekly".&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="G24" s="34" t="s">
+        <v>500</v>
+      </c>
       <c r="H24" s="34"/>
       <c r="I24" s="34"/>
       <c r="J24" s="34"/>
+    </row>
+    <row r="25" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="54" t="s">
+        <v>523</v>
+      </c>
+      <c r="B25" s="50" t="s">
+        <v>522</v>
+      </c>
+      <c r="C25" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" s="55" t="s">
+        <v>539</v>
+      </c>
+      <c r="E25" s="34"/>
+      <c r="F25" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;td&gt;Wednesday&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__Wednesday__c&lt;/td&gt;&lt;td&gt;N&lt;/td&gt;&lt;td&gt;Runs on Wednesday if the Frequency is "Weekly".&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="G25" s="34" t="s">
+        <v>500</v>
+      </c>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="34"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="34"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34" t="s">
+        <v>379</v>
+      </c>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="34"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="34"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="34"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="34"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/catalog.xlsx
+++ b/catalog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/o/Workspace/website/manual/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0932EA28-8D27-7940-B27A-C667B007C459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{349C1E1B-0230-6746-A166-0B1AA7E876C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="640" windowWidth="30240" windowHeight="17640" activeTab="2" xr2:uid="{7924ACC4-95BC-C241-97CB-5EF2DB9BB792}"/>
+    <workbookView xWindow="-80" yWindow="640" windowWidth="30240" windowHeight="17640" activeTab="1" xr2:uid="{7924ACC4-95BC-C241-97CB-5EF2DB9BB792}"/>
   </bookViews>
   <sheets>
     <sheet name="catalog" sheetId="1" r:id="rId1"/>
@@ -3136,9 +3136,6 @@
     <t>&lt;span class='formula'&gt;IF(NOT(Status == "Open"), ClosedDate, ADD_DAYS(CreatedDate, 3))&lt;/span&gt;, checks to see if the Status is NOT Open and if so, return the ClosedDate, otherwise return the CreatedDate plus 3 days, as the Expected Close Date.</t>
   </si>
   <si>
-    <t>&lt;span class='formula'&gt;IF(Status == "Open", ADD_DAYS(CreatedDate, 3)), ClosedDate)&lt;/span&gt;&lt;div class='v-space'&gt;&lt;/div&gt;This formula checks to see if the Status is open and if so, return CreatedDate plus 3 days, otherwise return the ClosedDate, as the Expected Close Date.</t>
-  </si>
-  <si>
     <t>&lt;ul&gt;&lt;li&gt;Do not remove the parentheses.&lt;/li&gt;&lt;li&gt;Keep the parentheses empty. They do not need to contain a value.&lt;/li&gt;&lt;li&gt;Use a date/time field in a NOW function instead of a date field. &lt;/li&gt;&lt;li&gt;Use TODAY if you prefer to use a date field.&lt;/li&gt;&lt;li&gt;Dates and times are always calculated using the user’s time zone.&lt;/li&gt;&lt;li&gt;Use ADD_DAYS to add days to a datetime field.&lt;/li&gt;&lt;/ul&gt;</t>
   </si>
   <si>
@@ -5767,6 +5764,9 @@
   </si>
   <si>
     <t>Global Variables</t>
+  </si>
+  <si>
+    <t>&lt;span class='formula'&gt;IF(Status == "Open", ADD_DAYS(Now(), 3)), ClosedDate)&lt;/span&gt;&lt;div class='v-space'&gt;&lt;/div&gt;This formula checks to see if the Status is open and if so, return Now() plus 3 days, otherwise return the ClosedDate, as the Expected Close Date.</t>
   </si>
 </sst>
 </file>
@@ -6735,7 +6735,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="D5" t="str">
         <f>",""" &amp; C5 &amp; """"</f>
@@ -6897,7 +6897,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C18" t="str">
         <f>"],""" &amp; A18 &amp; """:["</f>
@@ -6916,7 +6916,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D20" t="str">
         <f>"""" &amp; B20 &amp; """"</f>
@@ -7080,7 +7080,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C36" t="str">
         <f>"],""" &amp; A36 &amp; """:["</f>
@@ -7201,7 +7201,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D48" t="str">
         <f>",""" &amp; B48 &amp; """"</f>
@@ -7352,7 +7352,7 @@
         <v>336</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="E6" t="str">
         <f t="shared" ref="E6:E12" si="0">"&lt;tr&gt;&lt;td&gt;" &amp;A6 &amp; "&lt;/td&gt;&lt;td class='slds-truncate'&gt;" &amp;B6 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; C6 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -7367,7 +7367,7 @@
         <v>569</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="D7" s="34"/>
       <c r="E7" t="str">
@@ -7383,7 +7383,7 @@
         <v>334</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="E8" t="str">
         <f t="shared" si="0"/>
@@ -7413,7 +7413,7 @@
         <v>391</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="E10" t="str">
         <f t="shared" si="0"/>
@@ -7422,13 +7422,13 @@
     </row>
     <row r="11" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C11" s="46" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="E11" t="str">
         <f t="shared" si="0"/>
@@ -7437,13 +7437,13 @@
     </row>
     <row r="12" spans="1:5" ht="49" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="46" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E12" t="str">
         <f t="shared" si="0"/>
@@ -7458,7 +7458,7 @@
         <v>446</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="E13" t="str">
         <f t="shared" ref="E13:E17" si="1">"&lt;tr&gt;&lt;td&gt;" &amp;A13 &amp; "&lt;/td&gt;&lt;td class='slds-truncate'&gt;" &amp;B13 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; C13 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -7473,7 +7473,7 @@
         <v>447</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="E14" t="str">
         <f t="shared" si="1"/>
@@ -7488,7 +7488,7 @@
         <v>335</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="E15" t="str">
         <f>"&lt;tr&gt;&lt;td&gt;" &amp;A15 &amp; "&lt;/td&gt;&lt;td class='slds-truncate'&gt;" &amp;B15 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; C15 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -7503,7 +7503,7 @@
         <v>337</v>
       </c>
       <c r="C16" s="55" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="E16" t="str">
         <f>"&lt;tr&gt;&lt;td&gt;" &amp;A16 &amp; "&lt;/td&gt;&lt;td class='slds-truncate'&gt;" &amp;B16 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; C16 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -7518,7 +7518,7 @@
         <v>392</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="E17" t="str">
         <f t="shared" si="1"/>
@@ -7533,7 +7533,7 @@
         <v>338</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="E18" t="str">
         <f>"&lt;tr&gt;&lt;td&gt;" &amp;A18 &amp; "&lt;/td&gt;&lt;td class='slds-truncate'&gt;" &amp;B18 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; C18 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -7739,7 +7739,7 @@
     </row>
     <row r="3" spans="1:7" ht="238" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B3" s="10"/>
       <c r="F3" t="str">
@@ -7796,7 +7796,7 @@
         <v>37</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="F10" t="str">
         <f>"&lt;tr&gt;&lt;td&gt;" &amp; A10 &amp; "&lt;/td&gt;&lt;td class='slds-truncate'&gt;" &amp; B10 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; D10 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -7818,7 +7818,7 @@
         <v>37</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" ref="F11:F74" si="1">"&lt;tr&gt;&lt;td&gt;" &amp; A11 &amp; "&lt;/td&gt;&lt;td class='slds-truncate'&gt;" &amp; B11 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; D11 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -7831,16 +7831,16 @@
     </row>
     <row r="12" spans="1:7" ht="49" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
+        <v>694</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>695</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>696</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>37</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="1"/>
@@ -7858,7 +7858,7 @@
         <v>37</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" si="1"/>
@@ -7880,7 +7880,7 @@
         <v>37</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="1"/>
@@ -7902,7 +7902,7 @@
         <v>37</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" si="1"/>
@@ -7918,13 +7918,13 @@
         <v>0</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>37</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" si="1"/>
@@ -7956,14 +7956,14 @@
     </row>
     <row r="18" spans="1:7" ht="49" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="60" t="s">
+        <v>698</v>
+      </c>
+      <c r="B18" s="60" t="s">
         <v>699</v>
-      </c>
-      <c r="B18" s="60" t="s">
-        <v>700</v>
       </c>
       <c r="C18" s="55"/>
       <c r="D18" s="55" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="E18" s="34"/>
       <c r="F18" t="str">
@@ -8004,7 +8004,7 @@
         <v>37</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" si="1"/>
@@ -8017,7 +8017,7 @@
     </row>
     <row r="21" spans="1:7" ht="33" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>278</v>
@@ -8026,7 +8026,7 @@
         <v>37</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" si="1"/>
@@ -8039,16 +8039,16 @@
     </row>
     <row r="22" spans="1:7" ht="33" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>702</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>703</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>37</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F22" t="str">
         <f t="shared" si="1"/>
@@ -8066,7 +8066,7 @@
         <v>21</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F23" t="str">
         <f t="shared" si="1"/>
@@ -8093,14 +8093,14 @@
     </row>
     <row r="25" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="59" t="s">
+        <v>705</v>
+      </c>
+      <c r="B25" s="59" t="s">
         <v>706</v>
-      </c>
-      <c r="B25" s="59" t="s">
-        <v>707</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="F25" t="str">
         <f t="shared" si="1"/>
@@ -8131,14 +8131,14 @@
     </row>
     <row r="27" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
+        <v>856</v>
+      </c>
+      <c r="B27" s="4" t="s">
         <v>857</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>858</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="5" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="F27" t="str">
         <f t="shared" si="1"/>
@@ -8156,7 +8156,7 @@
         <v>37</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="F28" t="str">
         <f t="shared" si="1"/>
@@ -8169,14 +8169,14 @@
     </row>
     <row r="29" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="B29" s="4" t="s">
         <v>708</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>709</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="F29" t="str">
         <f t="shared" si="1"/>
@@ -8185,14 +8185,14 @@
     </row>
     <row r="30" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
+        <v>709</v>
+      </c>
+      <c r="B30" s="4" t="s">
         <v>710</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>711</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="F30" t="str">
         <f t="shared" si="1"/>
@@ -8201,14 +8201,14 @@
     </row>
     <row r="31" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
+        <v>712</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>713</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>714</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="F31" t="str">
         <f t="shared" si="1"/>
@@ -8217,14 +8217,14 @@
     </row>
     <row r="32" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
+        <v>715</v>
+      </c>
+      <c r="B32" s="4" t="s">
         <v>716</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>717</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="F32" t="str">
         <f t="shared" si="1"/>
@@ -8233,14 +8233,14 @@
     </row>
     <row r="33" spans="1:7" ht="33" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
+        <v>718</v>
+      </c>
+      <c r="B33" s="4" t="s">
         <v>719</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>720</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="F33" t="str">
         <f t="shared" si="1"/>
@@ -8280,7 +8280,7 @@
         <v>37</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="F35" t="str">
         <f t="shared" si="1"/>
@@ -8293,16 +8293,16 @@
     </row>
     <row r="36" spans="1:7" ht="33" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>37</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="F36" t="str">
         <f t="shared" si="1"/>
@@ -8315,16 +8315,16 @@
     </row>
     <row r="37" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
+        <v>860</v>
+      </c>
+      <c r="B37" s="4" t="s">
         <v>861</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>862</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>37</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="F37" t="str">
         <f t="shared" si="1"/>
@@ -8337,16 +8337,16 @@
     </row>
     <row r="38" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="59" t="s">
+        <v>721</v>
+      </c>
+      <c r="B38" s="59" t="s">
         <v>722</v>
-      </c>
-      <c r="B38" s="59" t="s">
-        <v>723</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>37</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="F38" t="str">
         <f t="shared" si="1"/>
@@ -8359,16 +8359,16 @@
     </row>
     <row r="39" spans="1:7" ht="33" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="59" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B39" s="59" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>37</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="F39" t="str">
         <f t="shared" si="1"/>
@@ -8381,16 +8381,16 @@
     </row>
     <row r="40" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="59" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B40" s="59" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>37</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="F40" t="str">
         <f t="shared" si="1"/>
@@ -8403,16 +8403,16 @@
     </row>
     <row r="41" spans="1:7" ht="33" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="59" t="s">
+        <v>728</v>
+      </c>
+      <c r="B41" s="59" t="s">
         <v>729</v>
-      </c>
-      <c r="B41" s="59" t="s">
-        <v>730</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>37</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="F41" t="str">
         <f t="shared" si="1"/>
@@ -8425,16 +8425,16 @@
     </row>
     <row r="42" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="59" t="s">
+        <v>730</v>
+      </c>
+      <c r="B42" s="59" t="s">
         <v>731</v>
-      </c>
-      <c r="B42" s="59" t="s">
-        <v>732</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>37</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="F42" t="str">
         <f t="shared" si="1"/>
@@ -8447,16 +8447,16 @@
     </row>
     <row r="43" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="59" t="s">
+        <v>732</v>
+      </c>
+      <c r="B43" s="59" t="s">
         <v>733</v>
-      </c>
-      <c r="B43" s="59" t="s">
-        <v>734</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>37</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="F43" t="str">
         <f t="shared" si="1"/>
@@ -8469,16 +8469,16 @@
     </row>
     <row r="44" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="59" t="s">
+        <v>734</v>
+      </c>
+      <c r="B44" s="59" t="s">
         <v>735</v>
-      </c>
-      <c r="B44" s="59" t="s">
-        <v>736</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="F44" t="str">
         <f t="shared" si="1"/>
@@ -8491,16 +8491,16 @@
     </row>
     <row r="45" spans="1:7" ht="33" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="59" t="s">
+        <v>736</v>
+      </c>
+      <c r="B45" s="59" t="s">
         <v>737</v>
-      </c>
-      <c r="B45" s="59" t="s">
-        <v>738</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="F45" t="str">
         <f t="shared" si="1"/>
@@ -8513,16 +8513,16 @@
     </row>
     <row r="46" spans="1:7" ht="33" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="59" t="s">
+        <v>738</v>
+      </c>
+      <c r="B46" s="59" t="s">
         <v>739</v>
-      </c>
-      <c r="B46" s="59" t="s">
-        <v>740</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>37</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F46" t="str">
         <f t="shared" si="1"/>
@@ -8535,16 +8535,16 @@
     </row>
     <row r="47" spans="1:7" ht="33" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="59" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B47" s="59" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>37</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F47" t="str">
         <f t="shared" si="1"/>
@@ -8557,16 +8557,16 @@
     </row>
     <row r="48" spans="1:7" ht="33" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="59" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B48" s="59" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>37</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F48" t="str">
         <f t="shared" si="1"/>
@@ -8579,16 +8579,16 @@
     </row>
     <row r="49" spans="1:7" ht="33" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="59" t="s">
+        <v>869</v>
+      </c>
+      <c r="B49" s="59" t="s">
         <v>870</v>
-      </c>
-      <c r="B49" s="59" t="s">
-        <v>871</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>37</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="F49" t="str">
         <f t="shared" si="1"/>
@@ -8601,16 +8601,16 @@
     </row>
     <row r="50" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="59" t="s">
+        <v>692</v>
+      </c>
+      <c r="B50" s="59" t="s">
         <v>693</v>
-      </c>
-      <c r="B50" s="59" t="s">
-        <v>694</v>
       </c>
       <c r="C50" s="6" t="s">
         <v>37</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="F50" t="str">
         <f t="shared" si="1"/>
@@ -8623,16 +8623,16 @@
     </row>
     <row r="51" spans="1:7" ht="33" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="59" t="s">
+        <v>742</v>
+      </c>
+      <c r="B51" s="59" t="s">
         <v>743</v>
-      </c>
-      <c r="B51" s="59" t="s">
-        <v>744</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>37</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="F51" t="str">
         <f t="shared" si="1"/>
@@ -8645,16 +8645,16 @@
     </row>
     <row r="52" spans="1:7" ht="33" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="59" t="s">
+        <v>744</v>
+      </c>
+      <c r="B52" s="59" t="s">
         <v>745</v>
-      </c>
-      <c r="B52" s="59" t="s">
-        <v>746</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>37</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F52" t="str">
         <f t="shared" si="1"/>
@@ -8667,16 +8667,16 @@
     </row>
     <row r="53" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="59" t="s">
+        <v>746</v>
+      </c>
+      <c r="B53" s="59" t="s">
         <v>747</v>
-      </c>
-      <c r="B53" s="59" t="s">
-        <v>748</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>37</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F53" t="str">
         <f t="shared" si="1"/>
@@ -8689,16 +8689,16 @@
     </row>
     <row r="54" spans="1:7" ht="33" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="59" t="s">
+        <v>748</v>
+      </c>
+      <c r="B54" s="59" t="s">
         <v>749</v>
-      </c>
-      <c r="B54" s="59" t="s">
-        <v>750</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>37</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="F54" t="str">
         <f t="shared" si="1"/>
@@ -8711,16 +8711,16 @@
     </row>
     <row r="55" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="59" t="s">
+        <v>750</v>
+      </c>
+      <c r="B55" s="59" t="s">
         <v>751</v>
-      </c>
-      <c r="B55" s="59" t="s">
-        <v>752</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>37</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="F55" t="str">
         <f t="shared" si="1"/>
@@ -8733,16 +8733,16 @@
     </row>
     <row r="56" spans="1:7" ht="33" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="59" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B56" s="59" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>37</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="F56" t="str">
         <f t="shared" si="1"/>
@@ -8755,16 +8755,16 @@
     </row>
     <row r="57" spans="1:7" ht="33" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="59" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B57" s="59" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>37</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="F57" t="str">
         <f t="shared" si="1"/>
@@ -8777,16 +8777,16 @@
     </row>
     <row r="58" spans="1:7" ht="49" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="59" t="s">
+        <v>752</v>
+      </c>
+      <c r="B58" s="59" t="s">
         <v>753</v>
-      </c>
-      <c r="B58" s="59" t="s">
-        <v>754</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>37</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="F58" t="str">
         <f t="shared" si="1"/>
@@ -8799,16 +8799,16 @@
     </row>
     <row r="59" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="59" t="s">
+        <v>754</v>
+      </c>
+      <c r="B59" s="59" t="s">
         <v>755</v>
-      </c>
-      <c r="B59" s="59" t="s">
-        <v>756</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>37</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="F59" t="str">
         <f t="shared" si="1"/>
@@ -8821,16 +8821,16 @@
     </row>
     <row r="60" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
+        <v>756</v>
+      </c>
+      <c r="B60" s="4" t="s">
         <v>757</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>758</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>37</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="F60" t="str">
         <f t="shared" si="1"/>
@@ -8843,16 +8843,16 @@
     </row>
     <row r="61" spans="1:7" ht="33" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
+        <v>758</v>
+      </c>
+      <c r="B61" s="4" t="s">
         <v>759</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>760</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="F61" t="str">
         <f t="shared" si="1"/>
@@ -8861,16 +8861,16 @@
     </row>
     <row r="62" spans="1:7" ht="65" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
+        <v>762</v>
+      </c>
+      <c r="B62" s="4" t="s">
         <v>763</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>764</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>37</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="F62" t="str">
         <f t="shared" si="1"/>
@@ -8881,16 +8881,16 @@
     </row>
     <row r="63" spans="1:7" ht="33" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="59" t="s">
+        <v>873</v>
+      </c>
+      <c r="B63" s="59" t="s">
         <v>874</v>
-      </c>
-      <c r="B63" s="59" t="s">
-        <v>875</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>37</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F63" t="str">
         <f t="shared" si="1"/>
@@ -8925,16 +8925,16 @@
     </row>
     <row r="65" spans="1:7" ht="33" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
+        <v>764</v>
+      </c>
+      <c r="B65" s="4" t="s">
         <v>765</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>766</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>37</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="F65" t="str">
         <f t="shared" si="1"/>
@@ -8947,14 +8947,14 @@
     </row>
     <row r="66" spans="1:7" ht="33" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
+        <v>766</v>
+      </c>
+      <c r="B66" s="4" t="s">
         <v>767</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>768</v>
       </c>
       <c r="C66" s="4"/>
       <c r="D66" s="4" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="F66" t="str">
         <f t="shared" si="1"/>
@@ -9007,7 +9007,7 @@
     </row>
     <row r="69" spans="1:7" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="8" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B69" s="8" t="s">
         <v>289</v>
@@ -9016,7 +9016,7 @@
         <v>37</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F69" t="str">
         <f t="shared" si="1"/>
@@ -9029,14 +9029,14 @@
     </row>
     <row r="70" spans="1:7" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="61" t="s">
+        <v>769</v>
+      </c>
+      <c r="B70" s="6" t="s">
         <v>770</v>
-      </c>
-      <c r="B70" s="6" t="s">
-        <v>771</v>
       </c>
       <c r="C70" s="6"/>
       <c r="D70" s="62" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="F70" t="str">
         <f t="shared" si="1"/>
@@ -9045,16 +9045,16 @@
     </row>
     <row r="71" spans="1:7" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="61" t="s">
+        <v>772</v>
+      </c>
+      <c r="B71" s="6" t="s">
         <v>773</v>
-      </c>
-      <c r="B71" s="6" t="s">
-        <v>774</v>
       </c>
       <c r="C71" s="6" t="s">
         <v>37</v>
       </c>
       <c r="D71" s="62" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="F71" t="str">
         <f t="shared" si="1"/>
@@ -9072,7 +9072,7 @@
         <v>37</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="F72" t="str">
         <f t="shared" si="1"/>
@@ -9085,16 +9085,16 @@
     </row>
     <row r="73" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
+        <v>864</v>
+      </c>
+      <c r="B73" s="4" t="s">
         <v>865</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>866</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>37</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="F73" t="str">
         <f t="shared" si="1"/>
@@ -9107,16 +9107,16 @@
     </row>
     <row r="74" spans="1:7" ht="49" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
+        <v>775</v>
+      </c>
+      <c r="B74" s="4" t="s">
         <v>776</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>777</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>37</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="F74" t="str">
         <f t="shared" si="1"/>
@@ -9134,7 +9134,7 @@
         <v>37</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F75" t="str">
         <f t="shared" ref="F75:F89" si="3">"&lt;tr&gt;&lt;td&gt;" &amp; A75 &amp; "&lt;/td&gt;&lt;td class='slds-truncate'&gt;" &amp; B75 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; D75 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -9169,16 +9169,16 @@
     </row>
     <row r="77" spans="1:7" ht="49" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
+        <v>777</v>
+      </c>
+      <c r="B77" s="4" t="s">
         <v>778</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>779</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>37</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="F77" t="str">
         <f t="shared" si="3"/>
@@ -9213,16 +9213,16 @@
     </row>
     <row r="79" spans="1:7" ht="49" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
+        <v>780</v>
+      </c>
+      <c r="B79" s="4" t="s">
         <v>781</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>782</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>37</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="F79" t="str">
         <f t="shared" si="3"/>
@@ -9332,7 +9332,7 @@
         <v>37</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F84" t="str">
         <f t="shared" si="3"/>
@@ -9354,7 +9354,7 @@
         <v>37</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="F85" t="str">
         <f t="shared" si="3"/>
@@ -9367,16 +9367,16 @@
     </row>
     <row r="86" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
+        <v>782</v>
+      </c>
+      <c r="B86" s="4" t="s">
         <v>783</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>784</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>37</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="F86" t="str">
         <f t="shared" si="3"/>
@@ -9389,16 +9389,16 @@
     </row>
     <row r="87" spans="1:7" ht="65" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>37</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="F87" t="str">
         <f t="shared" si="3"/>
@@ -9420,7 +9420,7 @@
         <v>37</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="F88" t="str">
         <f t="shared" si="3"/>
@@ -9433,16 +9433,16 @@
     </row>
     <row r="89" spans="1:7" ht="33" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="B89" s="3" t="s">
         <v>789</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>790</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>37</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="F89" t="str">
         <f t="shared" si="3"/>
@@ -9815,13 +9815,13 @@
     </row>
     <row r="27" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B27" s="4" t="s">
+        <v>867</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>868</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>869</v>
       </c>
       <c r="E27" t="str">
         <f t="shared" si="2"/>
@@ -10942,8 +10942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A83B33B-DA36-5D49-95C7-AC62BEC234BD}">
   <dimension ref="A1:E747"/>
   <sheetViews>
-    <sheetView topLeftCell="A209" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B222" sqref="B222"/>
+    <sheetView tabSelected="1" topLeftCell="A478" zoomScale="125" workbookViewId="0">
+      <selection activeCell="B489" sqref="B489"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11031,7 +11031,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B11" t="s">
         <v>148</v>
@@ -11151,10 +11151,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B21" t="s">
         <v>1046</v>
-      </c>
-      <c r="B21" t="s">
-        <v>1047</v>
       </c>
       <c r="C21" t="str">
         <f t="shared" ref="C21:C24" si="1">"&lt;li&gt;&lt;a href='#" &amp; B21 &amp; "'&gt;" &amp;A21 &amp; "&lt;/a&gt;&lt;/li&gt;"</f>
@@ -11163,10 +11163,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B22" t="s">
         <v>1051</v>
-      </c>
-      <c r="B22" t="s">
-        <v>1052</v>
       </c>
       <c r="C22" t="str">
         <f t="shared" si="1"/>
@@ -11175,10 +11175,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B23" t="s">
         <v>1055</v>
-      </c>
-      <c r="B23" t="s">
-        <v>1056</v>
       </c>
       <c r="C23" t="str">
         <f t="shared" si="1"/>
@@ -11187,10 +11187,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B24" t="s">
         <v>1059</v>
-      </c>
-      <c r="B24" t="s">
-        <v>1060</v>
       </c>
       <c r="C24" t="str">
         <f t="shared" si="1"/>
@@ -11322,7 +11322,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B36" t="str">
         <f>SUBSTITUTE(LOWER(A36), " ", "_")</f>
@@ -11335,7 +11335,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B37" t="str">
         <f t="shared" ref="B37:B51" si="3">SUBSTITUTE(LOWER(A37), " ", "_")</f>
@@ -11348,7 +11348,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B38" t="str">
         <f t="shared" si="3"/>
@@ -11374,7 +11374,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B40" t="str">
         <f t="shared" ref="B40" si="5">SUBSTITUTE(LOWER(A40), " ", "_")</f>
@@ -11400,7 +11400,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B42" t="str">
         <f t="shared" ref="B42" si="7">SUBSTITUTE(LOWER(A42), " ", "_")</f>
@@ -11413,7 +11413,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B43" t="str">
         <f t="shared" si="3"/>
@@ -11426,7 +11426,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B44" t="str">
         <f t="shared" si="3"/>
@@ -11439,7 +11439,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B45" t="str">
         <f t="shared" ref="B45" si="9">SUBSTITUTE(LOWER(A45), " ", "_")</f>
@@ -11478,7 +11478,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B48" t="str">
         <f t="shared" ref="B48" si="11">SUBSTITUTE(LOWER(A48), " ", "_")</f>
@@ -11504,7 +11504,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B50" t="str">
         <f t="shared" si="3"/>
@@ -11517,7 +11517,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B51" t="str">
         <f t="shared" si="3"/>
@@ -11530,7 +11530,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B52" t="str">
         <f>SUBSTITUTE(LOWER(A52), " ", "_")</f>
@@ -11543,7 +11543,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B53" t="str">
         <f>SUBSTITUTE(LOWER(A53), " ", "_")</f>
@@ -11556,7 +11556,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="20" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B54" t="str">
         <f>SUBSTITUTE(LOWER(A54), " ", "_")</f>
@@ -11569,7 +11569,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="20" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B55" t="str">
         <f>SUBSTITUTE(LOWER(A55), " ", "_")</f>
@@ -11582,7 +11582,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="20" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B56" t="str">
         <f>SUBSTITUTE(LOWER(A56), " ", "_")</f>
@@ -11627,7 +11627,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="B61" t="str">
         <f>SUBSTITUTE(LOWER(A61), " ", "_")</f>
@@ -11640,7 +11640,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B62" t="str">
         <f>SUBSTITUTE(LOWER(A62), " ", "_")</f>
@@ -11653,7 +11653,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="B63" t="str">
         <f>SUBSTITUTE(LOWER(A63), " ", "_")</f>
@@ -11666,7 +11666,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="B64" t="str">
         <f>SUBSTITUTE(LOWER(A64), " ", "_")</f>
@@ -11679,7 +11679,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B65" t="str">
         <f>SUBSTITUTE(LOWER(A65), " ", "_")</f>
@@ -11718,7 +11718,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B68" t="str">
         <f t="shared" ref="B68" si="15">SUBSTITUTE(LOWER(A68), " ", "_")</f>
@@ -11783,7 +11783,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="B73" t="str">
         <f t="shared" si="13"/>
@@ -11796,7 +11796,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B74" t="str">
         <f>SUBSTITUTE(LOWER(A74), " ", "_")</f>
@@ -11848,7 +11848,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B78" t="str">
         <f t="shared" si="13"/>
@@ -11861,7 +11861,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B79" t="str">
         <f>SUBSTITUTE(LOWER(A79), " ", "_")</f>
@@ -11874,7 +11874,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="B80" t="str">
         <f>SUBSTITUTE(LOWER(A80), " ", "_")</f>
@@ -11887,7 +11887,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B81" t="str">
         <f>SUBSTITUTE(LOWER(A81), " ", "_")</f>
@@ -11900,7 +11900,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B82" t="str">
         <f>SUBSTITUTE(LOWER(A82), " ", "_")</f>
@@ -11913,7 +11913,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B83" t="str">
         <f>SUBSTITUTE(LOWER(A83), " ", "_")</f>
@@ -11926,7 +11926,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B84" t="str">
         <f>SUBSTITUTE(LOWER(A84), " ", "_")</f>
@@ -11939,7 +11939,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B85" t="str">
         <f>SUBSTITUTE(LOWER(A85), " ", "_")</f>
@@ -11958,7 +11958,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B88" t="str">
         <f>SUBSTITUTE(LOWER(A88), " ", "_")</f>
@@ -11971,7 +11971,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B89" t="str">
         <f t="shared" ref="B89:B111" si="21">SUBSTITUTE(LOWER(A89), " ", "_")</f>
@@ -11997,7 +11997,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B91" t="str">
         <f t="shared" si="21"/>
@@ -12010,7 +12010,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B92" t="str">
         <f t="shared" si="21"/>
@@ -12023,7 +12023,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B93" t="str">
         <f t="shared" si="21"/>
@@ -12036,7 +12036,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B94" t="str">
         <f t="shared" si="21"/>
@@ -12049,7 +12049,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B95" t="str">
         <f t="shared" si="21"/>
@@ -12062,7 +12062,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B96" t="str">
         <f t="shared" si="21"/>
@@ -12075,7 +12075,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B97" t="str">
         <f t="shared" si="21"/>
@@ -12088,7 +12088,7 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B98" t="str">
         <f t="shared" ref="B98" si="23">SUBSTITUTE(LOWER(A98), " ", "_")</f>
@@ -12101,7 +12101,7 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="B99" t="str">
         <f t="shared" si="21"/>
@@ -12114,7 +12114,7 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B100" t="str">
         <f t="shared" si="21"/>
@@ -12127,7 +12127,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B101" t="str">
         <f t="shared" ref="B101" si="25">SUBSTITUTE(LOWER(A101), " ", "_")</f>
@@ -12140,7 +12140,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="B102" t="str">
         <f t="shared" si="21"/>
@@ -12153,7 +12153,7 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="B103" t="str">
         <f t="shared" ref="B103:B104" si="27">SUBSTITUTE(LOWER(A103), " ", "_")</f>
@@ -12166,7 +12166,7 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B104" t="str">
         <f t="shared" si="27"/>
@@ -12179,7 +12179,7 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="B105" t="str">
         <f t="shared" ref="B105" si="29">SUBSTITUTE(LOWER(A105), " ", "_")</f>
@@ -12192,7 +12192,7 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B106" t="str">
         <f t="shared" si="21"/>
@@ -12218,7 +12218,7 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="B108" t="str">
         <f t="shared" si="21"/>
@@ -12244,7 +12244,7 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="B110" t="str">
         <f t="shared" ref="B110" si="33">SUBSTITUTE(LOWER(A110), " ", "_")</f>
@@ -13005,7 +13005,7 @@
         <v>158</v>
       </c>
       <c r="B196" s="27" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="C196" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A196 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B196 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -13047,10 +13047,10 @@
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A201" s="23" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B201" s="23" t="s">
         <v>1046</v>
-      </c>
-      <c r="B201" s="23" t="s">
-        <v>1047</v>
       </c>
       <c r="C201" t="str">
         <f>"&lt;div class='v-space'&gt;&lt;/div&gt;&lt;div id='" &amp; B201 &amp;"'&gt;&lt;h2&gt;" &amp;A201&amp; "&lt;/h2&gt;&lt;table&gt;&lt;tbody&gt;"</f>
@@ -13062,7 +13062,7 @@
         <v>158</v>
       </c>
       <c r="B202" s="27" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="C202" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A202 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B202 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -13074,7 +13074,7 @@
         <v>159</v>
       </c>
       <c r="B203" s="29" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="C203" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A203 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B203 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -13092,10 +13092,10 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206" s="23" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B206" s="23" t="s">
         <v>1051</v>
-      </c>
-      <c r="B206" s="23" t="s">
-        <v>1052</v>
       </c>
       <c r="C206" t="str">
         <f>"&lt;div class='v-space'&gt;&lt;/div&gt;&lt;div id='" &amp; B206 &amp;"'&gt;&lt;h2&gt;" &amp;A206&amp; "&lt;/h2&gt;&lt;table&gt;&lt;tbody&gt;"</f>
@@ -13107,7 +13107,7 @@
         <v>158</v>
       </c>
       <c r="B207" s="27" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="C207" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A207 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B207 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -13119,7 +13119,7 @@
         <v>159</v>
       </c>
       <c r="B208" s="29" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="C208" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A208 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B208 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -13137,10 +13137,10 @@
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211" s="23" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B211" s="23" t="s">
         <v>1055</v>
-      </c>
-      <c r="B211" s="23" t="s">
-        <v>1056</v>
       </c>
       <c r="C211" t="str">
         <f>"&lt;div class='v-space'&gt;&lt;/div&gt;&lt;div id='" &amp; B211 &amp;"'&gt;&lt;h2&gt;" &amp;A211&amp; "&lt;/h2&gt;&lt;table&gt;&lt;tbody&gt;"</f>
@@ -13152,7 +13152,7 @@
         <v>158</v>
       </c>
       <c r="B212" s="27" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="C212" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A212 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B212 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -13164,7 +13164,7 @@
         <v>159</v>
       </c>
       <c r="B213" s="29" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="C213" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A213 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B213 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -13182,10 +13182,10 @@
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A216" s="23" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B216" s="23" t="s">
         <v>1059</v>
-      </c>
-      <c r="B216" s="23" t="s">
-        <v>1060</v>
       </c>
       <c r="C216" t="str">
         <f>"&lt;div class='v-space'&gt;&lt;/div&gt;&lt;div id='" &amp; B216 &amp;"'&gt;&lt;h2&gt;" &amp;A216&amp; "&lt;/h2&gt;&lt;table&gt;&lt;tbody&gt;"</f>
@@ -13197,7 +13197,7 @@
         <v>158</v>
       </c>
       <c r="B217" s="27" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="C217" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A217 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B217 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -13209,7 +13209,7 @@
         <v>159</v>
       </c>
       <c r="B218" s="29" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="C218" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A218 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B218 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -13263,7 +13263,7 @@
         <v>160</v>
       </c>
       <c r="B224" s="28" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C224" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A224 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B224 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -13317,7 +13317,7 @@
         <v>160</v>
       </c>
       <c r="B230" s="28" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C230" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A230 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B230 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -13359,7 +13359,7 @@
         <v>159</v>
       </c>
       <c r="B235" s="28" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C235" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A235 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B235 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -13371,7 +13371,7 @@
         <v>160</v>
       </c>
       <c r="B236" s="28" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C236" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A236 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B236 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -13485,7 +13485,7 @@
         <v>159</v>
       </c>
       <c r="B248" s="28" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="C248" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A248 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B248 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -13497,7 +13497,7 @@
         <v>160</v>
       </c>
       <c r="B249" s="28" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="C249" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A249 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B249 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -13554,7 +13554,7 @@
         <v>159</v>
       </c>
       <c r="B255" s="28" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="C255" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A255 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B255 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -13566,7 +13566,7 @@
         <v>160</v>
       </c>
       <c r="B256" s="28" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C256" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A256 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B256 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -13623,7 +13623,7 @@
         <v>159</v>
       </c>
       <c r="B262" s="28" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="C262" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A262 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B262 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -13635,7 +13635,7 @@
         <v>160</v>
       </c>
       <c r="B263" s="28" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="C263" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A263 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B263 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -13692,7 +13692,7 @@
         <v>159</v>
       </c>
       <c r="B269" s="28" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="C269" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A269 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B269 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -13704,7 +13704,7 @@
         <v>160</v>
       </c>
       <c r="B270" s="28" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="C270" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A270 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B270 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -13761,7 +13761,7 @@
         <v>159</v>
       </c>
       <c r="B276" s="28" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="C276" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A276 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B276 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -13773,7 +13773,7 @@
         <v>160</v>
       </c>
       <c r="B277" s="28" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="C277" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A277 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B277 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -13847,7 +13847,7 @@
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A287" s="23" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B287" s="23" t="str">
         <f>SUBSTITUTE(LOWER(A287), " ", "_")</f>
@@ -13863,7 +13863,7 @@
         <v>158</v>
       </c>
       <c r="B288" s="27" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C288" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A288 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B288 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -13875,7 +13875,7 @@
         <v>159</v>
       </c>
       <c r="B289" s="28" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C289" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A289 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B289 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -13892,7 +13892,7 @@
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A292" s="23" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B292" s="23" t="str">
         <f>SUBSTITUTE(LOWER(A292), " ", "_")</f>
@@ -13908,7 +13908,7 @@
         <v>158</v>
       </c>
       <c r="B293" s="27" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="C293" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A293 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B293 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -13920,7 +13920,7 @@
         <v>159</v>
       </c>
       <c r="B294" s="28" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C294" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A294 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B294 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -13937,7 +13937,7 @@
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A297" s="23" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B297" s="23" t="str">
         <f>SUBSTITUTE(LOWER(A297), " ", "_")</f>
@@ -13953,7 +13953,7 @@
         <v>158</v>
       </c>
       <c r="B298" s="27" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C298" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A298 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B298 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -13965,7 +13965,7 @@
         <v>159</v>
       </c>
       <c r="B299" s="28" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C299" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A299 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B299 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -13979,7 +13979,7 @@
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A302" s="23" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B302" s="23" t="str">
         <f>SUBSTITUTE(LOWER(A302), " ", "_")</f>
@@ -14007,7 +14007,7 @@
         <v>159</v>
       </c>
       <c r="B304" s="28" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C304" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A304 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B304 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -14019,7 +14019,7 @@
         <v>180</v>
       </c>
       <c r="B305" s="27" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C305" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A305 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B305 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -14064,7 +14064,7 @@
         <v>159</v>
       </c>
       <c r="B311" s="28" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="C311" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A311 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B311 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -14086,7 +14086,7 @@
         <v>181</v>
       </c>
       <c r="B313" s="32" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="C313" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A313 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B313 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -14100,7 +14100,7 @@
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A316" s="23" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B316" s="23" t="str">
         <f>SUBSTITUTE(LOWER(A316), " ", "_")</f>
@@ -14116,7 +14116,7 @@
         <v>158</v>
       </c>
       <c r="B317" s="27" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="C317" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A317 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B317 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -14128,7 +14128,7 @@
         <v>159</v>
       </c>
       <c r="B318" s="28" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C318" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A318 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B318 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -14138,7 +14138,7 @@
     <row r="319" spans="1:3" ht="123" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="26"/>
       <c r="B319" s="27" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="C319" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A319 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B319 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -14150,7 +14150,7 @@
         <v>181</v>
       </c>
       <c r="B320" s="32" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C320" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A320 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B320 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -14218,7 +14218,7 @@
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A329" s="23" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B329" s="23" t="str">
         <f>SUBSTITUTE(LOWER(A329), " ", "_")</f>
@@ -14234,7 +14234,7 @@
         <v>158</v>
       </c>
       <c r="B330" s="27" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="C330" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A330 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B330 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -14246,7 +14246,7 @@
         <v>159</v>
       </c>
       <c r="B331" s="28" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C331" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A331 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B331 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -14258,7 +14258,7 @@
         <v>160</v>
       </c>
       <c r="B332" s="28" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C332" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A332 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B332 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -14273,7 +14273,7 @@
     <row r="334" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="336" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A336" s="23" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B336" s="23" t="str">
         <f>SUBSTITUTE(LOWER(A336), " ", "_")</f>
@@ -14301,7 +14301,7 @@
         <v>159</v>
       </c>
       <c r="B338" s="39" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="C338" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A338 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B338 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -14313,7 +14313,7 @@
         <v>160</v>
       </c>
       <c r="B339" s="39" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="C339" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A339 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B339 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -14327,7 +14327,7 @@
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A342" s="23" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B342" s="23" t="str">
         <f>SUBSTITUTE(LOWER(A342), " ", "_")</f>
@@ -14343,7 +14343,7 @@
         <v>158</v>
       </c>
       <c r="B343" s="27" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="C343" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A343 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B343 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -14355,7 +14355,7 @@
         <v>159</v>
       </c>
       <c r="B344" s="28" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="C344" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A344 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B344 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -14367,7 +14367,7 @@
         <v>160</v>
       </c>
       <c r="B345" s="28" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C345" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A345 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B345 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -14381,7 +14381,7 @@
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A348" s="23" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B348" s="23" t="str">
         <f>SUBSTITUTE(LOWER(A348), " ", "_")</f>
@@ -14397,7 +14397,7 @@
         <v>158</v>
       </c>
       <c r="B349" s="27" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="C349" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A349 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B349 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -14409,7 +14409,7 @@
         <v>159</v>
       </c>
       <c r="B350" s="28" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="C350" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A350 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B350 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -14421,7 +14421,7 @@
         <v>160</v>
       </c>
       <c r="B351" s="28" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="C351" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A351 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B351 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -14463,7 +14463,7 @@
         <v>159</v>
       </c>
       <c r="B356" s="28" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="C356" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A356 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B356 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -14505,7 +14505,7 @@
         <v>159</v>
       </c>
       <c r="B361" s="28" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="C361" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A361 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B361 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -14520,7 +14520,7 @@
     <row r="363" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="364" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A364" s="23" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B364" s="23" t="str">
         <f>SUBSTITUTE(LOWER(A364), " ", "_")</f>
@@ -14536,7 +14536,7 @@
         <v>190</v>
       </c>
       <c r="B365" s="27" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="C365" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A365 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B365 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -14548,7 +14548,7 @@
         <v>159</v>
       </c>
       <c r="B366" s="28" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="C366" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A366 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B366 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -14560,7 +14560,7 @@
         <v>160</v>
       </c>
       <c r="B367" s="31" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="C367" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A367 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B367 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -14591,7 +14591,7 @@
         <v>190</v>
       </c>
       <c r="B371" s="27" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="C371" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A371 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B371 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -14603,7 +14603,7 @@
         <v>159</v>
       </c>
       <c r="B372" s="28" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C372" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A372 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B372 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -14615,7 +14615,7 @@
         <v>160</v>
       </c>
       <c r="B373" s="31" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="C373" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A373 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B373 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -14632,7 +14632,7 @@
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A376" s="23" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B376" s="23" t="str">
         <f>SUBSTITUTE(LOWER(A376), " ", "_")</f>
@@ -14648,7 +14648,7 @@
         <v>190</v>
       </c>
       <c r="B377" s="27" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C377" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A377 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B377 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -14660,7 +14660,7 @@
         <v>159</v>
       </c>
       <c r="B378" s="28" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C378" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A378 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B378 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -14672,7 +14672,7 @@
         <v>160</v>
       </c>
       <c r="B379" s="28" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C379" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A379 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B379 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -14689,7 +14689,7 @@
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A382" s="23" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B382" s="23" t="str">
         <f>SUBSTITUTE(LOWER(A382), " ", "_")</f>
@@ -14705,7 +14705,7 @@
         <v>190</v>
       </c>
       <c r="B383" s="27" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C383" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A383 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B383 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -14717,7 +14717,7 @@
         <v>159</v>
       </c>
       <c r="B384" s="28" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C384" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A384 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B384 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -14729,7 +14729,7 @@
         <v>160</v>
       </c>
       <c r="B385" s="28" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C385" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A385 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B385 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -14744,7 +14744,7 @@
     <row r="387" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="388" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A388" s="23" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B388" s="23" t="str">
         <f>SUBSTITUTE(LOWER(A388), " ", "_")</f>
@@ -14772,7 +14772,7 @@
         <v>159</v>
       </c>
       <c r="B390" s="28" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C390" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A390 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B390 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -14784,7 +14784,7 @@
         <v>160</v>
       </c>
       <c r="B391" s="31" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C391" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A391 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B391 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -14798,7 +14798,7 @@
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A394" s="23" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B394" s="23" t="str">
         <f>SUBSTITUTE(LOWER(A394), " ", "_")</f>
@@ -14814,7 +14814,7 @@
         <v>190</v>
       </c>
       <c r="B395" s="27" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C395" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A395 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B395 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -14826,7 +14826,7 @@
         <v>159</v>
       </c>
       <c r="B396" s="28" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C396" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A396 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B396 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -14838,7 +14838,7 @@
         <v>160</v>
       </c>
       <c r="B397" s="28" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C397" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A397 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B397 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -14853,7 +14853,7 @@
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A400" s="25" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B400" s="23" t="str">
         <f>SUBSTITUTE(LOWER(A400), " ", "_")</f>
@@ -14869,7 +14869,7 @@
         <v>158</v>
       </c>
       <c r="B401" s="27" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="C401" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A401 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B401 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -14881,7 +14881,7 @@
         <v>159</v>
       </c>
       <c r="B402" s="28" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="C402" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A402 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B402 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -14893,7 +14893,7 @@
         <v>160</v>
       </c>
       <c r="B403" s="28" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C403" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A403 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B403 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -14910,7 +14910,7 @@
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A406" s="23" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B406" s="23" t="str">
         <f>SUBSTITUTE(LOWER(A406), " ", "_")</f>
@@ -14926,7 +14926,7 @@
         <v>190</v>
       </c>
       <c r="B407" s="27" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C407" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A407 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B407 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -14938,7 +14938,7 @@
         <v>159</v>
       </c>
       <c r="B408" s="28" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="C408" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A408 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B408 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -14950,7 +14950,7 @@
         <v>160</v>
       </c>
       <c r="B409" s="28" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C409" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A409 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B409 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -14967,7 +14967,7 @@
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A412" s="23" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B412" s="23" t="str">
         <f>SUBSTITUTE(LOWER(A412), " ", "_")</f>
@@ -14983,7 +14983,7 @@
         <v>190</v>
       </c>
       <c r="B413" s="27" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C413" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A413 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B413 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -14995,7 +14995,7 @@
         <v>159</v>
       </c>
       <c r="B414" s="28" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="C414" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A414 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B414 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -15007,7 +15007,7 @@
         <v>160</v>
       </c>
       <c r="B415" s="28" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C415" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A415 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B415 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -15049,7 +15049,7 @@
         <v>159</v>
       </c>
       <c r="B420" s="28" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="C420" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A420 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B420 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -15103,7 +15103,7 @@
         <v>159</v>
       </c>
       <c r="B426" s="28" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="C426" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A426 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B426 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -15136,7 +15136,7 @@
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A430" s="67" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="B430" s="23" t="str">
         <f>SUBSTITUTE(LOWER(A430), " ", "_")</f>
@@ -15152,7 +15152,7 @@
         <v>158</v>
       </c>
       <c r="B431" s="27" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="C431" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A431 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B431 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -15164,7 +15164,7 @@
         <v>159</v>
       </c>
       <c r="B432" s="28" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="C432" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A432 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B432 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -15176,7 +15176,7 @@
         <v>160</v>
       </c>
       <c r="B433" s="41" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="C433" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A433 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B433 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -15195,7 +15195,7 @@
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A436" s="67" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B436" s="23" t="str">
         <f>SUBSTITUTE(LOWER(A436), " ", "_")</f>
@@ -15211,7 +15211,7 @@
         <v>158</v>
       </c>
       <c r="B437" s="27" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="C437" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A437 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B437 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -15223,7 +15223,7 @@
         <v>159</v>
       </c>
       <c r="B438" s="28" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="C438" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A438 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B438 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -15235,7 +15235,7 @@
         <v>160</v>
       </c>
       <c r="B439" s="41" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="C439" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A439 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B439 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -15254,7 +15254,7 @@
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A442" s="67" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="B442" s="23" t="str">
         <f>SUBSTITUTE(LOWER(A442), " ", "_")</f>
@@ -15270,7 +15270,7 @@
         <v>158</v>
       </c>
       <c r="B443" s="27" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="C443" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A443 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B443 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -15282,7 +15282,7 @@
         <v>159</v>
       </c>
       <c r="B444" s="28" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="C444" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A444 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B444 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -15294,7 +15294,7 @@
         <v>160</v>
       </c>
       <c r="B445" s="41" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="C445" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A445 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B445 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -15316,7 +15316,7 @@
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A449" s="67" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="B449" s="23" t="str">
         <f>SUBSTITUTE(LOWER(A449), " ", "_")</f>
@@ -15332,7 +15332,7 @@
         <v>158</v>
       </c>
       <c r="B450" s="27" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="C450" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A450 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B450 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -15344,7 +15344,7 @@
         <v>159</v>
       </c>
       <c r="B451" s="28" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="C451" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A451 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B451 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -15356,7 +15356,7 @@
         <v>160</v>
       </c>
       <c r="B452" s="41" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="C452" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A452 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B452 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -15375,7 +15375,7 @@
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A455" s="67" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B455" s="23" t="str">
         <f>SUBSTITUTE(LOWER(A455), " ", "_")</f>
@@ -15391,7 +15391,7 @@
         <v>158</v>
       </c>
       <c r="B456" s="27" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="C456" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A456 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B456 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -15403,7 +15403,7 @@
         <v>159</v>
       </c>
       <c r="B457" s="28" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="C457" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A457 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B457 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -15415,7 +15415,7 @@
         <v>160</v>
       </c>
       <c r="B458" s="41" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="C458" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A458 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B458 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -15551,7 +15551,7 @@
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A475" s="23" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B475" s="23" t="str">
         <f>SUBSTITUTE(LOWER(A475), " ", "_")</f>
@@ -15567,7 +15567,7 @@
         <v>158</v>
       </c>
       <c r="B476" s="27" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="C476" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A476 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B476 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -15579,7 +15579,7 @@
         <v>159</v>
       </c>
       <c r="B477" s="28" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="C477" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A477 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B477 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -15687,11 +15687,11 @@
         <v>160</v>
       </c>
       <c r="B489" s="28" t="s">
-        <v>589</v>
+        <v>1063</v>
       </c>
       <c r="C489" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A489 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B489 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;tr&gt;&lt;td class='table-first-column'&gt;Example:&lt;/td&gt;&lt;td&gt;&lt;span class='formula'&gt;IF(Status == "Open", ADD_DAYS(CreatedDate, 3)), ClosedDate)&lt;/span&gt;&lt;div class='v-space'&gt;&lt;/div&gt;This formula checks to see if the Status is open and if so, return CreatedDate plus 3 days, otherwise return the ClosedDate, as the Expected Close Date.&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td class='table-first-column'&gt;Example:&lt;/td&gt;&lt;td&gt;&lt;span class='formula'&gt;IF(Status == "Open", ADD_DAYS(Now(), 3)), ClosedDate)&lt;/span&gt;&lt;div class='v-space'&gt;&lt;/div&gt;This formula checks to see if the Status is open and if so, return Now() plus 3 days, otherwise return the ClosedDate, as the Expected Close Date.&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="490" spans="1:3" ht="56" x14ac:dyDescent="0.2">
@@ -15699,7 +15699,7 @@
         <v>181</v>
       </c>
       <c r="B490" s="32" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C490" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A490 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B490 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -15814,7 +15814,7 @@
         <v>192</v>
       </c>
       <c r="B502" s="32" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="C502" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A502 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B502 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -15831,7 +15831,7 @@
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A505" s="23" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="B505" s="23" t="str">
         <f>SUBSTITUTE(LOWER(A505), " ", "_")</f>
@@ -15847,7 +15847,7 @@
         <v>158</v>
       </c>
       <c r="B506" s="42" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="C506" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A506 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B506 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -15859,7 +15859,7 @@
         <v>159</v>
       </c>
       <c r="B507" s="28" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="C507" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A507 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B507 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -15871,7 +15871,7 @@
         <v>160</v>
       </c>
       <c r="B508" s="28" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="C508" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A508 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B508 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -15888,7 +15888,7 @@
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A511" s="23" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B511" s="23" t="str">
         <f>SUBSTITUTE(LOWER(A511), " ", "_")</f>
@@ -15916,7 +15916,7 @@
         <v>159</v>
       </c>
       <c r="B513" s="28" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="C513" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A513 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B513 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -15928,7 +15928,7 @@
         <v>160</v>
       </c>
       <c r="B514" s="28" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C514" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A514 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B514 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -15988,7 +15988,7 @@
         <v>159</v>
       </c>
       <c r="B523" s="28" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="C523" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A523 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B523 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -16108,7 +16108,7 @@
         <v>158</v>
       </c>
       <c r="B536" s="42" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="C536" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A536 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B536 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -16120,7 +16120,7 @@
         <v>159</v>
       </c>
       <c r="B537" s="28" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="C537" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A537 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B537 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -16132,7 +16132,7 @@
         <v>160</v>
       </c>
       <c r="B538" s="28" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="C538" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A538 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B538 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -16144,7 +16144,7 @@
         <v>181</v>
       </c>
       <c r="B539" s="32" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="C539" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A539 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B539 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -16158,7 +16158,7 @@
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A543" s="23" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B543" s="23" t="str">
         <f>SUBSTITUTE(LOWER(A543), " ", "_")</f>
@@ -16174,7 +16174,7 @@
         <v>158</v>
       </c>
       <c r="B544" s="42" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="C544" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A544 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B544 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -16186,7 +16186,7 @@
         <v>159</v>
       </c>
       <c r="B545" s="28" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="C545" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A545 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B545 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -16198,7 +16198,7 @@
         <v>160</v>
       </c>
       <c r="B546" s="28" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="C546" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A546 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B546 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -16212,7 +16212,7 @@
     </row>
     <row r="549" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A549" s="23" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B549" s="23" t="str">
         <f>SUBSTITUTE(LOWER(A549), " ", "_")</f>
@@ -16240,7 +16240,7 @@
         <v>159</v>
       </c>
       <c r="B551" s="28" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C551" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A551 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B551 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -16252,7 +16252,7 @@
         <v>160</v>
       </c>
       <c r="B552" s="28" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C552" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A552 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B552 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -16269,7 +16269,7 @@
     </row>
     <row r="555" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A555" s="23" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B555" s="23" t="str">
         <f>SUBSTITUTE(LOWER(A555), " ", "_")</f>
@@ -16285,7 +16285,7 @@
         <v>158</v>
       </c>
       <c r="B556" s="27" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C556" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A556 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B556 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -16297,7 +16297,7 @@
         <v>159</v>
       </c>
       <c r="B557" s="28" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C557" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A557 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B557 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -16311,7 +16311,7 @@
     </row>
     <row r="560" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A560" s="23" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="B560" s="23" t="str">
         <f>SUBSTITUTE(LOWER(A560), " ", "_")</f>
@@ -16327,7 +16327,7 @@
         <v>158</v>
       </c>
       <c r="B561" s="27" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="C561" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A561 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B561 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -16339,7 +16339,7 @@
         <v>159</v>
       </c>
       <c r="B562" s="28" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="C562" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A562 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B562 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -16351,7 +16351,7 @@
         <v>160</v>
       </c>
       <c r="B563" s="28" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="C563" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A563 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B563 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -16368,7 +16368,7 @@
     </row>
     <row r="566" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A566" s="23" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B566" s="23" t="str">
         <f>SUBSTITUTE(LOWER(A566), " ", "_")</f>
@@ -16384,7 +16384,7 @@
         <v>158</v>
       </c>
       <c r="B567" s="27" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C567" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A567 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B567 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -16396,7 +16396,7 @@
         <v>159</v>
       </c>
       <c r="B568" s="28" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C568" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A568 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B568 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -16413,7 +16413,7 @@
     </row>
     <row r="571" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A571" s="23" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B571" s="23" t="str">
         <f>SUBSTITUTE(LOWER(A571), " ", "_")</f>
@@ -16429,7 +16429,7 @@
         <v>158</v>
       </c>
       <c r="B572" s="27" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C572" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A572 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B572 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -16441,7 +16441,7 @@
         <v>159</v>
       </c>
       <c r="B573" s="28" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="C573" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A573 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B573 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -16458,7 +16458,7 @@
     </row>
     <row r="576" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A576" s="23" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B576" s="23" t="str">
         <f>SUBSTITUTE(LOWER(A576), " ", "_")</f>
@@ -16474,7 +16474,7 @@
         <v>158</v>
       </c>
       <c r="B577" s="27" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C577" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A577 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B577 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -16486,7 +16486,7 @@
         <v>159</v>
       </c>
       <c r="B578" s="28" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="C578" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A578 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B578 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -16503,7 +16503,7 @@
     </row>
     <row r="581" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A581" s="23" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B581" s="23" t="str">
         <f>SUBSTITUTE(LOWER(A581), " ", "_")</f>
@@ -16519,7 +16519,7 @@
         <v>158</v>
       </c>
       <c r="B582" s="27" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C582" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A582 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B582 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -16531,7 +16531,7 @@
         <v>159</v>
       </c>
       <c r="B583" s="28" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="C583" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A583 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B583 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -16548,7 +16548,7 @@
     </row>
     <row r="586" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A586" s="23" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B586" s="23" t="str">
         <f>SUBSTITUTE(LOWER(A586), " ", "_")</f>
@@ -16564,7 +16564,7 @@
         <v>158</v>
       </c>
       <c r="B587" s="27" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C587" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A587 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B587 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -16576,7 +16576,7 @@
         <v>159</v>
       </c>
       <c r="B588" s="28" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="C588" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A588 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B588 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -16596,7 +16596,7 @@
     </row>
     <row r="592" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A592" s="23" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B592" s="23" t="str">
         <f>SUBSTITUTE(LOWER(A592), " ", "_")</f>
@@ -16612,7 +16612,7 @@
         <v>158</v>
       </c>
       <c r="B593" s="27" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C593" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A593 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B593 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -16624,7 +16624,7 @@
         <v>159</v>
       </c>
       <c r="B594" s="28" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C594" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A594 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B594 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -16707,7 +16707,7 @@
     </row>
     <row r="606" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A606" s="23" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B606" s="23" t="str">
         <f>SUBSTITUTE(LOWER(A606), " ", "_")</f>
@@ -16735,7 +16735,7 @@
         <v>159</v>
       </c>
       <c r="B608" s="28" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C608" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A608 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B608 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -16755,7 +16755,7 @@
     </row>
     <row r="612" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A612" s="23" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B612" s="23" t="str">
         <f>SUBSTITUTE(LOWER(A612), " ", "_")</f>
@@ -16771,7 +16771,7 @@
         <v>158</v>
       </c>
       <c r="B613" s="27" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C613" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A613 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B613 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -16783,7 +16783,7 @@
         <v>159</v>
       </c>
       <c r="B614" s="28" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C614" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A614 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B614 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -16795,7 +16795,7 @@
         <v>160</v>
       </c>
       <c r="B615" s="28" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C615" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A615 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B615 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -16807,7 +16807,7 @@
         <v>181</v>
       </c>
       <c r="B616" s="32" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C616" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A616 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B616 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -16827,7 +16827,7 @@
     </row>
     <row r="620" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A620" s="23" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B620" s="23" t="str">
         <f>SUBSTITUTE(LOWER(A620), " ", "_")</f>
@@ -16855,7 +16855,7 @@
         <v>159</v>
       </c>
       <c r="B622" s="28" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C622" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A622 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B622 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -16867,7 +16867,7 @@
         <v>160</v>
       </c>
       <c r="B623" s="28" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C623" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A623 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B623 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -16896,7 +16896,7 @@
     </row>
     <row r="627" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A627" s="23" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B627" s="23" t="str">
         <f>SUBSTITUTE(LOWER(A627), " ", "_")</f>
@@ -16912,7 +16912,7 @@
         <v>158</v>
       </c>
       <c r="B628" s="27" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C628" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A628 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B628 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -16924,7 +16924,7 @@
         <v>159</v>
       </c>
       <c r="B629" s="28" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C629" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A629 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B629 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -16936,7 +16936,7 @@
         <v>160</v>
       </c>
       <c r="B630" s="28" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C630" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A630 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B630 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -16956,7 +16956,7 @@
     </row>
     <row r="635" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A635" s="23" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B635" s="23" t="str">
         <f>SUBSTITUTE(LOWER(A635), " ", "_")</f>
@@ -16972,7 +16972,7 @@
         <v>158</v>
       </c>
       <c r="B636" s="27" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C636" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A636 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B636 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -16984,7 +16984,7 @@
         <v>159</v>
       </c>
       <c r="B637" s="28" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C637" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A637 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B637 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -16996,7 +16996,7 @@
         <v>160</v>
       </c>
       <c r="B638" s="27" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C638" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A638 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B638 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -17010,7 +17010,7 @@
     </row>
     <row r="641" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A641" s="23" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B641" s="23" t="str">
         <f>SUBSTITUTE(LOWER(A641), " ", "_")</f>
@@ -17026,7 +17026,7 @@
         <v>158</v>
       </c>
       <c r="B642" s="27" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C642" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A642 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B642 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -17038,7 +17038,7 @@
         <v>159</v>
       </c>
       <c r="B643" s="28" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C643" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A643 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B643 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -17050,7 +17050,7 @@
         <v>160</v>
       </c>
       <c r="B644" s="27" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C644" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A644 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B644 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -17062,7 +17062,7 @@
         <v>181</v>
       </c>
       <c r="B645" s="27" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C645" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A645 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B645 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -17076,7 +17076,7 @@
     </row>
     <row r="649" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A649" s="23" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B649" s="23" t="str">
         <f>SUBSTITUTE(LOWER(A649), " ", "_")</f>
@@ -17104,7 +17104,7 @@
         <v>159</v>
       </c>
       <c r="B651" s="28" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="C651" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A651 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B651 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -17116,7 +17116,7 @@
         <v>160</v>
       </c>
       <c r="B652" s="41" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C652" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A652 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B652 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -17130,7 +17130,7 @@
     </row>
     <row r="655" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A655" s="23" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B655" s="23" t="str">
         <f>SUBSTITUTE(LOWER(A655), " ", "_")</f>
@@ -17146,7 +17146,7 @@
         <v>158</v>
       </c>
       <c r="B656" s="27" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C656" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A656 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B656 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -17158,7 +17158,7 @@
         <v>159</v>
       </c>
       <c r="B657" s="28" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C657" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A657 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B657 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -17170,7 +17170,7 @@
         <v>160</v>
       </c>
       <c r="B658" s="28" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C658" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A658 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B658 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -17199,7 +17199,7 @@
     </row>
     <row r="662" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A662" s="23" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="B662" s="23" t="str">
         <f>SUBSTITUTE(LOWER(A662), " ", "_")</f>
@@ -17215,7 +17215,7 @@
         <v>158</v>
       </c>
       <c r="B663" s="27" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C663" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A663 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B663 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -17227,7 +17227,7 @@
         <v>159</v>
       </c>
       <c r="B664" s="28" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="C664" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A664 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B664 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -17244,7 +17244,7 @@
     </row>
     <row r="667" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A667" s="23" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B667" s="23" t="str">
         <f>SUBSTITUTE(LOWER(A667), " ", "_")</f>
@@ -17272,7 +17272,7 @@
         <v>159</v>
       </c>
       <c r="B669" s="28" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="C669" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A669 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B669 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -17289,7 +17289,7 @@
     </row>
     <row r="672" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A672" s="23" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B672" s="23" t="str">
         <f>SUBSTITUTE(LOWER(A672), " ", "_")</f>
@@ -17305,7 +17305,7 @@
         <v>158</v>
       </c>
       <c r="B673" s="27" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="C673" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A673 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B673 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -17317,7 +17317,7 @@
         <v>159</v>
       </c>
       <c r="B674" s="28" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="C674" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A674 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B674 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -17329,7 +17329,7 @@
         <v>160</v>
       </c>
       <c r="B675" s="28" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C675" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A675 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B675 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -17346,7 +17346,7 @@
     </row>
     <row r="679" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A679" s="23" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="B679" s="23" t="str">
         <f>SUBSTITUTE(LOWER(A679), " ", "_")</f>
@@ -17362,7 +17362,7 @@
         <v>158</v>
       </c>
       <c r="B680" s="27" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="C680" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A680 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B680 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -17374,7 +17374,7 @@
         <v>159</v>
       </c>
       <c r="B681" s="28" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="C681" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A681 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B681 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -17386,7 +17386,7 @@
         <v>160</v>
       </c>
       <c r="B682" s="28" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="C682" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A682 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B682 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -17403,7 +17403,7 @@
     </row>
     <row r="686" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A686" s="23" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="B686" s="23" t="str">
         <f>SUBSTITUTE(LOWER(A686), " ", "_")</f>
@@ -17419,7 +17419,7 @@
         <v>158</v>
       </c>
       <c r="B687" s="27" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="C687" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A687 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B687 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -17431,7 +17431,7 @@
         <v>159</v>
       </c>
       <c r="B688" s="28" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="C688" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A688 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B688 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -17443,7 +17443,7 @@
         <v>160</v>
       </c>
       <c r="B689" s="28" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="C689" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A689 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B689 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -17460,7 +17460,7 @@
     </row>
     <row r="693" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A693" s="23" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B693" s="23" t="str">
         <f>SUBSTITUTE(LOWER(A693), " ", "_")</f>
@@ -17476,7 +17476,7 @@
         <v>158</v>
       </c>
       <c r="B694" s="27" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="C694" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A694 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B694 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -17488,7 +17488,7 @@
         <v>159</v>
       </c>
       <c r="B695" s="28" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="C695" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A695 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B695 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -17500,7 +17500,7 @@
         <v>160</v>
       </c>
       <c r="B696" s="28" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="C696" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A696 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B696 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -17514,7 +17514,7 @@
     </row>
     <row r="699" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A699" s="23" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="B699" s="23" t="str">
         <f>SUBSTITUTE(LOWER(A699), " ", "_")</f>
@@ -17530,7 +17530,7 @@
         <v>158</v>
       </c>
       <c r="B700" s="27" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="C700" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A700 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B700 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -17542,7 +17542,7 @@
         <v>159</v>
       </c>
       <c r="B701" s="28" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="C701" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A701 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B701 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -17554,7 +17554,7 @@
         <v>160</v>
       </c>
       <c r="B702" s="28" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="C702" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A702 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B702 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -17568,7 +17568,7 @@
     </row>
     <row r="705" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A705" s="23" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B705" s="23" t="str">
         <f>SUBSTITUTE(LOWER(A705), " ", "_")</f>
@@ -17584,7 +17584,7 @@
         <v>158</v>
       </c>
       <c r="B706" s="27" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="C706" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A706 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B706 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -17596,7 +17596,7 @@
         <v>159</v>
       </c>
       <c r="B707" s="28" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="C707" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A707 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B707 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -17638,7 +17638,7 @@
         <v>159</v>
       </c>
       <c r="B712" s="28" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="C712" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A712 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B712 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -17667,7 +17667,7 @@
     </row>
     <row r="717" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A717" s="23" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="B717" s="23" t="str">
         <f>SUBSTITUTE(LOWER(A717), " ", "_")</f>
@@ -17683,7 +17683,7 @@
         <v>158</v>
       </c>
       <c r="B718" s="27" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="C718" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A718 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B718 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -17695,7 +17695,7 @@
         <v>159</v>
       </c>
       <c r="B719" s="28" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="C719" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A719 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B719 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -17707,7 +17707,7 @@
         <v>160</v>
       </c>
       <c r="B720" s="28" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="C720" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A720 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B720 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -17749,7 +17749,7 @@
         <v>159</v>
       </c>
       <c r="B725" s="28" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="C725" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A725 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B725 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -17761,7 +17761,7 @@
         <v>160</v>
       </c>
       <c r="B726" s="28" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="C726" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A726 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B726 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -17778,7 +17778,7 @@
     </row>
     <row r="729" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A729" s="23" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="B729" s="23" t="str">
         <f>SUBSTITUTE(LOWER(A729), " ", "_")</f>
@@ -17794,7 +17794,7 @@
         <v>158</v>
       </c>
       <c r="B730" s="27" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="C730" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A730 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B730 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -17806,7 +17806,7 @@
         <v>159</v>
       </c>
       <c r="B731" s="28" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="C731" t="str">
         <f>"&lt;tr&gt;&lt;td class='table-first-column'&gt;" &amp;A731 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B731 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -17859,8 +17859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB978A78-3EA5-6649-B537-E61B0F40FF3C}">
   <dimension ref="A2:D196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView topLeftCell="A16" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17945,7 +17945,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="B12" t="str">
         <f t="shared" ref="B12:B23" si="2">SUBSTITUTE(LOWER(A12), " ", "_")</f>
@@ -18016,7 +18016,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B18" t="str">
         <f t="shared" ref="B18" si="3">SUBSTITUTE(LOWER(A18), " ", "_")</f>
@@ -18048,7 +18048,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="B21" t="str">
         <f t="shared" ref="B21" si="5">SUBSTITUTE(LOWER(A21), " ", "_")</f>
@@ -18061,7 +18061,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="B22" t="str">
         <f t="shared" ref="B22" si="7">SUBSTITUTE(LOWER(A22), " ", "_")</f>
@@ -18147,10 +18147,10 @@
     </row>
     <row r="34" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B34" s="14" t="s">
         <v>1044</v>
-      </c>
-      <c r="B34" s="14" t="s">
-        <v>1045</v>
       </c>
       <c r="D34" t="str">
         <f>"&lt;tr&gt;&lt;td&gt;" &amp;A34 &amp; "&lt;/td&gt;&lt;td&gt;" &amp; B34 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -18450,7 +18450,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="D72" t="str">
         <f>"&lt;div class='v-space'&gt;&lt;/div&gt;&lt;div id='" &amp; SUBSTITUTE(LOWER(A72), " ", "_") &amp;"'&gt;&lt;h2&gt;" &amp; A72 &amp; "&lt;/h2&gt;"</f>
@@ -18471,13 +18471,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="18" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B74" s="27" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C74" t="s">
         <v>1046</v>
-      </c>
-      <c r="B74" s="27" t="s">
-        <v>1049</v>
-      </c>
-      <c r="C74" t="s">
-        <v>1047</v>
       </c>
       <c r="D74" t="str">
         <f>"&lt;tr&gt;&lt;td&gt;&lt;a href='transformation_calculate_field_values.html#" &amp; LOWER(C74) &amp; "'&gt;" &amp;A74 &amp; "&lt;/A&gt;&lt;/td&gt;&lt;td&gt;" &amp; B74 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -18486,13 +18486,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="18" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B75" s="27" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C75" t="s">
         <v>1051</v>
-      </c>
-      <c r="B75" s="27" t="s">
-        <v>1053</v>
-      </c>
-      <c r="C75" t="s">
-        <v>1052</v>
       </c>
       <c r="D75" t="str">
         <f t="shared" ref="D75:D77" si="12">"&lt;tr&gt;&lt;td&gt;&lt;a href='transformation_calculate_field_values.html#" &amp; LOWER(C75) &amp; "'&gt;" &amp;A75 &amp; "&lt;/A&gt;&lt;/td&gt;&lt;td&gt;" &amp; B75 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -18501,13 +18501,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="18" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B76" s="27" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C76" t="s">
         <v>1055</v>
-      </c>
-      <c r="B76" s="27" t="s">
-        <v>1057</v>
-      </c>
-      <c r="C76" t="s">
-        <v>1056</v>
       </c>
       <c r="D76" t="str">
         <f t="shared" si="12"/>
@@ -18516,13 +18516,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="18" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B77" s="27" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C77" t="s">
         <v>1059</v>
-      </c>
-      <c r="B77" s="27" t="s">
-        <v>1061</v>
-      </c>
-      <c r="C77" t="s">
-        <v>1060</v>
       </c>
       <c r="D77" t="str">
         <f t="shared" si="12"/>
@@ -18594,10 +18594,10 @@
     </row>
     <row r="86" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="D86" t="str">
         <f t="shared" si="13"/>
@@ -18618,10 +18618,10 @@
     </row>
     <row r="88" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D88" t="str">
         <f t="shared" ref="D88" si="14">"&lt;tr&gt;&lt;td&gt;&lt;a href='transformation_calculate_field_values.html#" &amp; LOWER(A88) &amp; "'&gt;" &amp;A88 &amp; "&lt;/A&gt;&lt;/td&gt;&lt;td&gt;" &amp; B88 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -18633,7 +18633,7 @@
         <v>106</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D89" t="str">
         <f t="shared" si="13"/>
@@ -18654,10 +18654,10 @@
     </row>
     <row r="91" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="D91" t="str">
         <f t="shared" si="13"/>
@@ -18717,7 +18717,7 @@
     </row>
     <row r="98" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B98" s="10" t="s">
         <v>114</v>
@@ -18729,15 +18729,15 @@
     </row>
     <row r="99" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B100" s="10" t="s">
         <v>115</v>
@@ -18773,10 +18773,10 @@
     </row>
     <row r="103" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="D103" t="str">
         <f t="shared" ref="D103" si="16">"&lt;tr&gt;&lt;td&gt;&lt;a href='transformation_calculate_field_values.html#" &amp; LOWER(A103) &amp; "'&gt;" &amp;A103 &amp; "&lt;/A&gt;&lt;/td&gt;&lt;td&gt;" &amp; B103 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -18887,10 +18887,10 @@
     </row>
     <row r="118" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="10" t="s">
+        <v>918</v>
+      </c>
+      <c r="B118" s="10" t="s">
         <v>919</v>
-      </c>
-      <c r="B118" s="10" t="s">
-        <v>920</v>
       </c>
       <c r="D118" t="str">
         <f t="shared" ref="D118:D119" si="18">"&lt;tr&gt;&lt;td&gt;&lt;a href='transformation_calculate_field_values.html#" &amp; LOWER(A118) &amp; "'&gt;" &amp;A118 &amp; "&lt;/A&gt;&lt;/td&gt;&lt;td&gt;" &amp; B118 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -18899,10 +18899,10 @@
     </row>
     <row r="119" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="10" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B119" s="10" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="D119" t="str">
         <f t="shared" si="18"/>
@@ -18911,10 +18911,10 @@
     </row>
     <row r="120" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="10" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B120" s="10" t="s">
         <v>1013</v>
-      </c>
-      <c r="B120" s="10" t="s">
-        <v>1014</v>
       </c>
       <c r="D120" t="str">
         <f t="shared" ref="D120:D121" si="19">"&lt;tr&gt;&lt;td&gt;&lt;a href='transformation_calculate_field_values.html#" &amp; LOWER(A120) &amp; "'&gt;" &amp;A120 &amp; "&lt;/A&gt;&lt;/td&gt;&lt;td&gt;" &amp; B120 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -18923,10 +18923,10 @@
     </row>
     <row r="121" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="10" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B121" s="10" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="D121" t="str">
         <f t="shared" si="19"/>
@@ -18935,10 +18935,10 @@
     </row>
     <row r="122" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="10" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B122" s="10" t="s">
         <v>1013</v>
-      </c>
-      <c r="B122" s="10" t="s">
-        <v>1014</v>
       </c>
       <c r="D122" t="str">
         <f t="shared" ref="D122" si="20">"&lt;tr&gt;&lt;td&gt;&lt;a href='transformation_calculate_field_values.html#" &amp; LOWER(A122) &amp; "'&gt;" &amp;A122 &amp; "&lt;/A&gt;&lt;/td&gt;&lt;td&gt;" &amp; B122 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -18950,7 +18950,7 @@
         <v>564</v>
       </c>
       <c r="B123" s="10" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="D123" t="str">
         <f t="shared" si="17"/>
@@ -18962,7 +18962,7 @@
         <v>566</v>
       </c>
       <c r="B124" s="10" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="D124" t="str">
         <f t="shared" si="17"/>
@@ -18971,10 +18971,10 @@
     </row>
     <row r="125" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A125" s="10" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="D125" t="str">
         <f t="shared" si="17"/>
@@ -18983,10 +18983,10 @@
     </row>
     <row r="126" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A126" s="10" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B126" s="10" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D126" t="str">
         <f t="shared" si="17"/>
@@ -19019,7 +19019,7 @@
     </row>
     <row r="129" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="10" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B129" s="10" t="s">
         <v>127</v>
@@ -19043,7 +19043,7 @@
     </row>
     <row r="131" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="10" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B131" s="10" t="s">
         <v>118</v>
@@ -19055,10 +19055,10 @@
     </row>
     <row r="132" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" s="10" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="B132" s="10" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="D132" t="str">
         <f t="shared" ref="D132" si="21">"&lt;tr&gt;&lt;td&gt;&lt;a href='transformation_calculate_field_values.html#" &amp; LOWER(A132) &amp; "'&gt;" &amp;A132 &amp; "&lt;/A&gt;&lt;/td&gt;&lt;td&gt;" &amp; B132 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -19067,10 +19067,10 @@
     </row>
     <row r="133" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A133" s="10" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B133" s="10" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="D133" t="str">
         <f t="shared" si="17"/>
@@ -19079,10 +19079,10 @@
     </row>
     <row r="134" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A134" s="10" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D134" t="str">
         <f t="shared" si="17"/>
@@ -19091,10 +19091,10 @@
     </row>
     <row r="135" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A135" s="10" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B135" s="10" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D135" t="str">
         <f t="shared" si="17"/>
@@ -19103,10 +19103,10 @@
     </row>
     <row r="136" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A136" s="10" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B136" s="10" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D136" t="str">
         <f t="shared" si="17"/>
@@ -19115,10 +19115,10 @@
     </row>
     <row r="137" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A137" s="10" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B137" s="10" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D137" t="str">
         <f t="shared" si="17"/>
@@ -19127,10 +19127,10 @@
     </row>
     <row r="138" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A138" s="10" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B138" s="10" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="D138" t="str">
         <f t="shared" si="17"/>
@@ -19139,7 +19139,7 @@
     </row>
     <row r="139" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A139" s="10" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B139" s="10" t="s">
         <v>131</v>
@@ -19151,7 +19151,7 @@
     </row>
     <row r="140" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A140" s="10" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B140" s="10" t="s">
         <v>131</v>
@@ -19181,7 +19181,7 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="D144" t="str">
         <f>"&lt;div class='v-space'&gt;&lt;/div&gt;&lt;div id='" &amp; SUBSTITUTE(LOWER(A144), " ", "_") &amp;"'&gt;&lt;h2&gt;" &amp; A144 &amp; "&lt;/h2&gt;"</f>
@@ -19202,10 +19202,10 @@
     </row>
     <row r="146" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A146" s="10" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B146" s="10" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="D146" t="str">
         <f>"&lt;tr&gt;&lt;td&gt;&lt;a href='transformation_calculate_field_values.html#" &amp; LOWER(A146) &amp; "'&gt;" &amp;A146 &amp; "&lt;/A&gt;&lt;/td&gt;&lt;td&gt;" &amp; B146 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -19214,10 +19214,10 @@
     </row>
     <row r="147" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A147" s="10" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B147" s="10" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D147" t="str">
         <f>"&lt;tr&gt;&lt;td&gt;&lt;a href='transformation_calculate_field_values.html#" &amp; LOWER(A147) &amp; "'&gt;" &amp;A147 &amp; "&lt;/A&gt;&lt;/td&gt;&lt;td&gt;" &amp; B147 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -19226,10 +19226,10 @@
     </row>
     <row r="148" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B148" s="10" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D148" t="str">
         <f>"&lt;tr&gt;&lt;td&gt;&lt;a href='transformation_calculate_field_values.html#" &amp; LOWER(A148) &amp; "'&gt;" &amp;A148 &amp; "&lt;/A&gt;&lt;/td&gt;&lt;td&gt;" &amp; B148 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -19238,10 +19238,10 @@
     </row>
     <row r="149" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B149" s="10" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="D149" t="str">
         <f>"&lt;tr&gt;&lt;td&gt;&lt;a href='transformation_calculate_field_values.html#" &amp; LOWER(A149) &amp; "'&gt;" &amp;A149 &amp; "&lt;/A&gt;&lt;/td&gt;&lt;td&gt;" &amp; B149 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -19250,10 +19250,10 @@
     </row>
     <row r="150" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A150" s="10" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B150" s="10" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D150" t="str">
         <f>"&lt;tr&gt;&lt;td&gt;&lt;a href='transformation_calculate_field_values.html#" &amp; LOWER(A150) &amp; "'&gt;" &amp;A150 &amp; "&lt;/A&gt;&lt;/td&gt;&lt;td&gt;" &amp; B150 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -19262,10 +19262,10 @@
     </row>
     <row r="151" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A151" s="10" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B151" s="10" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D151" t="str">
         <f>"&lt;tr&gt;&lt;td&gt;&lt;a href='transformation_calculate_field_values.html#" &amp; LOWER(A151) &amp; "'&gt;" &amp;A151 &amp; "&lt;/A&gt;&lt;/td&gt;&lt;td&gt;" &amp; B151 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -19274,7 +19274,7 @@
     </row>
     <row r="152" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A152" s="10" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B152" s="10" t="s">
         <v>128</v>
@@ -19391,7 +19391,7 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="D165" t="str">
         <f>"&lt;div class='v-space'&gt;&lt;/div&gt;&lt;div id='" &amp; SUBSTITUTE(LOWER(A165), " ", "_") &amp;"'&gt;&lt;h2&gt;" &amp; A165 &amp; "&lt;/h2&gt;"</f>
@@ -19436,10 +19436,10 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="B169" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="D169" t="str">
         <f>"&lt;tr&gt;&lt;td&gt;&lt;a href='transformation_calculate_field_values.html#" &amp; LOWER(A169) &amp; "'&gt;" &amp;A169 &amp; "&lt;/A&gt;&lt;/td&gt;&lt;td&gt;" &amp; B169 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -19460,7 +19460,7 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="D174" t="str">
         <f>"&lt;div class='v-space'&gt;&lt;/div&gt;&lt;div id='" &amp; SUBSTITUTE(LOWER(A174), " ", "_") &amp;"'&gt;&lt;h2&gt;" &amp; A174 &amp; "&lt;/h2&gt;"</f>
@@ -19481,10 +19481,10 @@
     </row>
     <row r="176" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B176" s="10" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="D176" t="str">
         <f t="shared" ref="D176:D181" si="23">"&lt;tr&gt;&lt;td&gt;&lt;a href='transformation_calculate_field_values.html#" &amp; LOWER(A176) &amp; "'&gt;" &amp;A176 &amp; "&lt;/A&gt;&lt;/td&gt;&lt;td&gt;" &amp; B176 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -19493,10 +19493,10 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
+        <v>994</v>
+      </c>
+      <c r="B177" t="s">
         <v>995</v>
-      </c>
-      <c r="B177" t="s">
-        <v>996</v>
       </c>
       <c r="D177" t="str">
         <f t="shared" si="23"/>
@@ -19505,10 +19505,10 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="B178" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="D178" t="str">
         <f t="shared" si="23"/>
@@ -19517,10 +19517,10 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B179" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="D179" t="str">
         <f t="shared" si="23"/>
@@ -19529,10 +19529,10 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="B180" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="D180" t="str">
         <f t="shared" si="23"/>
@@ -19541,10 +19541,10 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B181" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="D181" t="str">
         <f t="shared" si="23"/>
@@ -19580,7 +19580,7 @@
     </row>
     <row r="187" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B187" s="10" t="s">
         <v>111</v>
@@ -19592,10 +19592,10 @@
     </row>
     <row r="188" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
+        <v>930</v>
+      </c>
+      <c r="B188" s="10" t="s">
         <v>931</v>
-      </c>
-      <c r="B188" s="10" t="s">
-        <v>932</v>
       </c>
       <c r="D188" t="str">
         <f>"&lt;tr&gt;&lt;td&gt;&lt;a href='transformation_calculate_field_values.html#" &amp; LOWER(A188) &amp; "'&gt;" &amp;A188 &amp; "&lt;/A&gt;&lt;/td&gt;&lt;td&gt;" &amp; B188 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -19604,10 +19604,10 @@
     </row>
     <row r="189" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
+        <v>943</v>
+      </c>
+      <c r="B189" s="10" t="s">
         <v>944</v>
-      </c>
-      <c r="B189" s="10" t="s">
-        <v>945</v>
       </c>
       <c r="D189" t="str">
         <f t="shared" ref="D189" si="24">"&lt;tr&gt;&lt;td&gt;&lt;a href='transformation_calculate_field_values.html#" &amp; LOWER(A189) &amp; "'&gt;" &amp;A189 &amp; "&lt;/A&gt;&lt;/td&gt;&lt;td&gt;" &amp; B189 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -19616,10 +19616,10 @@
     </row>
     <row r="190" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B190" s="10" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="D190" t="str">
         <f t="shared" ref="D190" si="25">"&lt;tr&gt;&lt;td&gt;&lt;a href='transformation_calculate_field_values.html#" &amp; LOWER(A190) &amp; "'&gt;" &amp;A190 &amp; "&lt;/A&gt;&lt;/td&gt;&lt;td&gt;" &amp; B190 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -19628,10 +19628,10 @@
     </row>
     <row r="191" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="B191" s="10" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D191" t="str">
         <f t="shared" ref="D191" si="26">"&lt;tr&gt;&lt;td&gt;&lt;a href='transformation_calculate_field_values.html#" &amp; LOWER(A191) &amp; "'&gt;" &amp;A191 &amp; "&lt;/A&gt;&lt;/td&gt;&lt;td&gt;" &amp; B191 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -19640,10 +19640,10 @@
     </row>
     <row r="192" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="B192" s="10" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="D192" t="str">
         <f t="shared" ref="D192" si="27">"&lt;tr&gt;&lt;td&gt;&lt;a href='transformation_calculate_field_values.html#" &amp; LOWER(A192) &amp; "'&gt;" &amp;A192 &amp; "&lt;/A&gt;&lt;/td&gt;&lt;td&gt;" &amp; B192 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -19652,10 +19652,10 @@
     </row>
     <row r="193" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B193" s="10" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="D193" t="str">
         <f t="shared" ref="D193" si="28">"&lt;tr&gt;&lt;td&gt;&lt;a href='transformation_calculate_field_values.html#" &amp; LOWER(A193) &amp; "'&gt;" &amp;A193 &amp; "&lt;/A&gt;&lt;/td&gt;&lt;td&gt;" &amp; B193 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -20152,16 +20152,16 @@
     </row>
     <row r="7" spans="1:10" ht="33" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="54" t="s">
+        <v>806</v>
+      </c>
+      <c r="B7" s="55" t="s">
         <v>807</v>
-      </c>
-      <c r="B7" s="55" t="s">
-        <v>808</v>
       </c>
       <c r="C7" s="55" t="s">
         <v>37</v>
       </c>
       <c r="D7" s="55" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="E7" s="34"/>
       <c r="F7" t="str">
@@ -20184,7 +20184,7 @@
         <v>21</v>
       </c>
       <c r="D8" s="55" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E8" s="34"/>
       <c r="F8" t="str">
@@ -20221,16 +20221,16 @@
     </row>
     <row r="10" spans="1:10" ht="33" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="54" t="s">
+        <v>809</v>
+      </c>
+      <c r="B10" s="60" t="s">
         <v>810</v>
-      </c>
-      <c r="B10" s="60" t="s">
-        <v>811</v>
       </c>
       <c r="C10" s="55" t="s">
         <v>37</v>
       </c>
       <c r="D10" s="55" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="E10" s="34"/>
       <c r="F10" t="str">
@@ -20244,16 +20244,16 @@
     </row>
     <row r="11" spans="1:10" ht="65" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="54" t="s">
+        <v>698</v>
+      </c>
+      <c r="B11" s="60" t="s">
         <v>699</v>
-      </c>
-      <c r="B11" s="60" t="s">
-        <v>700</v>
       </c>
       <c r="C11" s="55" t="s">
         <v>37</v>
       </c>
       <c r="D11" s="55" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="E11" s="34"/>
       <c r="F11" t="str">
@@ -20276,7 +20276,7 @@
         <v>37</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E12" s="34"/>
       <c r="F12" t="str">
@@ -20284,7 +20284,7 @@
         <v>&lt;tr&gt;&lt;td&gt;End Year&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__EndYear__c&lt;/td&gt;&lt;td&gt;N&lt;/td&gt;&lt;td&gt;Defines which year the schdule Pipeline ends.&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="G12" s="34" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="H12" s="34"/>
       <c r="I12" s="34"/>
@@ -20428,7 +20428,7 @@
         <v>&lt;tr&gt;&lt;td&gt;Run Every N Hours A Day&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__RunEveryNHoursADay__c&lt;/td&gt;&lt;td&gt;N&lt;/td&gt;&lt;td&gt;Defines the gap of hours for the schedule to run from the the Preferred Start Time until midnight of the day.&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="G18" s="34" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="H18" s="34"/>
       <c r="I18" s="34"/>
@@ -20572,7 +20572,7 @@
         <v>&lt;tr&gt;&lt;td&gt;Tuesday&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__Tuesday__c&lt;/td&gt;&lt;td&gt;N&lt;/td&gt;&lt;td&gt;Runs on Tuesday if the Frequency is "Weekly".&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="G24" s="34" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="H24" s="34"/>
       <c r="I24" s="34"/>
@@ -20597,7 +20597,7 @@
         <v>&lt;tr&gt;&lt;td&gt;Wednesday&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__Wednesday__c&lt;/td&gt;&lt;td&gt;N&lt;/td&gt;&lt;td&gt;Runs on Wednesday if the Frequency is "Weekly".&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="G25" s="34" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="H25" s="34"/>
       <c r="I25" s="34"/>
@@ -20729,16 +20729,16 @@
     </row>
     <row r="5" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="54" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B5" s="50" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C5" s="55" t="s">
         <v>37</v>
       </c>
       <c r="D5" s="55" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="E5" s="34"/>
       <c r="F5" t="str">
@@ -20752,16 +20752,16 @@
     </row>
     <row r="6" spans="1:10" ht="33" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="56" t="s">
+        <v>824</v>
+      </c>
+      <c r="B6" s="50" t="s">
         <v>825</v>
-      </c>
-      <c r="B6" s="50" t="s">
-        <v>826</v>
       </c>
       <c r="C6" s="55" t="s">
         <v>37</v>
       </c>
       <c r="D6" s="57" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="E6" s="34"/>
       <c r="F6" t="str">
@@ -20775,7 +20775,7 @@
     </row>
     <row r="7" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="56" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B7" s="50" t="s">
         <v>18</v>
@@ -20807,7 +20807,7 @@
         <v>37</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="E8" s="34"/>
       <c r="F8" t="str">
@@ -20815,7 +20815,7 @@
         <v>&lt;tr&gt;&lt;td&gt;Next Run Time&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__NextRunTime__c&lt;/td&gt;&lt;td&gt;N&lt;/td&gt;&lt;td&gt;Next run time of the scheduled Pipeline.&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="G8" s="34" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="H8" s="34"/>
       <c r="I8" s="34"/>
@@ -20832,7 +20832,7 @@
         <v>21</v>
       </c>
       <c r="D9" s="55" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E9" s="34"/>
       <c r="F9" t="str">
@@ -20869,16 +20869,16 @@
     </row>
     <row r="11" spans="1:10" ht="33" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="60" t="s">
+        <v>830</v>
+      </c>
+      <c r="B11" s="50" t="s">
         <v>831</v>
-      </c>
-      <c r="B11" s="50" t="s">
-        <v>832</v>
       </c>
       <c r="C11" s="55" t="s">
         <v>37</v>
       </c>
       <c r="D11" s="55" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="E11" s="34"/>
       <c r="F11" t="str">
@@ -20903,7 +20903,7 @@
         <v>37</v>
       </c>
       <c r="D12" s="55" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="E12" s="34"/>
       <c r="F12" t="str">
@@ -21121,7 +21121,7 @@
         <v>37</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="E8" s="34"/>
       <c r="F8" t="str">
@@ -21129,7 +21129,7 @@
         <v>&lt;tr&gt;&lt;td&gt;Next Run Time&lt;/td&gt;&lt;td class='slds-truncate'&gt;pushtopics__NextRunTime__c&lt;/td&gt;&lt;td&gt;N&lt;/td&gt;&lt;td&gt;Next run time of the scheduled Pipeline.&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="G8" s="34" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="H8" s="34"/>
       <c r="I8" s="34"/>
@@ -21146,7 +21146,7 @@
         <v>21</v>
       </c>
       <c r="D9" s="55" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E9" s="34"/>
       <c r="F9" t="str">
@@ -21183,16 +21183,16 @@
     </row>
     <row r="11" spans="1:10" ht="33" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="60" t="s">
+        <v>830</v>
+      </c>
+      <c r="B11" s="50" t="s">
         <v>831</v>
-      </c>
-      <c r="B11" s="50" t="s">
-        <v>832</v>
       </c>
       <c r="C11" s="55" t="s">
         <v>37</v>
       </c>
       <c r="D11" s="55" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="E11" s="34"/>
       <c r="F11" t="str">
@@ -21217,7 +21217,7 @@
         <v>37</v>
       </c>
       <c r="D12" s="55" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="E12" s="34"/>
       <c r="F12" t="str">
@@ -21369,7 +21369,7 @@
         <v>37</v>
       </c>
       <c r="D6" s="55" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="E6" s="34"/>
       <c r="F6" t="str">
@@ -21388,7 +21388,7 @@
         <v>21</v>
       </c>
       <c r="D7" s="57" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="E7" s="34"/>
       <c r="F7" t="str">
@@ -21407,7 +21407,7 @@
         <v>37</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="0"/>
@@ -21420,7 +21420,7 @@
     </row>
     <row r="9" spans="1:7" ht="81" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="54" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B9" s="55" t="s">
         <v>244</v>
@@ -21429,7 +21429,7 @@
         <v>21</v>
       </c>
       <c r="D9" s="55" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="E9" s="34"/>
       <c r="F9" t="str">
@@ -21439,7 +21439,7 @@
     </row>
     <row r="10" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="54" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B10" s="55" t="s">
         <v>18</v>
@@ -21448,7 +21448,7 @@
         <v>21</v>
       </c>
       <c r="D10" s="55" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="E10" s="34"/>
       <c r="F10" t="str">
@@ -21511,7 +21511,7 @@
         <v>37</v>
       </c>
       <c r="D13" s="57" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" si="0"/>
@@ -21529,7 +21529,7 @@
         <v>37</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="0"/>
